--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4992" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4991" uniqueCount="615">
   <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
@@ -3744,7 +3744,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5/14 24時現在</t>
+    <t>5/15 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4639,6 +4639,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4653,30 +4677,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4947,7 +4947,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4961,8 +4961,8 @@
   </sheetPr>
   <dimension ref="A1:AC710"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H180" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Z186" sqref="Z186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5016,14 +5016,14 @@
     </row>
     <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="55"/>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
@@ -5080,77 +5080,77 @@
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="55"/>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="99" t="s">
+      <c r="G4" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="99" t="s">
+      <c r="J4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="104" t="s">
+      <c r="L4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="104" t="s">
+      <c r="M4" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="104" t="s">
+      <c r="O4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="104" t="s">
+      <c r="Q4" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="104" t="s">
+      <c r="T4" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="104" t="s">
+      <c r="U4" s="99" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="98"/>
-      <c r="W4" s="104" t="s">
+      <c r="W4" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="104" t="s">
+      <c r="X4" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="108" t="s">
+      <c r="Y4" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="110" t="s">
+      <c r="Z4" s="103" t="s">
         <v>21</v>
       </c>
       <c r="AA4" s="58"/>
@@ -5158,31 +5158,31 @@
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="55"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
       <c r="V5" s="60"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="111"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="104"/>
       <c r="AA5" s="61" t="s">
         <v>22</v>
       </c>
@@ -5342,19 +5342,19 @@
         <v>162</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>607</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>607</v>
+        <v>41</v>
+      </c>
+      <c r="I9" s="7">
+        <v>43956</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>608</v>
+        <v>28</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -15202,7 +15202,7 @@
         <v>216</v>
       </c>
       <c r="K186" s="13" t="s">
-        <v>29</v>
+        <v>592</v>
       </c>
       <c r="L186" s="9"/>
       <c r="M186" s="9"/>
@@ -15219,10 +15219,10 @@
       <c r="X186" s="52"/>
       <c r="Y186" s="68"/>
       <c r="Z186" s="69"/>
-      <c r="AA186" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB186" s="70"/>
+      <c r="AA186" s="67"/>
+      <c r="AB186" s="70" t="s">
+        <v>30</v>
+      </c>
       <c r="AC186" s="56">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -15930,7 +15930,7 @@
         <v>28</v>
       </c>
       <c r="K199" s="10" t="s">
-        <v>29</v>
+        <v>592</v>
       </c>
       <c r="L199" s="9"/>
       <c r="M199" s="9"/>
@@ -15947,10 +15947,10 @@
       <c r="X199" s="52"/>
       <c r="Y199" s="53"/>
       <c r="Z199" s="54"/>
-      <c r="AA199" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB199" s="66"/>
+      <c r="AA199" s="65"/>
+      <c r="AB199" s="66" t="s">
+        <v>30</v>
+      </c>
       <c r="AC199" s="56">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -18002,7 +18002,7 @@
         <v>28</v>
       </c>
       <c r="K236" s="10" t="s">
-        <v>29</v>
+        <v>592</v>
       </c>
       <c r="L236" s="9"/>
       <c r="M236" s="9"/>
@@ -18019,10 +18019,10 @@
       <c r="X236" s="52"/>
       <c r="Y236" s="53"/>
       <c r="Z236" s="54"/>
-      <c r="AA236" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB236" s="66"/>
+      <c r="AA236" s="65"/>
+      <c r="AB236" s="66" t="s">
+        <v>30</v>
+      </c>
       <c r="AC236" s="56">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -18114,7 +18114,7 @@
         <v>28</v>
       </c>
       <c r="K238" s="10" t="s">
-        <v>29</v>
+        <v>592</v>
       </c>
       <c r="L238" s="9"/>
       <c r="M238" s="9"/>
@@ -18131,10 +18131,10 @@
       <c r="X238" s="52"/>
       <c r="Y238" s="53"/>
       <c r="Z238" s="54"/>
-      <c r="AA238" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB238" s="66"/>
+      <c r="AA238" s="65"/>
+      <c r="AB238" s="66" t="s">
+        <v>30</v>
+      </c>
       <c r="AC238" s="56">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -18170,7 +18170,7 @@
         <v>28</v>
       </c>
       <c r="K239" s="10" t="s">
-        <v>29</v>
+        <v>592</v>
       </c>
       <c r="L239" s="9"/>
       <c r="M239" s="9"/>
@@ -18187,10 +18187,10 @@
       <c r="X239" s="52"/>
       <c r="Y239" s="53"/>
       <c r="Z239" s="54"/>
-      <c r="AA239" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB239" s="66"/>
+      <c r="AA239" s="65"/>
+      <c r="AB239" s="66" t="s">
+        <v>30</v>
+      </c>
       <c r="AC239" s="56">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -44316,11 +44316,11 @@
       </c>
       <c r="AA705" s="49">
         <f t="shared" si="11"/>
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AB705" s="55">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC705" s="96">
         <f>SUM(L705:AB705)</f>
@@ -44493,20 +44493,6 @@
     <sortCondition descending="1" ref="B7:B549"/>
   </sortState>
   <mergeCells count="25">
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -44518,6 +44504,20 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\president01\userredirect$\m009118\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="483"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11595" tabRatio="483"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$AB$707</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -3664,10 +3659,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>神戸赤十字病院に入院中の患者（5/3再発、神戸N0.262)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>感染経路確認済</t>
     <rPh sb="0" eb="2">
       <t>カンセン</t>
@@ -3759,20 +3750,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>神戸赤十字病院に入院中の患者（5/3再発、神戸N0.262)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>No.226の同居人（5/19再発、尼崎N0.17)</t>
+    <rPh sb="18" eb="20">
+      <t>アマガサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>No.217、No.219の同居人（5/23再発、西宮N0.22)</t>
-  </si>
-  <si>
-    <t>5/23 24時現在</t>
+    <rPh sb="25" eb="27">
+      <t>ニシノミヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/24 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4706,9 +4709,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4968,7 +4968,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4982,8 +4982,8 @@
   </sheetPr>
   <dimension ref="A1:AC711"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L3" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5531,7 +5531,7 @@
         <v>122</v>
       </c>
       <c r="K12" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
@@ -5999,7 +5999,7 @@
         <v>567</v>
       </c>
       <c r="K21" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -6103,7 +6103,7 @@
         <v>46</v>
       </c>
       <c r="K23" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
@@ -6155,7 +6155,7 @@
         <v>46</v>
       </c>
       <c r="K24" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
@@ -6707,7 +6707,7 @@
         <v>549</v>
       </c>
       <c r="K34" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
@@ -7547,7 +7547,7 @@
         <v>122</v>
       </c>
       <c r="K49" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
@@ -8387,7 +8387,7 @@
         <v>46</v>
       </c>
       <c r="K64" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
@@ -8443,7 +8443,7 @@
         <v>46</v>
       </c>
       <c r="K65" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L65" s="20"/>
       <c r="M65" s="20"/>
@@ -9115,7 +9115,7 @@
         <v>46</v>
       </c>
       <c r="K77" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
@@ -9507,7 +9507,7 @@
         <v>46</v>
       </c>
       <c r="K84" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L84" s="20"/>
       <c r="M84" s="20"/>
@@ -9563,7 +9563,7 @@
         <v>46</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L85" s="20"/>
       <c r="M85" s="20"/>
@@ -10123,7 +10123,7 @@
         <v>46</v>
       </c>
       <c r="K95" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L95" s="20"/>
       <c r="M95" s="20"/>
@@ -10459,7 +10459,7 @@
         <v>46</v>
       </c>
       <c r="K101" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L101" s="20"/>
       <c r="M101" s="20"/>
@@ -10739,7 +10739,7 @@
         <v>437</v>
       </c>
       <c r="K106" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L106" s="20"/>
       <c r="M106" s="20"/>
@@ -11355,7 +11355,7 @@
         <v>35</v>
       </c>
       <c r="K117" s="24" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="L117" s="20"/>
       <c r="M117" s="20"/>
@@ -11915,7 +11915,7 @@
         <v>57</v>
       </c>
       <c r="K127" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L127" s="20"/>
       <c r="M127" s="20"/>
@@ -12083,7 +12083,7 @@
         <v>57</v>
       </c>
       <c r="K130" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L130" s="20"/>
       <c r="M130" s="20"/>
@@ -12139,7 +12139,7 @@
         <v>57</v>
       </c>
       <c r="K131" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L131" s="20"/>
       <c r="M131" s="20"/>
@@ -12307,7 +12307,7 @@
         <v>485</v>
       </c>
       <c r="K134" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L134" s="20"/>
       <c r="M134" s="20"/>
@@ -12363,7 +12363,7 @@
         <v>122</v>
       </c>
       <c r="K135" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L135" s="20"/>
       <c r="M135" s="20"/>
@@ -12419,7 +12419,7 @@
         <v>485</v>
       </c>
       <c r="K136" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L136" s="20"/>
       <c r="M136" s="20"/>
@@ -12475,7 +12475,7 @@
         <v>485</v>
       </c>
       <c r="K137" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L137" s="20"/>
       <c r="M137" s="20"/>
@@ -12699,7 +12699,7 @@
         <v>485</v>
       </c>
       <c r="K141" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L141" s="20"/>
       <c r="M141" s="20"/>
@@ -13091,7 +13091,7 @@
         <v>35</v>
       </c>
       <c r="K148" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L148" s="20"/>
       <c r="M148" s="20"/>
@@ -13147,7 +13147,7 @@
         <v>46</v>
       </c>
       <c r="K149" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L149" s="20"/>
       <c r="M149" s="20"/>
@@ -13651,7 +13651,7 @@
         <v>46</v>
       </c>
       <c r="K158" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L158" s="20"/>
       <c r="M158" s="20"/>
@@ -13707,7 +13707,7 @@
         <v>46</v>
       </c>
       <c r="K159" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L159" s="20"/>
       <c r="M159" s="20"/>
@@ -14034,7 +14034,7 @@
         <v>92</v>
       </c>
       <c r="H165" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I165" s="23">
         <v>43912</v>
@@ -14155,7 +14155,7 @@
         <v>46</v>
       </c>
       <c r="K167" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L167" s="20"/>
       <c r="M167" s="20"/>
@@ -14211,7 +14211,7 @@
         <v>46</v>
       </c>
       <c r="K168" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L168" s="20"/>
       <c r="M168" s="20"/>
@@ -14267,7 +14267,7 @@
         <v>46</v>
       </c>
       <c r="K169" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L169" s="20"/>
       <c r="M169" s="20"/>
@@ -14379,7 +14379,7 @@
         <v>46</v>
       </c>
       <c r="K171" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L171" s="20"/>
       <c r="M171" s="20"/>
@@ -14659,7 +14659,7 @@
         <v>46</v>
       </c>
       <c r="K176" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L176" s="20"/>
       <c r="M176" s="20"/>
@@ -14715,7 +14715,7 @@
         <v>46</v>
       </c>
       <c r="K177" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L177" s="20"/>
       <c r="M177" s="20"/>
@@ -15051,7 +15051,7 @@
         <v>28</v>
       </c>
       <c r="K183" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L183" s="20"/>
       <c r="M183" s="20"/>
@@ -15443,7 +15443,7 @@
         <v>46</v>
       </c>
       <c r="K190" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L190" s="20"/>
       <c r="M190" s="20"/>
@@ -15723,7 +15723,7 @@
         <v>28</v>
       </c>
       <c r="K195" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L195" s="20"/>
       <c r="M195" s="20"/>
@@ -16059,7 +16059,7 @@
         <v>46</v>
       </c>
       <c r="K201" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L201" s="20"/>
       <c r="M201" s="20"/>
@@ -16227,7 +16227,7 @@
         <v>28</v>
       </c>
       <c r="K204" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L204" s="20"/>
       <c r="M204" s="20"/>
@@ -16339,7 +16339,7 @@
         <v>57</v>
       </c>
       <c r="K206" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L206" s="20"/>
       <c r="M206" s="20"/>
@@ -16395,7 +16395,7 @@
         <v>57</v>
       </c>
       <c r="K207" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L207" s="20"/>
       <c r="M207" s="20"/>
@@ -16619,7 +16619,7 @@
         <v>57</v>
       </c>
       <c r="K211" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L211" s="20"/>
       <c r="M211" s="20"/>
@@ -16787,7 +16787,7 @@
         <v>69</v>
       </c>
       <c r="K214" s="39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L214" s="20"/>
       <c r="M214" s="20"/>
@@ -17179,7 +17179,7 @@
         <v>28</v>
       </c>
       <c r="K221" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L221" s="20"/>
       <c r="M221" s="20"/>
@@ -17403,7 +17403,7 @@
         <v>28</v>
       </c>
       <c r="K225" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L225" s="20"/>
       <c r="M225" s="20"/>
@@ -17515,7 +17515,7 @@
         <v>28</v>
       </c>
       <c r="K227" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L227" s="20"/>
       <c r="M227" s="20"/>
@@ -18019,7 +18019,7 @@
         <v>28</v>
       </c>
       <c r="K236" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L236" s="20"/>
       <c r="M236" s="20"/>
@@ -18523,7 +18523,7 @@
         <v>28</v>
       </c>
       <c r="K245" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L245" s="20"/>
       <c r="M245" s="20"/>
@@ -18747,7 +18747,7 @@
         <v>28</v>
       </c>
       <c r="K249" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L249" s="20"/>
       <c r="M249" s="20"/>
@@ -19139,7 +19139,7 @@
         <v>193</v>
       </c>
       <c r="K256" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L256" s="20"/>
       <c r="M256" s="20"/>
@@ -19363,7 +19363,7 @@
         <v>195</v>
       </c>
       <c r="K260" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L260" s="20"/>
       <c r="M260" s="20"/>
@@ -19419,7 +19419,7 @@
         <v>195</v>
       </c>
       <c r="K261" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L261" s="20"/>
       <c r="M261" s="20"/>
@@ -19643,7 +19643,7 @@
         <v>196</v>
       </c>
       <c r="K265" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L265" s="20"/>
       <c r="M265" s="20"/>
@@ -19699,7 +19699,7 @@
         <v>196</v>
       </c>
       <c r="K266" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L266" s="20"/>
       <c r="M266" s="20"/>
@@ -20147,7 +20147,7 @@
         <v>28</v>
       </c>
       <c r="K274" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L274" s="20"/>
       <c r="M274" s="20"/>
@@ -20259,7 +20259,7 @@
         <v>28</v>
       </c>
       <c r="K276" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L276" s="20"/>
       <c r="M276" s="20"/>
@@ -20539,7 +20539,7 @@
         <v>28</v>
       </c>
       <c r="K281" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L281" s="20"/>
       <c r="M281" s="20"/>
@@ -20707,7 +20707,7 @@
         <v>183</v>
       </c>
       <c r="K284" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L284" s="20"/>
       <c r="M284" s="20"/>
@@ -20763,7 +20763,7 @@
         <v>184</v>
       </c>
       <c r="K285" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L285" s="20"/>
       <c r="M285" s="20"/>
@@ -21099,7 +21099,7 @@
         <v>185</v>
       </c>
       <c r="K291" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L291" s="20"/>
       <c r="M291" s="20"/>
@@ -21155,7 +21155,7 @@
         <v>185</v>
       </c>
       <c r="K292" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L292" s="20"/>
       <c r="M292" s="20"/>
@@ -21211,7 +21211,7 @@
         <v>185</v>
       </c>
       <c r="K293" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L293" s="20"/>
       <c r="M293" s="20"/>
@@ -21379,7 +21379,7 @@
         <v>46</v>
       </c>
       <c r="K296" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L296" s="20"/>
       <c r="M296" s="20"/>
@@ -21482,7 +21482,7 @@
         <v>92</v>
       </c>
       <c r="H298" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I298" s="23">
         <v>43926</v>
@@ -21491,7 +21491,7 @@
         <v>185</v>
       </c>
       <c r="K298" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L298" s="20"/>
       <c r="M298" s="20"/>
@@ -21659,7 +21659,7 @@
         <v>28</v>
       </c>
       <c r="K301" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L301" s="20"/>
       <c r="M301" s="20"/>
@@ -21827,7 +21827,7 @@
         <v>173</v>
       </c>
       <c r="K304" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L304" s="20"/>
       <c r="M304" s="20"/>
@@ -22387,7 +22387,7 @@
         <v>28</v>
       </c>
       <c r="K314" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L314" s="20"/>
       <c r="M314" s="20"/>
@@ -23109,7 +23109,7 @@
         <v>83</v>
       </c>
       <c r="I327" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J327" s="40" t="s">
         <v>28</v>
@@ -23165,7 +23165,7 @@
         <v>83</v>
       </c>
       <c r="I328" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J328" s="40" t="s">
         <v>28</v>
@@ -23221,7 +23221,7 @@
         <v>83</v>
       </c>
       <c r="I329" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J329" s="40" t="s">
         <v>28</v>
@@ -23277,7 +23277,7 @@
         <v>83</v>
       </c>
       <c r="I330" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J330" s="40" t="s">
         <v>28</v>
@@ -23731,7 +23731,7 @@
         <v>28</v>
       </c>
       <c r="K338" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L338" s="40"/>
       <c r="M338" s="40"/>
@@ -23787,7 +23787,7 @@
         <v>28</v>
       </c>
       <c r="K339" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L339" s="40"/>
       <c r="M339" s="40"/>
@@ -23955,7 +23955,7 @@
         <v>28</v>
       </c>
       <c r="K342" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L342" s="40"/>
       <c r="M342" s="40"/>
@@ -24123,7 +24123,7 @@
         <v>28</v>
       </c>
       <c r="K345" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L345" s="40"/>
       <c r="M345" s="40"/>
@@ -24291,7 +24291,7 @@
         <v>28</v>
       </c>
       <c r="K348" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L348" s="40"/>
       <c r="M348" s="40"/>
@@ -24347,7 +24347,7 @@
         <v>28</v>
       </c>
       <c r="K349" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L349" s="40"/>
       <c r="M349" s="40"/>
@@ -24627,7 +24627,7 @@
         <v>28</v>
       </c>
       <c r="K354" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L354" s="40"/>
       <c r="M354" s="40"/>
@@ -24963,7 +24963,7 @@
         <v>28</v>
       </c>
       <c r="K360" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L360" s="40"/>
       <c r="M360" s="40"/>
@@ -25523,7 +25523,7 @@
         <v>28</v>
       </c>
       <c r="K370" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L370" s="40"/>
       <c r="M370" s="40"/>
@@ -25909,7 +25909,7 @@
         <v>78</v>
       </c>
       <c r="I377" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J377" s="40" t="s">
         <v>28</v>
@@ -25965,7 +25965,7 @@
         <v>83</v>
       </c>
       <c r="I378" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J378" s="40" t="s">
         <v>28</v>
@@ -26021,7 +26021,7 @@
         <v>83</v>
       </c>
       <c r="I379" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J379" s="40" t="s">
         <v>28</v>
@@ -26077,7 +26077,7 @@
         <v>83</v>
       </c>
       <c r="I380" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J380" s="40" t="s">
         <v>28</v>
@@ -26133,7 +26133,7 @@
         <v>83</v>
       </c>
       <c r="I381" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J381" s="40" t="s">
         <v>28</v>
@@ -26189,7 +26189,7 @@
         <v>83</v>
       </c>
       <c r="I382" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J382" s="40" t="s">
         <v>28</v>
@@ -26245,7 +26245,7 @@
         <v>83</v>
       </c>
       <c r="I383" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J383" s="40" t="s">
         <v>28</v>
@@ -26301,7 +26301,7 @@
         <v>83</v>
       </c>
       <c r="I384" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J384" s="40" t="s">
         <v>28</v>
@@ -26469,7 +26469,7 @@
         <v>83</v>
       </c>
       <c r="I387" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J387" s="40" t="s">
         <v>28</v>
@@ -26699,7 +26699,7 @@
         <v>69</v>
       </c>
       <c r="K391" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L391" s="40"/>
       <c r="M391" s="40"/>
@@ -26755,7 +26755,7 @@
         <v>46</v>
       </c>
       <c r="K392" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L392" s="40"/>
       <c r="M392" s="40"/>
@@ -26811,7 +26811,7 @@
         <v>57</v>
       </c>
       <c r="K393" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L393" s="40"/>
       <c r="M393" s="40"/>
@@ -26867,7 +26867,7 @@
         <v>57</v>
       </c>
       <c r="K394" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L394" s="40"/>
       <c r="M394" s="40"/>
@@ -27035,7 +27035,7 @@
         <v>46</v>
       </c>
       <c r="K397" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L397" s="40"/>
       <c r="M397" s="40"/>
@@ -27147,7 +27147,7 @@
         <v>46</v>
       </c>
       <c r="K399" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L399" s="40"/>
       <c r="M399" s="40"/>
@@ -27259,7 +27259,7 @@
         <v>57</v>
       </c>
       <c r="K401" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L401" s="40"/>
       <c r="M401" s="40"/>
@@ -27819,7 +27819,7 @@
         <v>28</v>
       </c>
       <c r="K411" s="38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L411" s="40"/>
       <c r="M411" s="40"/>
@@ -28155,7 +28155,7 @@
         <v>28</v>
       </c>
       <c r="K417" s="38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L417" s="40"/>
       <c r="M417" s="40"/>
@@ -28379,7 +28379,7 @@
         <v>28</v>
       </c>
       <c r="K421" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L421" s="40"/>
       <c r="M421" s="40"/>
@@ -28547,7 +28547,7 @@
         <v>28</v>
       </c>
       <c r="K424" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L424" s="40"/>
       <c r="M424" s="40"/>
@@ -28715,7 +28715,7 @@
         <v>28</v>
       </c>
       <c r="K427" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L427" s="40"/>
       <c r="M427" s="40"/>
@@ -28771,7 +28771,7 @@
         <v>28</v>
       </c>
       <c r="K428" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L428" s="40"/>
       <c r="M428" s="40"/>
@@ -28827,7 +28827,7 @@
         <v>28</v>
       </c>
       <c r="K429" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L429" s="40"/>
       <c r="M429" s="40"/>
@@ -29219,7 +29219,7 @@
         <v>69</v>
       </c>
       <c r="K436" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L436" s="40"/>
       <c r="M436" s="40"/>
@@ -29443,7 +29443,7 @@
         <v>28</v>
       </c>
       <c r="K440" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L440" s="40"/>
       <c r="M440" s="40"/>
@@ -29499,7 +29499,7 @@
         <v>28</v>
       </c>
       <c r="K441" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L441" s="40"/>
       <c r="M441" s="40"/>
@@ -29555,7 +29555,7 @@
         <v>28</v>
       </c>
       <c r="K442" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L442" s="40"/>
       <c r="M442" s="40"/>
@@ -29602,7 +29602,7 @@
         <v>104</v>
       </c>
       <c r="H443" s="43" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I443" s="48">
         <v>43927</v>
@@ -29667,7 +29667,7 @@
         <v>164</v>
       </c>
       <c r="K444" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L444" s="40"/>
       <c r="M444" s="40"/>
@@ -29779,7 +29779,7 @@
         <v>46</v>
       </c>
       <c r="K446" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L446" s="40"/>
       <c r="M446" s="40"/>
@@ -29835,7 +29835,7 @@
         <v>46</v>
       </c>
       <c r="K447" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L447" s="40"/>
       <c r="M447" s="40"/>
@@ -29947,7 +29947,7 @@
         <v>46</v>
       </c>
       <c r="K449" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L449" s="40"/>
       <c r="M449" s="40"/>
@@ -30171,7 +30171,7 @@
         <v>224</v>
       </c>
       <c r="K453" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L453" s="40"/>
       <c r="M453" s="40"/>
@@ -30283,7 +30283,7 @@
         <v>224</v>
       </c>
       <c r="K455" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L455" s="40"/>
       <c r="M455" s="40"/>
@@ -30339,7 +30339,7 @@
         <v>122</v>
       </c>
       <c r="K456" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L456" s="40"/>
       <c r="M456" s="40"/>
@@ -30619,7 +30619,7 @@
         <v>122</v>
       </c>
       <c r="K461" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L461" s="40"/>
       <c r="M461" s="40"/>
@@ -30675,7 +30675,7 @@
         <v>122</v>
       </c>
       <c r="K462" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L462" s="40"/>
       <c r="M462" s="40"/>
@@ -31123,7 +31123,7 @@
         <v>28</v>
       </c>
       <c r="K470" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L470" s="40"/>
       <c r="M470" s="40"/>
@@ -31459,7 +31459,7 @@
         <v>69</v>
       </c>
       <c r="K476" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L476" s="40"/>
       <c r="M476" s="40"/>
@@ -31571,7 +31571,7 @@
         <v>69</v>
       </c>
       <c r="K478" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L478" s="40"/>
       <c r="M478" s="40"/>
@@ -32467,7 +32467,7 @@
         <v>28</v>
       </c>
       <c r="K494" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L494" s="40"/>
       <c r="M494" s="40"/>
@@ -32579,7 +32579,7 @@
         <v>28</v>
       </c>
       <c r="K496" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L496" s="40"/>
       <c r="M496" s="40"/>
@@ -32691,7 +32691,7 @@
         <v>28</v>
       </c>
       <c r="K498" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L498" s="40"/>
       <c r="M498" s="40"/>
@@ -32803,7 +32803,7 @@
         <v>28</v>
       </c>
       <c r="K500" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L500" s="40"/>
       <c r="M500" s="40"/>
@@ -32971,7 +32971,7 @@
         <v>69</v>
       </c>
       <c r="K503" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L503" s="40"/>
       <c r="M503" s="40"/>
@@ -33363,7 +33363,7 @@
         <v>28</v>
       </c>
       <c r="K510" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L510" s="40"/>
       <c r="M510" s="40"/>
@@ -33419,7 +33419,7 @@
         <v>28</v>
       </c>
       <c r="K511" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L511" s="40"/>
       <c r="M511" s="40"/>
@@ -33699,7 +33699,7 @@
         <v>28</v>
       </c>
       <c r="K516" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L516" s="40"/>
       <c r="M516" s="40"/>
@@ -34147,7 +34147,7 @@
         <v>28</v>
       </c>
       <c r="K524" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L524" s="40"/>
       <c r="M524" s="40"/>
@@ -34203,7 +34203,7 @@
         <v>28</v>
       </c>
       <c r="K525" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L525" s="40"/>
       <c r="M525" s="40"/>
@@ -34595,7 +34595,7 @@
         <v>69</v>
       </c>
       <c r="K532" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L532" s="40"/>
       <c r="M532" s="40"/>
@@ -34931,7 +34931,7 @@
         <v>28</v>
       </c>
       <c r="K538" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L538" s="40"/>
       <c r="M538" s="40"/>
@@ -35211,7 +35211,7 @@
         <v>28</v>
       </c>
       <c r="K543" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L543" s="40"/>
       <c r="M543" s="40"/>
@@ -35267,7 +35267,7 @@
         <v>122</v>
       </c>
       <c r="K544" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L544" s="40"/>
       <c r="M544" s="40"/>
@@ -35323,7 +35323,7 @@
         <v>85</v>
       </c>
       <c r="K545" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L545" s="40"/>
       <c r="M545" s="40"/>
@@ -35995,7 +35995,7 @@
         <v>57</v>
       </c>
       <c r="K557" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L557" s="40"/>
       <c r="M557" s="40"/>
@@ -36275,7 +36275,7 @@
         <v>28</v>
       </c>
       <c r="K562" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L562" s="40"/>
       <c r="M562" s="40"/>
@@ -36499,7 +36499,7 @@
         <v>28</v>
       </c>
       <c r="K566" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L566" s="40"/>
       <c r="M566" s="40"/>
@@ -36555,7 +36555,7 @@
         <v>28</v>
       </c>
       <c r="K567" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L567" s="40"/>
       <c r="M567" s="40"/>
@@ -36611,7 +36611,7 @@
         <v>28</v>
       </c>
       <c r="K568" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L568" s="40"/>
       <c r="M568" s="40"/>
@@ -36723,7 +36723,7 @@
         <v>35</v>
       </c>
       <c r="K570" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L570" s="40"/>
       <c r="M570" s="40"/>
@@ -37171,7 +37171,7 @@
         <v>57</v>
       </c>
       <c r="K578" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L578" s="40"/>
       <c r="M578" s="40"/>
@@ -37227,7 +37227,7 @@
         <v>57</v>
       </c>
       <c r="K579" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L579" s="40"/>
       <c r="M579" s="40"/>
@@ -37395,7 +37395,7 @@
         <v>28</v>
       </c>
       <c r="K582" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L582" s="40"/>
       <c r="M582" s="40"/>
@@ -37451,7 +37451,7 @@
         <v>28</v>
       </c>
       <c r="K583" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L583" s="40"/>
       <c r="M583" s="40"/>
@@ -37563,7 +37563,7 @@
         <v>57</v>
       </c>
       <c r="K585" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L585" s="40"/>
       <c r="M585" s="40"/>
@@ -41485,7 +41485,7 @@
         <v>57</v>
       </c>
       <c r="K655" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L655" s="40"/>
       <c r="M655" s="40"/>
@@ -41541,7 +41541,7 @@
         <v>57</v>
       </c>
       <c r="K656" s="39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L656" s="40"/>
       <c r="M656" s="40"/>
@@ -41993,7 +41993,7 @@
         <v>57</v>
       </c>
       <c r="K664" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L664" s="56"/>
       <c r="M664" s="40"/>
@@ -44231,7 +44231,7 @@
         <v>57</v>
       </c>
       <c r="K704" s="55" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L704" s="58"/>
       <c r="M704" s="59"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -3768,7 +3768,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5/24 24時現在</t>
+    <t>5/25 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4660,30 +4660,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4698,6 +4674,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4968,7 +4968,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4982,8 +4982,8 @@
   </sheetPr>
   <dimension ref="A1:AC711"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5037,14 +5037,14 @@
     </row>
     <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
@@ -5101,77 +5101,77 @@
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="108" t="s">
+      <c r="G4" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="L4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="M4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="100" t="s">
+      <c r="O4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="100" t="s">
+      <c r="Q4" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="100" t="s">
+      <c r="T4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="100" t="s">
+      <c r="U4" s="105" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="99"/>
-      <c r="W4" s="100" t="s">
+      <c r="W4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="100" t="s">
+      <c r="X4" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="102" t="s">
+      <c r="Y4" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="104" t="s">
+      <c r="Z4" s="111" t="s">
         <v>21</v>
       </c>
       <c r="AA4" s="13"/>
@@ -5179,31 +5179,31 @@
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="105"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="112"/>
       <c r="AA5" s="16" t="s">
         <v>22</v>
       </c>
@@ -44566,6 +44566,20 @@
     <sortCondition descending="1" ref="B7:B705"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -44577,23 +44591,9 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11595" tabRatio="483"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640" tabRatio="483"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$AB$707</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3768,7 +3775,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5/25 24時現在</t>
+    <t>5/26 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4709,6 +4716,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4982,8 +4992,8 @@
   </sheetPr>
   <dimension ref="A1:AC711"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A512" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I518" sqref="I518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -33808,7 +33818,7 @@
         <v>43919</v>
       </c>
       <c r="J518" s="40" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="K518" s="38" t="s">
         <v>336</v>
@@ -44594,6 +44604,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -14,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$AB$707</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3775,7 +3775,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5/26 24時現在</t>
+    <t>5/27 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4992,8 +4992,8 @@
   </sheetPr>
   <dimension ref="A1:AC711"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A512" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I518" sqref="I518"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\president01\userredirect$\m009118\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640" tabRatio="483"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="483"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$AB$707</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3775,14 +3780,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5/28 24時現在</t>
+    <t>5/29 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4706,30 +4711,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4750,6 +4731,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5023,7 +5028,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5037,8 +5042,8 @@
   </sheetPr>
   <dimension ref="A1:AC711"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5092,14 +5097,14 @@
     </row>
     <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="8"/>
       <c r="I2" s="99"/>
       <c r="J2" s="9"/>
@@ -5156,77 +5161,77 @@
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="119" t="s">
+      <c r="F4" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="119" t="s">
+      <c r="G4" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="111" t="s">
+      <c r="L4" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="111" t="s">
+      <c r="M4" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="111" t="s">
+      <c r="O4" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="111" t="s">
+      <c r="P4" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="111" t="s">
+      <c r="Q4" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="117" t="s">
+      <c r="R4" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="117" t="s">
+      <c r="S4" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="111" t="s">
+      <c r="T4" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="111" t="s">
+      <c r="U4" s="118" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="97"/>
-      <c r="W4" s="111" t="s">
+      <c r="W4" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="111" t="s">
+      <c r="X4" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="113" t="s">
+      <c r="Y4" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="115" t="s">
+      <c r="Z4" s="124" t="s">
         <v>21</v>
       </c>
       <c r="AA4" s="13"/>
@@ -5234,31 +5239,31 @@
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="114"/>
-      <c r="Z5" s="116"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="125"/>
       <c r="AA5" s="16" t="s">
         <v>22</v>
       </c>
@@ -44621,6 +44626,20 @@
     <sortCondition descending="1" ref="B7:B705"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -44632,23 +44651,9 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="620">
   <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
@@ -3797,11 +3797,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5/31 24時現在</t>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
+    <t>感染経路確認済</t>
+    <rPh sb="0" eb="2">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/1 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5090,8 +5106,8 @@
   </sheetPr>
   <dimension ref="A1:AC711"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Y49" sqref="Y49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5204,7 +5220,7 @@
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7655,7 +7671,7 @@
         <v>122</v>
       </c>
       <c r="K49" s="95" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
@@ -7671,7 +7687,7 @@
       <c r="W49" s="26"/>
       <c r="X49" s="26"/>
       <c r="Y49" s="27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Z49" s="28"/>
       <c r="AA49" s="29"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\president01\userredirect$\m009118\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640" tabRatio="483"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="483"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$AB$707</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="614">
   <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
@@ -2980,23 +2985,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>行動歴調査中</t>
-    <rPh sb="0" eb="2">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>レキ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3586,10 +3574,6 @@
     <rPh sb="0" eb="3">
       <t>ヒメジシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3783,14 +3767,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/4 24時現在</t>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/5 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4675,30 +4663,6 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4713,6 +4677,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4986,7 +4974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5000,8 +4988,8 @@
   </sheetPr>
   <dimension ref="A1:AC711"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5055,14 +5043,14 @@
     </row>
     <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
@@ -5114,82 +5102,82 @@
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="108" t="s">
+      <c r="G4" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="L4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="M4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="100" t="s">
+      <c r="O4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="100" t="s">
+      <c r="Q4" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="100" t="s">
+      <c r="T4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="100" t="s">
+      <c r="U4" s="105" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="96"/>
-      <c r="W4" s="100" t="s">
+      <c r="W4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="100" t="s">
+      <c r="X4" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="102" t="s">
+      <c r="Y4" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="104" t="s">
+      <c r="Z4" s="111" t="s">
         <v>21</v>
       </c>
       <c r="AA4" s="13"/>
@@ -5197,31 +5185,31 @@
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="105"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="112"/>
       <c r="AA5" s="16" t="s">
         <v>22</v>
       </c>
@@ -5289,7 +5277,7 @@
         <v>122</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>358</v>
+        <v>572</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
@@ -5306,10 +5294,10 @@
       <c r="X7" s="26"/>
       <c r="Y7" s="27"/>
       <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB7" s="30"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="30" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
@@ -5323,13 +5311,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>589</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>590</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>591</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>198</v>
@@ -5341,7 +5329,7 @@
         <v>195</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
@@ -5358,10 +5346,10 @@
       <c r="X8" s="26"/>
       <c r="Y8" s="27"/>
       <c r="Z8" s="28"/>
-      <c r="AA8" s="29" t="s">
-        <v>592</v>
-      </c>
-      <c r="AB8" s="30"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="30" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
@@ -5375,7 +5363,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>162</v>
@@ -5393,7 +5381,7 @@
         <v>46</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -5427,7 +5415,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>162</v>
@@ -5445,7 +5433,7 @@
         <v>122</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
@@ -5479,7 +5467,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>162</v>
@@ -5494,7 +5482,7 @@
         <v>43962</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K11" s="24" t="s">
         <v>458</v>
@@ -5549,7 +5537,7 @@
         <v>122</v>
       </c>
       <c r="K12" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
@@ -5589,7 +5577,7 @@
         <v>176</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>175</v>
@@ -5598,10 +5586,10 @@
         <v>43956</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -5644,16 +5632,16 @@
         <v>217</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>75</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -5696,16 +5684,16 @@
         <v>217</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>75</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -5748,16 +5736,16 @@
         <v>81</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>75</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
@@ -5797,7 +5785,7 @@
         <v>162</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>408</v>
@@ -5806,10 +5794,10 @@
         <v>43960</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -5852,16 +5840,16 @@
         <v>112</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I18" s="23">
         <v>43953</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -5904,16 +5892,16 @@
         <v>112</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I19" s="23">
         <v>43949</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
@@ -5962,10 +5950,10 @@
         <v>43945</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
@@ -6014,10 +6002,10 @@
         <v>43956</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K21" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -6057,7 +6045,7 @@
         <v>176</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>34</v>
@@ -6066,10 +6054,10 @@
         <v>43956</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
@@ -6121,7 +6109,7 @@
         <v>46</v>
       </c>
       <c r="K23" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
@@ -6173,7 +6161,7 @@
         <v>46</v>
       </c>
       <c r="K24" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
@@ -6225,7 +6213,7 @@
         <v>35</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
@@ -6259,10 +6247,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>104</v>
@@ -6274,10 +6262,10 @@
         <v>43951</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
@@ -6315,7 +6303,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>179</v>
@@ -6324,16 +6312,16 @@
         <v>478</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I27" s="23">
         <v>43954</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
@@ -6371,13 +6359,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>553</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>555</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>34</v>
@@ -6389,7 +6377,7 @@
         <v>46</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
@@ -6427,16 +6415,16 @@
         <v>20</v>
       </c>
       <c r="E29" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>558</v>
-      </c>
-      <c r="G29" s="22" t="s">
+      <c r="H29" s="22" t="s">
         <v>554</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>556</v>
       </c>
       <c r="I29" s="23">
         <v>43952</v>
@@ -6445,7 +6433,7 @@
         <v>46</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
@@ -6501,7 +6489,7 @@
         <v>46</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
@@ -6548,7 +6536,7 @@
         <v>44</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I31" s="23">
         <v>43954</v>
@@ -6604,7 +6592,7 @@
         <v>44</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I32" s="23">
         <v>43956</v>
@@ -6657,7 +6645,7 @@
         <v>160</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>34</v>
@@ -6666,10 +6654,10 @@
         <v>43946</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -6713,19 +6701,19 @@
         <v>160</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I34" s="23">
         <v>43946</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K34" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
@@ -6741,7 +6729,7 @@
       <c r="W34" s="26"/>
       <c r="X34" s="26"/>
       <c r="Y34" s="27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Z34" s="28"/>
       <c r="AA34" s="29"/>
@@ -6763,13 +6751,13 @@
         <v>30</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>171</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>48</v>
@@ -6781,7 +6769,7 @@
         <v>57</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
@@ -6797,7 +6785,7 @@
       <c r="W35" s="26"/>
       <c r="X35" s="26"/>
       <c r="Y35" s="27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Z35" s="28"/>
       <c r="AA35" s="29"/>
@@ -6819,16 +6807,16 @@
         <v>50</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>44</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I36" s="23">
         <v>43951</v>
@@ -6878,13 +6866,13 @@
         <v>32</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I37" s="23">
         <v>43954</v>
@@ -6934,13 +6922,13 @@
         <v>32</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>44</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I38" s="23">
         <v>43953</v>
@@ -7099,16 +7087,16 @@
         <v>50</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F41" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>534</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>536</v>
       </c>
       <c r="I41" s="23">
         <v>43942</v>
@@ -7117,7 +7105,7 @@
         <v>122</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
@@ -7155,13 +7143,13 @@
         <v>120</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>175</v>
@@ -7173,7 +7161,7 @@
         <v>122</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
@@ -7211,13 +7199,13 @@
         <v>120</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>175</v>
@@ -7229,7 +7217,7 @@
         <v>122</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
@@ -7267,13 +7255,13 @@
         <v>120</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H44" s="22" t="s">
         <v>175</v>
@@ -7285,7 +7273,7 @@
         <v>122</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
@@ -7323,16 +7311,16 @@
         <v>20</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I45" s="23">
         <v>43945</v>
@@ -7341,7 +7329,7 @@
         <v>122</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
@@ -7379,16 +7367,16 @@
         <v>20</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F46" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="H46" s="22" t="s">
         <v>529</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>531</v>
       </c>
       <c r="I46" s="23" t="s">
         <v>75</v>
@@ -7397,7 +7385,7 @@
         <v>122</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
@@ -7435,13 +7423,13 @@
         <v>40</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>171</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H47" s="22" t="s">
         <v>48</v>
@@ -7453,7 +7441,7 @@
         <v>122</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
@@ -7494,7 +7482,7 @@
         <v>43</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G48" s="22" t="s">
         <v>187</v>
@@ -7550,7 +7538,7 @@
         <v>32</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G49" s="22" t="s">
         <v>104</v>
@@ -7565,7 +7553,7 @@
         <v>122</v>
       </c>
       <c r="K49" s="95" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
@@ -7581,7 +7569,7 @@
       <c r="W49" s="26"/>
       <c r="X49" s="26"/>
       <c r="Y49" s="27" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Z49" s="28"/>
       <c r="AA49" s="29"/>
@@ -7606,10 +7594,10 @@
         <v>32</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>78</v>
@@ -7621,7 +7609,7 @@
         <v>122</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
@@ -7724,7 +7712,7 @@
         <v>168</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I52" s="23">
         <v>43942</v>
@@ -7733,7 +7721,7 @@
         <v>46</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
@@ -7789,7 +7777,7 @@
         <v>46</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
@@ -8013,7 +8001,7 @@
         <v>512</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>513</v>
+        <v>593</v>
       </c>
       <c r="L57" s="20"/>
       <c r="M57" s="20"/>
@@ -8028,11 +8016,11 @@
       <c r="V57" s="26"/>
       <c r="W57" s="26"/>
       <c r="X57" s="26"/>
-      <c r="Y57" s="27"/>
+      <c r="Y57" s="27" t="s">
+        <v>612</v>
+      </c>
       <c r="Z57" s="28"/>
-      <c r="AA57" s="29" t="s">
-        <v>514</v>
-      </c>
+      <c r="AA57" s="29"/>
       <c r="AB57" s="30"/>
       <c r="AC57" s="6">
         <f t="shared" si="0"/>
@@ -8079,7 +8067,7 @@
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="T58" s="20"/>
       <c r="U58" s="26"/>
@@ -8237,7 +8225,7 @@
         <v>122</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
@@ -8281,7 +8269,7 @@
         <v>494</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H62" s="22" t="s">
         <v>408</v>
@@ -8405,7 +8393,7 @@
         <v>46</v>
       </c>
       <c r="K64" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
@@ -8461,7 +8449,7 @@
         <v>46</v>
       </c>
       <c r="K65" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L65" s="20"/>
       <c r="M65" s="20"/>
@@ -8517,7 +8505,7 @@
         <v>46</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
@@ -9077,7 +9065,7 @@
         <v>465</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L76" s="20"/>
       <c r="M76" s="20"/>
@@ -9133,7 +9121,7 @@
         <v>46</v>
       </c>
       <c r="K77" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
@@ -9189,7 +9177,7 @@
         <v>46</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L78" s="20"/>
       <c r="M78" s="20"/>
@@ -9245,7 +9233,7 @@
         <v>46</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
@@ -9301,7 +9289,7 @@
         <v>46</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
@@ -9413,7 +9401,7 @@
         <v>46</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L82" s="20"/>
       <c r="M82" s="20"/>
@@ -9525,7 +9513,7 @@
         <v>46</v>
       </c>
       <c r="K84" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L84" s="20"/>
       <c r="M84" s="20"/>
@@ -9581,7 +9569,7 @@
         <v>46</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="L85" s="20"/>
       <c r="M85" s="20"/>
@@ -9637,7 +9625,7 @@
         <v>46</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L86" s="20"/>
       <c r="M86" s="20"/>
@@ -10141,7 +10129,7 @@
         <v>46</v>
       </c>
       <c r="K95" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L95" s="20"/>
       <c r="M95" s="20"/>
@@ -10197,7 +10185,7 @@
         <v>35</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L96" s="20"/>
       <c r="M96" s="20"/>
@@ -10253,7 +10241,7 @@
         <v>46</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L97" s="20"/>
       <c r="M97" s="20"/>
@@ -10365,7 +10353,7 @@
         <v>46</v>
       </c>
       <c r="K99" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L99" s="20"/>
       <c r="M99" s="20"/>
@@ -10477,7 +10465,7 @@
         <v>46</v>
       </c>
       <c r="K101" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L101" s="20"/>
       <c r="M101" s="20"/>
@@ -10533,7 +10521,7 @@
         <v>439</v>
       </c>
       <c r="K102" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L102" s="20"/>
       <c r="M102" s="20"/>
@@ -10645,7 +10633,7 @@
         <v>439</v>
       </c>
       <c r="K104" s="24" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L104" s="20"/>
       <c r="M104" s="20"/>
@@ -10701,7 +10689,7 @@
         <v>46</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L105" s="20"/>
       <c r="M105" s="20"/>
@@ -10757,7 +10745,7 @@
         <v>436</v>
       </c>
       <c r="K106" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L106" s="20"/>
       <c r="M106" s="20"/>
@@ -10813,7 +10801,7 @@
         <v>436</v>
       </c>
       <c r="K107" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L107" s="20"/>
       <c r="M107" s="20"/>
@@ -10869,7 +10857,7 @@
         <v>57</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L108" s="20"/>
       <c r="M108" s="20"/>
@@ -11373,7 +11361,7 @@
         <v>35</v>
       </c>
       <c r="K117" s="24" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="L117" s="20"/>
       <c r="M117" s="20"/>
@@ -11821,7 +11809,7 @@
         <v>35</v>
       </c>
       <c r="K125" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L125" s="20"/>
       <c r="M125" s="20"/>
@@ -11933,7 +11921,7 @@
         <v>57</v>
       </c>
       <c r="K127" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L127" s="20"/>
       <c r="M127" s="20"/>
@@ -12101,7 +12089,7 @@
         <v>57</v>
       </c>
       <c r="K130" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L130" s="20"/>
       <c r="M130" s="20"/>
@@ -12157,7 +12145,7 @@
         <v>57</v>
       </c>
       <c r="K131" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L131" s="20"/>
       <c r="M131" s="20"/>
@@ -12269,7 +12257,7 @@
         <v>46</v>
       </c>
       <c r="K133" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L133" s="20"/>
       <c r="M133" s="20"/>
@@ -12325,7 +12313,7 @@
         <v>481</v>
       </c>
       <c r="K134" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L134" s="20"/>
       <c r="M134" s="20"/>
@@ -12381,7 +12369,7 @@
         <v>122</v>
       </c>
       <c r="K135" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L135" s="20"/>
       <c r="M135" s="20"/>
@@ -12437,7 +12425,7 @@
         <v>481</v>
       </c>
       <c r="K136" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L136" s="20"/>
       <c r="M136" s="20"/>
@@ -12493,7 +12481,7 @@
         <v>481</v>
       </c>
       <c r="K137" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L137" s="20"/>
       <c r="M137" s="20"/>
@@ -12661,7 +12649,7 @@
         <v>481</v>
       </c>
       <c r="K140" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L140" s="20"/>
       <c r="M140" s="20"/>
@@ -12717,7 +12705,7 @@
         <v>481</v>
       </c>
       <c r="K141" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L141" s="20"/>
       <c r="M141" s="20"/>
@@ -12829,7 +12817,7 @@
         <v>481</v>
       </c>
       <c r="K143" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L143" s="20"/>
       <c r="M143" s="20"/>
@@ -13053,7 +13041,7 @@
         <v>46</v>
       </c>
       <c r="K147" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L147" s="20"/>
       <c r="M147" s="20"/>
@@ -13109,7 +13097,7 @@
         <v>35</v>
       </c>
       <c r="K148" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L148" s="20"/>
       <c r="M148" s="20"/>
@@ -13165,7 +13153,7 @@
         <v>46</v>
       </c>
       <c r="K149" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L149" s="20"/>
       <c r="M149" s="20"/>
@@ -13277,7 +13265,7 @@
         <v>46</v>
       </c>
       <c r="K151" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L151" s="20"/>
       <c r="M151" s="20"/>
@@ -13669,7 +13657,7 @@
         <v>46</v>
       </c>
       <c r="K158" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L158" s="20"/>
       <c r="M158" s="20"/>
@@ -13725,7 +13713,7 @@
         <v>46</v>
       </c>
       <c r="K159" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L159" s="20"/>
       <c r="M159" s="20"/>
@@ -13837,7 +13825,7 @@
         <v>46</v>
       </c>
       <c r="K161" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L161" s="20"/>
       <c r="M161" s="20"/>
@@ -14052,7 +14040,7 @@
         <v>92</v>
       </c>
       <c r="H165" s="22" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I165" s="23">
         <v>43912</v>
@@ -14173,7 +14161,7 @@
         <v>46</v>
       </c>
       <c r="K167" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L167" s="20"/>
       <c r="M167" s="20"/>
@@ -14229,7 +14217,7 @@
         <v>46</v>
       </c>
       <c r="K168" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L168" s="20"/>
       <c r="M168" s="20"/>
@@ -14285,7 +14273,7 @@
         <v>46</v>
       </c>
       <c r="K169" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L169" s="20"/>
       <c r="M169" s="20"/>
@@ -14397,7 +14385,7 @@
         <v>46</v>
       </c>
       <c r="K171" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L171" s="20"/>
       <c r="M171" s="20"/>
@@ -14677,7 +14665,7 @@
         <v>46</v>
       </c>
       <c r="K176" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L176" s="20"/>
       <c r="M176" s="20"/>
@@ -14733,7 +14721,7 @@
         <v>46</v>
       </c>
       <c r="K177" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L177" s="20"/>
       <c r="M177" s="20"/>
@@ -15069,7 +15057,7 @@
         <v>28</v>
       </c>
       <c r="K183" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L183" s="20"/>
       <c r="M183" s="20"/>
@@ -15293,7 +15281,7 @@
         <v>216</v>
       </c>
       <c r="K187" s="32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L187" s="20"/>
       <c r="M187" s="20"/>
@@ -15461,7 +15449,7 @@
         <v>46</v>
       </c>
       <c r="K190" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L190" s="20"/>
       <c r="M190" s="20"/>
@@ -15741,7 +15729,7 @@
         <v>28</v>
       </c>
       <c r="K195" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L195" s="20"/>
       <c r="M195" s="20"/>
@@ -16021,7 +16009,7 @@
         <v>28</v>
       </c>
       <c r="K200" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L200" s="20"/>
       <c r="M200" s="20"/>
@@ -16077,7 +16065,7 @@
         <v>46</v>
       </c>
       <c r="K201" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L201" s="20"/>
       <c r="M201" s="20"/>
@@ -16133,7 +16121,7 @@
         <v>46</v>
       </c>
       <c r="K202" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L202" s="20"/>
       <c r="M202" s="20"/>
@@ -16189,7 +16177,7 @@
         <v>46</v>
       </c>
       <c r="K203" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L203" s="20"/>
       <c r="M203" s="20"/>
@@ -16245,7 +16233,7 @@
         <v>28</v>
       </c>
       <c r="K204" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L204" s="20"/>
       <c r="M204" s="20"/>
@@ -16357,7 +16345,7 @@
         <v>57</v>
       </c>
       <c r="K206" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L206" s="20"/>
       <c r="M206" s="20"/>
@@ -16413,7 +16401,7 @@
         <v>57</v>
       </c>
       <c r="K207" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L207" s="20"/>
       <c r="M207" s="20"/>
@@ -16525,7 +16513,7 @@
         <v>46</v>
       </c>
       <c r="K209" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L209" s="20"/>
       <c r="M209" s="20"/>
@@ -16581,7 +16569,7 @@
         <v>46</v>
       </c>
       <c r="K210" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L210" s="20"/>
       <c r="M210" s="20"/>
@@ -16637,7 +16625,7 @@
         <v>57</v>
       </c>
       <c r="K211" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L211" s="20"/>
       <c r="M211" s="20"/>
@@ -16693,7 +16681,7 @@
         <v>57</v>
       </c>
       <c r="K212" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L212" s="20"/>
       <c r="M212" s="20"/>
@@ -16749,7 +16737,7 @@
         <v>434</v>
       </c>
       <c r="K213" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L213" s="20"/>
       <c r="M213" s="20"/>
@@ -16805,7 +16793,7 @@
         <v>69</v>
       </c>
       <c r="K214" s="38" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L214" s="20"/>
       <c r="M214" s="20"/>
@@ -16973,7 +16961,7 @@
         <v>433</v>
       </c>
       <c r="K217" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L217" s="20"/>
       <c r="M217" s="20"/>
@@ -17197,7 +17185,7 @@
         <v>28</v>
       </c>
       <c r="K221" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L221" s="20"/>
       <c r="M221" s="20"/>
@@ -17421,7 +17409,7 @@
         <v>28</v>
       </c>
       <c r="K225" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L225" s="20"/>
       <c r="M225" s="20"/>
@@ -17533,7 +17521,7 @@
         <v>28</v>
       </c>
       <c r="K227" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L227" s="20"/>
       <c r="M227" s="20"/>
@@ -18037,7 +18025,7 @@
         <v>28</v>
       </c>
       <c r="K236" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L236" s="20"/>
       <c r="M236" s="20"/>
@@ -18093,7 +18081,7 @@
         <v>28</v>
       </c>
       <c r="K237" s="24" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="L237" s="20"/>
       <c r="M237" s="20"/>
@@ -18373,7 +18361,7 @@
         <v>28</v>
       </c>
       <c r="K242" s="32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L242" s="20"/>
       <c r="M242" s="20"/>
@@ -18541,7 +18529,7 @@
         <v>28</v>
       </c>
       <c r="K245" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L245" s="20"/>
       <c r="M245" s="20"/>
@@ -18765,7 +18753,7 @@
         <v>28</v>
       </c>
       <c r="K249" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L249" s="20"/>
       <c r="M249" s="20"/>
@@ -18821,7 +18809,7 @@
         <v>28</v>
       </c>
       <c r="K250" s="37" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L250" s="20"/>
       <c r="M250" s="20"/>
@@ -19101,7 +19089,7 @@
         <v>190</v>
       </c>
       <c r="K255" s="32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L255" s="20"/>
       <c r="M255" s="20"/>
@@ -19157,7 +19145,7 @@
         <v>193</v>
       </c>
       <c r="K256" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L256" s="20"/>
       <c r="M256" s="20"/>
@@ -19213,7 +19201,7 @@
         <v>193</v>
       </c>
       <c r="K257" s="32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L257" s="20"/>
       <c r="M257" s="20"/>
@@ -19381,7 +19369,7 @@
         <v>195</v>
       </c>
       <c r="K260" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L260" s="20"/>
       <c r="M260" s="20"/>
@@ -19437,7 +19425,7 @@
         <v>195</v>
       </c>
       <c r="K261" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L261" s="20"/>
       <c r="M261" s="20"/>
@@ -19493,7 +19481,7 @@
         <v>195</v>
       </c>
       <c r="K262" s="32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L262" s="20"/>
       <c r="M262" s="20"/>
@@ -19549,7 +19537,7 @@
         <v>196</v>
       </c>
       <c r="K263" s="32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L263" s="20"/>
       <c r="M263" s="20"/>
@@ -19661,7 +19649,7 @@
         <v>196</v>
       </c>
       <c r="K265" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L265" s="20"/>
       <c r="M265" s="20"/>
@@ -19717,7 +19705,7 @@
         <v>196</v>
       </c>
       <c r="K266" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L266" s="20"/>
       <c r="M266" s="20"/>
@@ -19829,7 +19817,7 @@
         <v>28</v>
       </c>
       <c r="K268" s="37" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L268" s="20"/>
       <c r="M268" s="20"/>
@@ -20165,7 +20153,7 @@
         <v>28</v>
       </c>
       <c r="K274" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L274" s="20"/>
       <c r="M274" s="20"/>
@@ -20221,7 +20209,7 @@
         <v>28</v>
       </c>
       <c r="K275" s="37" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L275" s="20"/>
       <c r="M275" s="20"/>
@@ -20277,7 +20265,7 @@
         <v>28</v>
       </c>
       <c r="K276" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L276" s="20"/>
       <c r="M276" s="20"/>
@@ -20333,7 +20321,7 @@
         <v>35</v>
       </c>
       <c r="K277" s="37" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L277" s="20"/>
       <c r="M277" s="20"/>
@@ -20557,7 +20545,7 @@
         <v>28</v>
       </c>
       <c r="K281" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L281" s="20"/>
       <c r="M281" s="20"/>
@@ -20725,7 +20713,7 @@
         <v>183</v>
       </c>
       <c r="K284" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L284" s="20"/>
       <c r="M284" s="20"/>
@@ -20781,7 +20769,7 @@
         <v>184</v>
       </c>
       <c r="K285" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L285" s="20"/>
       <c r="M285" s="20"/>
@@ -21117,7 +21105,7 @@
         <v>185</v>
       </c>
       <c r="K291" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L291" s="20"/>
       <c r="M291" s="20"/>
@@ -21173,7 +21161,7 @@
         <v>185</v>
       </c>
       <c r="K292" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L292" s="20"/>
       <c r="M292" s="20"/>
@@ -21229,7 +21217,7 @@
         <v>185</v>
       </c>
       <c r="K293" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L293" s="20"/>
       <c r="M293" s="20"/>
@@ -21397,7 +21385,7 @@
         <v>46</v>
       </c>
       <c r="K296" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L296" s="20"/>
       <c r="M296" s="20"/>
@@ -21500,7 +21488,7 @@
         <v>92</v>
       </c>
       <c r="H298" s="22" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I298" s="23">
         <v>43926</v>
@@ -21509,7 +21497,7 @@
         <v>185</v>
       </c>
       <c r="K298" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L298" s="20"/>
       <c r="M298" s="20"/>
@@ -21677,7 +21665,7 @@
         <v>28</v>
       </c>
       <c r="K301" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L301" s="20"/>
       <c r="M301" s="20"/>
@@ -21845,7 +21833,7 @@
         <v>173</v>
       </c>
       <c r="K304" s="95" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L304" s="20"/>
       <c r="M304" s="20"/>
@@ -22405,7 +22393,7 @@
         <v>28</v>
       </c>
       <c r="K314" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L314" s="20"/>
       <c r="M314" s="20"/>
@@ -23127,7 +23115,7 @@
         <v>83</v>
       </c>
       <c r="I327" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J327" s="39" t="s">
         <v>28</v>
@@ -23183,7 +23171,7 @@
         <v>83</v>
       </c>
       <c r="I328" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J328" s="39" t="s">
         <v>28</v>
@@ -23239,7 +23227,7 @@
         <v>83</v>
       </c>
       <c r="I329" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J329" s="39" t="s">
         <v>28</v>
@@ -23295,7 +23283,7 @@
         <v>83</v>
       </c>
       <c r="I330" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J330" s="39" t="s">
         <v>28</v>
@@ -23749,7 +23737,7 @@
         <v>28</v>
       </c>
       <c r="K338" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L338" s="39"/>
       <c r="M338" s="39"/>
@@ -23805,7 +23793,7 @@
         <v>28</v>
       </c>
       <c r="K339" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L339" s="39"/>
       <c r="M339" s="39"/>
@@ -23973,7 +23961,7 @@
         <v>28</v>
       </c>
       <c r="K342" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L342" s="39"/>
       <c r="M342" s="39"/>
@@ -24141,7 +24129,7 @@
         <v>28</v>
       </c>
       <c r="K345" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L345" s="39"/>
       <c r="M345" s="39"/>
@@ -24309,7 +24297,7 @@
         <v>28</v>
       </c>
       <c r="K348" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L348" s="39"/>
       <c r="M348" s="39"/>
@@ -24365,7 +24353,7 @@
         <v>28</v>
       </c>
       <c r="K349" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L349" s="39"/>
       <c r="M349" s="39"/>
@@ -24645,7 +24633,7 @@
         <v>28</v>
       </c>
       <c r="K354" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L354" s="39"/>
       <c r="M354" s="39"/>
@@ -24981,7 +24969,7 @@
         <v>28</v>
       </c>
       <c r="K360" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L360" s="39"/>
       <c r="M360" s="39"/>
@@ -25541,7 +25529,7 @@
         <v>28</v>
       </c>
       <c r="K370" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L370" s="39"/>
       <c r="M370" s="39"/>
@@ -25927,7 +25915,7 @@
         <v>78</v>
       </c>
       <c r="I377" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J377" s="39" t="s">
         <v>28</v>
@@ -25983,7 +25971,7 @@
         <v>83</v>
       </c>
       <c r="I378" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J378" s="39" t="s">
         <v>28</v>
@@ -26039,7 +26027,7 @@
         <v>83</v>
       </c>
       <c r="I379" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J379" s="39" t="s">
         <v>28</v>
@@ -26095,7 +26083,7 @@
         <v>83</v>
       </c>
       <c r="I380" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J380" s="39" t="s">
         <v>28</v>
@@ -26151,7 +26139,7 @@
         <v>83</v>
       </c>
       <c r="I381" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J381" s="39" t="s">
         <v>28</v>
@@ -26207,7 +26195,7 @@
         <v>83</v>
       </c>
       <c r="I382" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J382" s="39" t="s">
         <v>28</v>
@@ -26263,7 +26251,7 @@
         <v>83</v>
       </c>
       <c r="I383" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J383" s="39" t="s">
         <v>28</v>
@@ -26319,7 +26307,7 @@
         <v>83</v>
       </c>
       <c r="I384" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J384" s="39" t="s">
         <v>28</v>
@@ -26487,7 +26475,7 @@
         <v>83</v>
       </c>
       <c r="I387" s="98" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J387" s="39" t="s">
         <v>28</v>
@@ -26717,7 +26705,7 @@
         <v>69</v>
       </c>
       <c r="K391" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L391" s="39"/>
       <c r="M391" s="39"/>
@@ -26773,7 +26761,7 @@
         <v>46</v>
       </c>
       <c r="K392" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L392" s="39"/>
       <c r="M392" s="39"/>
@@ -26829,7 +26817,7 @@
         <v>57</v>
       </c>
       <c r="K393" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L393" s="39"/>
       <c r="M393" s="39"/>
@@ -26885,7 +26873,7 @@
         <v>57</v>
       </c>
       <c r="K394" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L394" s="39"/>
       <c r="M394" s="39"/>
@@ -27053,7 +27041,7 @@
         <v>46</v>
       </c>
       <c r="K397" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L397" s="39"/>
       <c r="M397" s="39"/>
@@ -27165,7 +27153,7 @@
         <v>46</v>
       </c>
       <c r="K399" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L399" s="39"/>
       <c r="M399" s="39"/>
@@ -27277,7 +27265,7 @@
         <v>57</v>
       </c>
       <c r="K401" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L401" s="39"/>
       <c r="M401" s="39"/>
@@ -27837,7 +27825,7 @@
         <v>28</v>
       </c>
       <c r="K411" s="37" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L411" s="39"/>
       <c r="M411" s="39"/>
@@ -28173,7 +28161,7 @@
         <v>28</v>
       </c>
       <c r="K417" s="37" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L417" s="39"/>
       <c r="M417" s="39"/>
@@ -28397,7 +28385,7 @@
         <v>28</v>
       </c>
       <c r="K421" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L421" s="39"/>
       <c r="M421" s="39"/>
@@ -28565,7 +28553,7 @@
         <v>28</v>
       </c>
       <c r="K424" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L424" s="39"/>
       <c r="M424" s="39"/>
@@ -28733,7 +28721,7 @@
         <v>28</v>
       </c>
       <c r="K427" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L427" s="39"/>
       <c r="M427" s="39"/>
@@ -28789,7 +28777,7 @@
         <v>28</v>
       </c>
       <c r="K428" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L428" s="39"/>
       <c r="M428" s="39"/>
@@ -28845,7 +28833,7 @@
         <v>28</v>
       </c>
       <c r="K429" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L429" s="39"/>
       <c r="M429" s="39"/>
@@ -29013,7 +29001,7 @@
         <v>28</v>
       </c>
       <c r="K432" s="37" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L432" s="39"/>
       <c r="M432" s="39"/>
@@ -29069,7 +29057,7 @@
         <v>28</v>
       </c>
       <c r="K433" s="37" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L433" s="39"/>
       <c r="M433" s="39"/>
@@ -29237,7 +29225,7 @@
         <v>69</v>
       </c>
       <c r="K436" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L436" s="39"/>
       <c r="M436" s="39"/>
@@ -29461,7 +29449,7 @@
         <v>28</v>
       </c>
       <c r="K440" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L440" s="39"/>
       <c r="M440" s="39"/>
@@ -29517,7 +29505,7 @@
         <v>28</v>
       </c>
       <c r="K441" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L441" s="39"/>
       <c r="M441" s="39"/>
@@ -29573,7 +29561,7 @@
         <v>28</v>
       </c>
       <c r="K442" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L442" s="39"/>
       <c r="M442" s="39"/>
@@ -29620,7 +29608,7 @@
         <v>104</v>
       </c>
       <c r="H443" s="41" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I443" s="99">
         <v>43927</v>
@@ -29685,7 +29673,7 @@
         <v>164</v>
       </c>
       <c r="K444" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L444" s="39"/>
       <c r="M444" s="39"/>
@@ -29797,7 +29785,7 @@
         <v>46</v>
       </c>
       <c r="K446" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L446" s="39"/>
       <c r="M446" s="39"/>
@@ -29853,7 +29841,7 @@
         <v>46</v>
       </c>
       <c r="K447" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L447" s="39"/>
       <c r="M447" s="39"/>
@@ -29965,7 +29953,7 @@
         <v>46</v>
       </c>
       <c r="K449" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L449" s="39"/>
       <c r="M449" s="39"/>
@@ -30189,7 +30177,7 @@
         <v>224</v>
       </c>
       <c r="K453" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L453" s="39"/>
       <c r="M453" s="39"/>
@@ -30301,7 +30289,7 @@
         <v>224</v>
       </c>
       <c r="K455" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L455" s="39"/>
       <c r="M455" s="39"/>
@@ -30357,7 +30345,7 @@
         <v>122</v>
       </c>
       <c r="K456" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L456" s="39"/>
       <c r="M456" s="39"/>
@@ -30637,7 +30625,7 @@
         <v>122</v>
       </c>
       <c r="K461" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L461" s="39"/>
       <c r="M461" s="39"/>
@@ -30693,7 +30681,7 @@
         <v>122</v>
       </c>
       <c r="K462" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L462" s="39"/>
       <c r="M462" s="39"/>
@@ -31141,7 +31129,7 @@
         <v>28</v>
       </c>
       <c r="K470" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L470" s="39"/>
       <c r="M470" s="39"/>
@@ -31477,7 +31465,7 @@
         <v>69</v>
       </c>
       <c r="K476" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L476" s="39"/>
       <c r="M476" s="39"/>
@@ -31589,7 +31577,7 @@
         <v>69</v>
       </c>
       <c r="K478" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L478" s="39"/>
       <c r="M478" s="39"/>
@@ -31757,7 +31745,7 @@
         <v>28</v>
       </c>
       <c r="K481" s="37" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="L481" s="39"/>
       <c r="M481" s="39"/>
@@ -32149,7 +32137,7 @@
         <v>69</v>
       </c>
       <c r="K488" s="37" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="L488" s="39"/>
       <c r="M488" s="39"/>
@@ -32485,7 +32473,7 @@
         <v>28</v>
       </c>
       <c r="K494" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L494" s="39"/>
       <c r="M494" s="39"/>
@@ -32597,7 +32585,7 @@
         <v>28</v>
       </c>
       <c r="K496" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L496" s="39"/>
       <c r="M496" s="39"/>
@@ -32709,7 +32697,7 @@
         <v>28</v>
       </c>
       <c r="K498" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L498" s="39"/>
       <c r="M498" s="39"/>
@@ -32821,7 +32809,7 @@
         <v>28</v>
       </c>
       <c r="K500" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L500" s="39"/>
       <c r="M500" s="39"/>
@@ -32989,7 +32977,7 @@
         <v>69</v>
       </c>
       <c r="K503" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L503" s="39"/>
       <c r="M503" s="39"/>
@@ -33381,7 +33369,7 @@
         <v>28</v>
       </c>
       <c r="K510" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L510" s="39"/>
       <c r="M510" s="39"/>
@@ -33437,7 +33425,7 @@
         <v>28</v>
       </c>
       <c r="K511" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L511" s="39"/>
       <c r="M511" s="39"/>
@@ -33717,7 +33705,7 @@
         <v>28</v>
       </c>
       <c r="K516" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L516" s="39"/>
       <c r="M516" s="39"/>
@@ -34165,7 +34153,7 @@
         <v>28</v>
       </c>
       <c r="K524" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L524" s="39"/>
       <c r="M524" s="39"/>
@@ -34221,7 +34209,7 @@
         <v>28</v>
       </c>
       <c r="K525" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L525" s="39"/>
       <c r="M525" s="39"/>
@@ -34501,7 +34489,7 @@
         <v>35</v>
       </c>
       <c r="K530" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L530" s="39"/>
       <c r="M530" s="39"/>
@@ -34613,7 +34601,7 @@
         <v>69</v>
       </c>
       <c r="K532" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L532" s="39"/>
       <c r="M532" s="39"/>
@@ -34949,7 +34937,7 @@
         <v>28</v>
       </c>
       <c r="K538" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L538" s="39"/>
       <c r="M538" s="39"/>
@@ -35229,7 +35217,7 @@
         <v>28</v>
       </c>
       <c r="K543" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L543" s="39"/>
       <c r="M543" s="39"/>
@@ -35285,7 +35273,7 @@
         <v>122</v>
       </c>
       <c r="K544" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L544" s="39"/>
       <c r="M544" s="39"/>
@@ -35341,7 +35329,7 @@
         <v>28</v>
       </c>
       <c r="K545" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L545" s="39"/>
       <c r="M545" s="39"/>
@@ -36013,7 +36001,7 @@
         <v>57</v>
       </c>
       <c r="K557" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L557" s="39"/>
       <c r="M557" s="39"/>
@@ -36293,7 +36281,7 @@
         <v>28</v>
       </c>
       <c r="K562" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L562" s="39"/>
       <c r="M562" s="39"/>
@@ -36517,7 +36505,7 @@
         <v>28</v>
       </c>
       <c r="K566" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L566" s="39"/>
       <c r="M566" s="39"/>
@@ -36573,7 +36561,7 @@
         <v>28</v>
       </c>
       <c r="K567" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L567" s="39"/>
       <c r="M567" s="39"/>
@@ -36629,7 +36617,7 @@
         <v>28</v>
       </c>
       <c r="K568" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L568" s="39"/>
       <c r="M568" s="39"/>
@@ -36741,7 +36729,7 @@
         <v>35</v>
       </c>
       <c r="K570" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L570" s="39"/>
       <c r="M570" s="39"/>
@@ -37189,7 +37177,7 @@
         <v>57</v>
       </c>
       <c r="K578" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L578" s="39"/>
       <c r="M578" s="39"/>
@@ -37245,7 +37233,7 @@
         <v>57</v>
       </c>
       <c r="K579" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L579" s="39"/>
       <c r="M579" s="39"/>
@@ -37289,10 +37277,10 @@
         <v>38</v>
       </c>
       <c r="G580" s="41" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H580" s="41" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I580" s="98">
         <v>43909</v>
@@ -37413,7 +37401,7 @@
         <v>28</v>
       </c>
       <c r="K582" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L582" s="39"/>
       <c r="M582" s="39"/>
@@ -37469,7 +37457,7 @@
         <v>28</v>
       </c>
       <c r="K583" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L583" s="39"/>
       <c r="M583" s="39"/>
@@ -37581,7 +37569,7 @@
         <v>57</v>
       </c>
       <c r="K585" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L585" s="39"/>
       <c r="M585" s="39"/>
@@ -39809,10 +39797,10 @@
         <v>115</v>
       </c>
       <c r="G625" s="41" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H625" s="41" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I625" s="98">
         <v>43901</v>
@@ -39977,7 +39965,7 @@
         <v>38</v>
       </c>
       <c r="G628" s="41" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H628" s="41" t="s">
         <v>41</v>
@@ -40033,7 +40021,7 @@
         <v>38</v>
       </c>
       <c r="G629" s="41" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H629" s="41" t="s">
         <v>41</v>
@@ -41214,7 +41202,7 @@
         <v>136</v>
       </c>
       <c r="H650" s="22" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I650" s="23">
         <v>43898</v>
@@ -41382,7 +41370,7 @@
         <v>136</v>
       </c>
       <c r="H653" s="22" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I653" s="98">
         <v>43901</v>
@@ -41503,7 +41491,7 @@
         <v>57</v>
       </c>
       <c r="K655" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L655" s="39"/>
       <c r="M655" s="39"/>
@@ -41559,7 +41547,7 @@
         <v>57</v>
       </c>
       <c r="K656" s="38" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L656" s="39"/>
       <c r="M656" s="39"/>
@@ -42011,7 +41999,7 @@
         <v>57</v>
       </c>
       <c r="K664" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L664" s="53"/>
       <c r="M664" s="39"/>
@@ -44249,7 +44237,7 @@
         <v>57</v>
       </c>
       <c r="K704" s="52" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L704" s="55"/>
       <c r="M704" s="56"/>
@@ -44399,7 +44387,7 @@
       </c>
       <c r="Y706" s="2">
         <f t="shared" si="11"/>
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z706" s="2">
         <f t="shared" si="11"/>
@@ -44407,11 +44395,11 @@
       </c>
       <c r="AA706" s="2">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AB706" s="3">
         <f t="shared" si="11"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AC706" s="92">
         <f>SUM(L706:AB706)</f>
@@ -44584,6 +44572,20 @@
     <sortCondition descending="1" ref="B7:B705"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -44595,20 +44597,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -3766,7 +3766,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/7 24時現在</t>
+    <t>6/8 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4658,30 +4658,6 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4696,6 +4672,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4969,7 +4969,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4984,7 +4984,7 @@
   <dimension ref="A1:AC711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5038,14 +5038,14 @@
     </row>
     <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
@@ -5102,77 +5102,77 @@
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="108" t="s">
+      <c r="G4" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="L4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="M4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="100" t="s">
+      <c r="O4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="100" t="s">
+      <c r="Q4" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="100" t="s">
+      <c r="T4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="100" t="s">
+      <c r="U4" s="105" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="96"/>
-      <c r="W4" s="100" t="s">
+      <c r="W4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="100" t="s">
+      <c r="X4" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="102" t="s">
+      <c r="Y4" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="104" t="s">
+      <c r="Z4" s="111" t="s">
         <v>21</v>
       </c>
       <c r="AA4" s="13"/>
@@ -5180,31 +5180,31 @@
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="105"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="112"/>
       <c r="AA5" s="16" t="s">
         <v>22</v>
       </c>
@@ -44567,6 +44567,20 @@
     <sortCondition descending="1" ref="B7:B705"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -44578,20 +44592,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -3766,7 +3766,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/8 24時現在</t>
+    <t>6/9 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4658,6 +4658,30 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4672,30 +4696,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4969,7 +4969,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4984,7 +4984,7 @@
   <dimension ref="A1:AC711"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5038,14 +5038,14 @@
     </row>
     <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
@@ -5102,77 +5102,77 @@
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="100" t="s">
+      <c r="G4" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="105" t="s">
+      <c r="L4" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="107" t="s">
+      <c r="R4" s="106" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="106" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="105" t="s">
+      <c r="T4" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="105" t="s">
+      <c r="U4" s="100" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="96"/>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="105" t="s">
+      <c r="X4" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="109" t="s">
+      <c r="Y4" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="111" t="s">
+      <c r="Z4" s="104" t="s">
         <v>21</v>
       </c>
       <c r="AA4" s="13"/>
@@ -5180,31 +5180,31 @@
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="112"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="105"/>
       <c r="AA5" s="16" t="s">
         <v>22</v>
       </c>
@@ -44567,20 +44567,6 @@
     <sortCondition descending="1" ref="B7:B705"/>
   </sortState>
   <mergeCells count="25">
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -44592,6 +44578,20 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="615">
   <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
@@ -1482,9 +1482,6 @@
     <t>No.16、34、35、36、45勤務の認定こども園に勤務</t>
   </si>
   <si>
-    <t>NO.22介護老人保健施設グリーンアルス伊丹デイケアを利用者の主たる介護者</t>
-  </si>
-  <si>
     <t>介護老人保健施設グリーンアルス伊丹デイケアを利用
 宝塚第一病院の入院者</t>
   </si>
@@ -1592,9 +1589,6 @@
     <t>陽性患者との接触あり</t>
   </si>
   <si>
-    <t>行動歴調査中（神戸西署）</t>
-  </si>
-  <si>
     <t>神戸市立医療センター中央市民病院に勤務する看護師</t>
   </si>
   <si>
@@ -1717,9 +1711,6 @@
   </si>
   <si>
     <t>No.169の会社員男性の同居人</t>
-  </si>
-  <si>
-    <t>行動歴調査中　</t>
   </si>
   <si>
     <t>No.172、No.222の同居人</t>
@@ -3766,7 +3757,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/9 24時現在</t>
+    <t>特定できず</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO.22介護老人保健施設グリーンアルス伊丹デイケアの利用者の主たる介護者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動歴調査中（神戸西署）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感染経路確認済</t>
+    <rPh sb="0" eb="2">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/10 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4983,8 +5005,8 @@
   </sheetPr>
   <dimension ref="A1:AC711"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H688" sqref="H688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5097,7 +5119,7 @@
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5272,7 +5294,7 @@
         <v>122</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
@@ -5291,7 +5313,7 @@
       <c r="Z7" s="28"/>
       <c r="AA7" s="29"/>
       <c r="AB7" s="30" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5306,13 +5328,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>198</v>
@@ -5324,7 +5346,7 @@
         <v>195</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
@@ -5343,7 +5365,7 @@
       <c r="Z8" s="28"/>
       <c r="AA8" s="29"/>
       <c r="AB8" s="30" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5358,7 +5380,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>162</v>
@@ -5376,7 +5398,7 @@
         <v>46</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -5410,7 +5432,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>162</v>
@@ -5428,7 +5450,7 @@
         <v>122</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
@@ -5462,7 +5484,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>162</v>
@@ -5471,16 +5493,16 @@
         <v>104</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I11" s="97">
         <v>43962</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -5532,7 +5554,7 @@
         <v>122</v>
       </c>
       <c r="K12" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
@@ -5572,7 +5594,7 @@
         <v>176</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>175</v>
@@ -5581,10 +5603,10 @@
         <v>43956</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
@@ -5627,16 +5649,16 @@
         <v>217</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I14" s="23" t="s">
         <v>75</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -5679,16 +5701,16 @@
         <v>217</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>75</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -5731,16 +5753,16 @@
         <v>81</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>75</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
@@ -5756,7 +5778,7 @@
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
       <c r="Y16" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z16" s="28"/>
       <c r="AA16" s="29"/>
@@ -5780,19 +5802,19 @@
         <v>162</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I17" s="97">
         <v>43960</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -5808,7 +5830,7 @@
       <c r="W17" s="26"/>
       <c r="X17" s="26"/>
       <c r="Y17" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z17" s="28"/>
       <c r="AA17" s="29"/>
@@ -5835,16 +5857,16 @@
         <v>112</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I18" s="23">
         <v>43953</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -5860,7 +5882,7 @@
       <c r="W18" s="26"/>
       <c r="X18" s="26"/>
       <c r="Y18" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z18" s="28"/>
       <c r="AA18" s="29"/>
@@ -5887,16 +5909,16 @@
         <v>112</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I19" s="23">
         <v>43949</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
@@ -5912,7 +5934,7 @@
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z19" s="28"/>
       <c r="AA19" s="29"/>
@@ -5945,10 +5967,10 @@
         <v>43945</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
@@ -5964,7 +5986,7 @@
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z20" s="28"/>
       <c r="AA20" s="29"/>
@@ -5997,10 +6019,10 @@
         <v>43956</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K21" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -6016,7 +6038,7 @@
       <c r="W21" s="26"/>
       <c r="X21" s="26"/>
       <c r="Y21" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z21" s="28"/>
       <c r="AA21" s="29"/>
@@ -6040,7 +6062,7 @@
         <v>176</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>34</v>
@@ -6049,10 +6071,10 @@
         <v>43956</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
@@ -6068,7 +6090,7 @@
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z22" s="28"/>
       <c r="AA22" s="29"/>
@@ -6104,7 +6126,7 @@
         <v>46</v>
       </c>
       <c r="K23" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
@@ -6120,7 +6142,7 @@
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z23" s="28"/>
       <c r="AA23" s="29"/>
@@ -6156,7 +6178,7 @@
         <v>46</v>
       </c>
       <c r="K24" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
@@ -6172,7 +6194,7 @@
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z24" s="28"/>
       <c r="AA24" s="29"/>
@@ -6208,7 +6230,7 @@
         <v>35</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
@@ -6224,7 +6246,7 @@
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z25" s="28"/>
       <c r="AA25" s="29"/>
@@ -6242,10 +6264,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>104</v>
@@ -6257,10 +6279,10 @@
         <v>43951</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
@@ -6276,7 +6298,7 @@
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z26" s="28"/>
       <c r="AA26" s="29"/>
@@ -6298,25 +6320,25 @@
         <v>20</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>179</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I27" s="23">
         <v>43954</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
@@ -6354,13 +6376,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>34</v>
@@ -6372,7 +6394,7 @@
         <v>46</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
@@ -6388,7 +6410,7 @@
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z28" s="28"/>
       <c r="AA28" s="29"/>
@@ -6410,16 +6432,16 @@
         <v>20</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I29" s="23">
         <v>43952</v>
@@ -6428,7 +6450,7 @@
         <v>46</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
@@ -6444,7 +6466,7 @@
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z29" s="28"/>
       <c r="AA29" s="29"/>
@@ -6484,7 +6506,7 @@
         <v>46</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
@@ -6531,7 +6553,7 @@
         <v>44</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I31" s="23">
         <v>43954</v>
@@ -6540,7 +6562,7 @@
         <v>46</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -6587,7 +6609,7 @@
         <v>44</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I32" s="23">
         <v>43956</v>
@@ -6596,7 +6618,7 @@
         <v>69</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -6640,7 +6662,7 @@
         <v>160</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>34</v>
@@ -6649,10 +6671,10 @@
         <v>43946</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -6696,19 +6718,19 @@
         <v>160</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I34" s="23">
         <v>43946</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="K34" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
@@ -6724,7 +6746,7 @@
       <c r="W34" s="26"/>
       <c r="X34" s="26"/>
       <c r="Y34" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="Z34" s="28"/>
       <c r="AA34" s="29"/>
@@ -6746,13 +6768,13 @@
         <v>30</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>171</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>48</v>
@@ -6764,7 +6786,7 @@
         <v>57</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
@@ -6780,7 +6802,7 @@
       <c r="W35" s="26"/>
       <c r="X35" s="26"/>
       <c r="Y35" s="27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="Z35" s="28"/>
       <c r="AA35" s="29"/>
@@ -6802,16 +6824,16 @@
         <v>50</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>44</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I36" s="23">
         <v>43951</v>
@@ -6820,7 +6842,7 @@
         <v>69</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
@@ -6861,13 +6883,13 @@
         <v>32</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I37" s="23">
         <v>43954</v>
@@ -6876,7 +6898,7 @@
         <v>46</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
@@ -6917,13 +6939,13 @@
         <v>32</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>44</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I38" s="23">
         <v>43953</v>
@@ -6932,7 +6954,7 @@
         <v>69</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
@@ -6979,7 +7001,7 @@
         <v>187</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I39" s="23">
         <v>43953</v>
@@ -6988,7 +7010,7 @@
         <v>35</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
@@ -7035,7 +7057,7 @@
         <v>187</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I40" s="23">
         <v>43951</v>
@@ -7044,7 +7066,7 @@
         <v>35</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
@@ -7082,16 +7104,16 @@
         <v>50</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I41" s="23">
         <v>43942</v>
@@ -7100,7 +7122,7 @@
         <v>122</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
@@ -7116,7 +7138,7 @@
       <c r="W41" s="26"/>
       <c r="X41" s="26"/>
       <c r="Y41" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z41" s="28"/>
       <c r="AA41" s="29"/>
@@ -7138,13 +7160,13 @@
         <v>120</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>175</v>
@@ -7156,7 +7178,7 @@
         <v>122</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
@@ -7172,7 +7194,7 @@
       <c r="W42" s="26"/>
       <c r="X42" s="26"/>
       <c r="Y42" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z42" s="28"/>
       <c r="AA42" s="29"/>
@@ -7194,13 +7216,13 @@
         <v>120</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>175</v>
@@ -7212,7 +7234,7 @@
         <v>122</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
@@ -7228,7 +7250,7 @@
       <c r="W43" s="26"/>
       <c r="X43" s="26"/>
       <c r="Y43" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z43" s="28"/>
       <c r="AA43" s="29"/>
@@ -7250,13 +7272,13 @@
         <v>120</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H44" s="22" t="s">
         <v>175</v>
@@ -7268,7 +7290,7 @@
         <v>122</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
@@ -7284,7 +7306,7 @@
       <c r="W44" s="26"/>
       <c r="X44" s="26"/>
       <c r="Y44" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z44" s="28"/>
       <c r="AA44" s="29"/>
@@ -7306,16 +7328,16 @@
         <v>20</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G45" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="H45" s="22" t="s">
         <v>528</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>531</v>
       </c>
       <c r="I45" s="23">
         <v>43945</v>
@@ -7324,7 +7346,7 @@
         <v>122</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
@@ -7340,7 +7362,7 @@
       <c r="W45" s="26"/>
       <c r="X45" s="26"/>
       <c r="Y45" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z45" s="28"/>
       <c r="AA45" s="29"/>
@@ -7362,16 +7384,16 @@
         <v>20</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I46" s="23" t="s">
         <v>75</v>
@@ -7380,7 +7402,7 @@
         <v>122</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
@@ -7396,7 +7418,7 @@
       <c r="W46" s="26"/>
       <c r="X46" s="26"/>
       <c r="Y46" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z46" s="28"/>
       <c r="AA46" s="29"/>
@@ -7418,13 +7440,13 @@
         <v>40</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>171</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H47" s="22" t="s">
         <v>48</v>
@@ -7436,7 +7458,7 @@
         <v>122</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
@@ -7452,7 +7474,7 @@
       <c r="W47" s="26"/>
       <c r="X47" s="26"/>
       <c r="Y47" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z47" s="28"/>
       <c r="AA47" s="29"/>
@@ -7477,13 +7499,13 @@
         <v>43</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G48" s="22" t="s">
         <v>187</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I48" s="23">
         <v>43951</v>
@@ -7492,7 +7514,7 @@
         <v>35</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
@@ -7533,7 +7555,7 @@
         <v>32</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G49" s="22" t="s">
         <v>104</v>
@@ -7548,7 +7570,7 @@
         <v>122</v>
       </c>
       <c r="K49" s="95" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
@@ -7564,7 +7586,7 @@
       <c r="W49" s="26"/>
       <c r="X49" s="26"/>
       <c r="Y49" s="27" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Z49" s="28"/>
       <c r="AA49" s="29"/>
@@ -7589,10 +7611,10 @@
         <v>32</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>78</v>
@@ -7604,7 +7626,7 @@
         <v>122</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
@@ -7620,7 +7642,7 @@
       <c r="W50" s="26"/>
       <c r="X50" s="26"/>
       <c r="Y50" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z50" s="28"/>
       <c r="AA50" s="29"/>
@@ -7645,7 +7667,7 @@
         <v>32</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G51" s="22" t="s">
         <v>70</v>
@@ -7660,7 +7682,7 @@
         <v>46</v>
       </c>
       <c r="K51" s="24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
@@ -7707,7 +7729,7 @@
         <v>168</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I52" s="23">
         <v>43942</v>
@@ -7716,7 +7738,7 @@
         <v>46</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
@@ -7760,7 +7782,7 @@
         <v>169</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H53" s="22" t="s">
         <v>78</v>
@@ -7772,7 +7794,7 @@
         <v>46</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
@@ -7828,7 +7850,7 @@
         <v>35</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
@@ -7844,7 +7866,7 @@
       <c r="W54" s="26"/>
       <c r="X54" s="26"/>
       <c r="Y54" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z54" s="28"/>
       <c r="AA54" s="29"/>
@@ -7884,7 +7906,7 @@
         <v>122</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
@@ -7940,7 +7962,7 @@
         <v>122</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
@@ -7978,25 +8000,25 @@
         <v>30</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F57" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="H57" s="22" t="s">
         <v>508</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>511</v>
       </c>
       <c r="I57" s="23">
         <v>43948</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L57" s="20"/>
       <c r="M57" s="20"/>
@@ -8012,7 +8034,7 @@
       <c r="W57" s="26"/>
       <c r="X57" s="26"/>
       <c r="Y57" s="27" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="Z57" s="28"/>
       <c r="AA57" s="29"/>
@@ -8034,10 +8056,10 @@
         <v>50</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G58" s="22" t="s">
         <v>187</v>
@@ -8049,10 +8071,10 @@
         <v>43948</v>
       </c>
       <c r="J58" s="20" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L58" s="20"/>
       <c r="M58" s="20"/>
@@ -8062,7 +8084,7 @@
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
       <c r="S58" s="20" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="T58" s="20"/>
       <c r="U58" s="26"/>
@@ -8090,25 +8112,25 @@
         <v>80</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G59" s="22" t="s">
         <v>187</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I59" s="23">
         <v>43950</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
@@ -8146,16 +8168,16 @@
         <v>50</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I60" s="23">
         <v>43946</v>
@@ -8164,7 +8186,7 @@
         <v>46</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
@@ -8202,16 +8224,16 @@
         <v>50</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>160</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I61" s="23">
         <v>43941</v>
@@ -8220,7 +8242,7 @@
         <v>122</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
@@ -8258,25 +8280,25 @@
         <v>20</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I62" s="23">
         <v>43947</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
@@ -8317,7 +8339,7 @@
         <v>43</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G63" s="22" t="s">
         <v>70</v>
@@ -8332,7 +8354,7 @@
         <v>46</v>
       </c>
       <c r="K63" s="24" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L63" s="20"/>
       <c r="M63" s="20"/>
@@ -8348,7 +8370,7 @@
       <c r="W63" s="26"/>
       <c r="X63" s="26"/>
       <c r="Y63" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z63" s="28"/>
       <c r="AA63" s="29"/>
@@ -8388,7 +8410,7 @@
         <v>46</v>
       </c>
       <c r="K64" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
@@ -8444,7 +8466,7 @@
         <v>46</v>
       </c>
       <c r="K65" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L65" s="20"/>
       <c r="M65" s="20"/>
@@ -8500,7 +8522,7 @@
         <v>46</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
@@ -8556,7 +8578,7 @@
         <v>35</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
@@ -8612,7 +8634,7 @@
         <v>35</v>
       </c>
       <c r="K68" s="24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L68" s="20"/>
       <c r="M68" s="20"/>
@@ -8647,19 +8669,19 @@
         <v>43949</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G69" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="H69" s="22" t="s">
         <v>470</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>473</v>
       </c>
       <c r="I69" s="23">
         <v>43936</v>
@@ -8668,7 +8690,7 @@
         <v>46</v>
       </c>
       <c r="K69" s="24" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L69" s="20"/>
       <c r="M69" s="20"/>
@@ -8706,16 +8728,16 @@
         <v>30</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F70" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="H70" s="22" t="s">
         <v>468</v>
-      </c>
-      <c r="G70" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="H70" s="22" t="s">
-        <v>471</v>
       </c>
       <c r="I70" s="23">
         <v>43943</v>
@@ -8724,7 +8746,7 @@
         <v>46</v>
       </c>
       <c r="K70" s="24" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
@@ -8762,16 +8784,16 @@
         <v>30</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G71" s="22" t="s">
         <v>144</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I71" s="23">
         <v>43941</v>
@@ -8780,7 +8802,7 @@
         <v>46</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
@@ -8818,16 +8840,16 @@
         <v>120</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I72" s="23">
         <v>43943</v>
@@ -8836,7 +8858,7 @@
         <v>46</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L72" s="20"/>
       <c r="M72" s="20"/>
@@ -8852,7 +8874,7 @@
       <c r="W72" s="26"/>
       <c r="X72" s="26"/>
       <c r="Y72" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z72" s="28"/>
       <c r="AA72" s="29"/>
@@ -8892,7 +8914,7 @@
         <v>35</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L73" s="20"/>
       <c r="M73" s="20"/>
@@ -8902,7 +8924,7 @@
       <c r="Q73" s="20"/>
       <c r="R73" s="20"/>
       <c r="S73" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T73" s="20"/>
       <c r="U73" s="26"/>
@@ -8930,25 +8952,25 @@
         <v>120</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G74" s="22" t="s">
         <v>187</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I74" s="23">
         <v>43941</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K74" s="24" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
@@ -8964,7 +8986,7 @@
       <c r="W74" s="26"/>
       <c r="X74" s="26"/>
       <c r="Y74" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z74" s="28"/>
       <c r="AA74" s="29"/>
@@ -8986,10 +9008,10 @@
         <v>30</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G75" s="22" t="s">
         <v>104</v>
@@ -9004,14 +9026,14 @@
         <v>35</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L75" s="20"/>
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
       <c r="O75" s="20"/>
       <c r="P75" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q75" s="20"/>
       <c r="R75" s="20"/>
@@ -9042,25 +9064,25 @@
         <v>40</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I76" s="23">
         <v>43931</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L76" s="20"/>
       <c r="M76" s="20"/>
@@ -9104,10 +9126,10 @@
         <v>179</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I77" s="23">
         <v>43945</v>
@@ -9116,7 +9138,7 @@
         <v>46</v>
       </c>
       <c r="K77" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
@@ -9172,7 +9194,7 @@
         <v>46</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L78" s="20"/>
       <c r="M78" s="20"/>
@@ -9228,7 +9250,7 @@
         <v>46</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
@@ -9284,7 +9306,7 @@
         <v>46</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
@@ -9325,7 +9347,7 @@
         <v>32</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G81" s="22" t="s">
         <v>70</v>
@@ -9340,7 +9362,7 @@
         <v>46</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L81" s="20"/>
       <c r="M81" s="20"/>
@@ -9356,7 +9378,7 @@
       <c r="W81" s="26"/>
       <c r="X81" s="26"/>
       <c r="Y81" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z81" s="28"/>
       <c r="AA81" s="29"/>
@@ -9396,7 +9418,7 @@
         <v>46</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L82" s="20"/>
       <c r="M82" s="20"/>
@@ -9443,7 +9465,7 @@
         <v>187</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I83" s="97">
         <v>43942</v>
@@ -9452,7 +9474,7 @@
         <v>46</v>
       </c>
       <c r="K83" s="24" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L83" s="20"/>
       <c r="M83" s="20"/>
@@ -9468,7 +9490,7 @@
       <c r="W83" s="26"/>
       <c r="X83" s="26"/>
       <c r="Y83" s="27" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Z83" s="28"/>
       <c r="AA83" s="29"/>
@@ -9508,7 +9530,7 @@
         <v>46</v>
       </c>
       <c r="K84" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L84" s="20"/>
       <c r="M84" s="20"/>
@@ -9524,7 +9546,7 @@
       <c r="W84" s="26"/>
       <c r="X84" s="26"/>
       <c r="Y84" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z84" s="28"/>
       <c r="AA84" s="29"/>
@@ -9555,7 +9577,7 @@
         <v>215</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I85" s="97">
         <v>43942</v>
@@ -9564,14 +9586,14 @@
         <v>46</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L85" s="20"/>
       <c r="M85" s="20"/>
       <c r="N85" s="20"/>
       <c r="O85" s="20"/>
       <c r="P85" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q85" s="20"/>
       <c r="R85" s="20"/>
@@ -9620,7 +9642,7 @@
         <v>46</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L86" s="20"/>
       <c r="M86" s="20"/>
@@ -9676,7 +9698,7 @@
         <v>46</v>
       </c>
       <c r="K87" s="24" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L87" s="20"/>
       <c r="M87" s="20"/>
@@ -9692,7 +9714,7 @@
       <c r="W87" s="26"/>
       <c r="X87" s="26"/>
       <c r="Y87" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z87" s="28"/>
       <c r="AA87" s="29"/>
@@ -9732,7 +9754,7 @@
         <v>46</v>
       </c>
       <c r="K88" s="24" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L88" s="20"/>
       <c r="M88" s="20"/>
@@ -9748,7 +9770,7 @@
       <c r="W88" s="26"/>
       <c r="X88" s="26"/>
       <c r="Y88" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z88" s="28"/>
       <c r="AA88" s="29"/>
@@ -9788,7 +9810,7 @@
         <v>46</v>
       </c>
       <c r="K89" s="24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L89" s="20"/>
       <c r="M89" s="20"/>
@@ -9804,7 +9826,7 @@
       <c r="W89" s="26"/>
       <c r="X89" s="26"/>
       <c r="Y89" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z89" s="28"/>
       <c r="AA89" s="29"/>
@@ -9832,7 +9854,7 @@
         <v>158</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H90" s="22" t="s">
         <v>94</v>
@@ -9844,7 +9866,7 @@
         <v>46</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L90" s="20"/>
       <c r="M90" s="20"/>
@@ -9860,7 +9882,7 @@
       <c r="W90" s="26"/>
       <c r="X90" s="26"/>
       <c r="Y90" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Z90" s="28"/>
       <c r="AA90" s="29"/>
@@ -9888,7 +9910,7 @@
         <v>158</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H91" s="22" t="s">
         <v>34</v>
@@ -9900,7 +9922,7 @@
         <v>46</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L91" s="20"/>
       <c r="M91" s="20"/>
@@ -9916,7 +9938,7 @@
       <c r="W91" s="26"/>
       <c r="X91" s="26"/>
       <c r="Y91" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Z91" s="28"/>
       <c r="AA91" s="29"/>
@@ -9956,7 +9978,7 @@
         <v>35</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L92" s="20"/>
       <c r="M92" s="20"/>
@@ -9966,7 +9988,7 @@
       <c r="Q92" s="20"/>
       <c r="R92" s="20"/>
       <c r="S92" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T92" s="20"/>
       <c r="U92" s="26"/>
@@ -10012,7 +10034,7 @@
         <v>35</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L93" s="20"/>
       <c r="M93" s="20"/>
@@ -10022,7 +10044,7 @@
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
       <c r="S93" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T93" s="20"/>
       <c r="U93" s="26"/>
@@ -10068,14 +10090,14 @@
         <v>35</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L94" s="20"/>
       <c r="M94" s="20"/>
       <c r="N94" s="20"/>
       <c r="O94" s="20"/>
       <c r="P94" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q94" s="20"/>
       <c r="R94" s="20"/>
@@ -10124,7 +10146,7 @@
         <v>46</v>
       </c>
       <c r="K95" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L95" s="20"/>
       <c r="M95" s="20"/>
@@ -10140,7 +10162,7 @@
       <c r="W95" s="26"/>
       <c r="X95" s="26"/>
       <c r="Y95" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z95" s="28"/>
       <c r="AA95" s="29"/>
@@ -10180,7 +10202,7 @@
         <v>35</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L96" s="20"/>
       <c r="M96" s="20"/>
@@ -10236,7 +10258,7 @@
         <v>46</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L97" s="20"/>
       <c r="M97" s="20"/>
@@ -10292,7 +10314,7 @@
         <v>46</v>
       </c>
       <c r="K98" s="24" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L98" s="20"/>
       <c r="M98" s="20"/>
@@ -10308,7 +10330,7 @@
       <c r="W98" s="26"/>
       <c r="X98" s="26"/>
       <c r="Y98" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Z98" s="28"/>
       <c r="AA98" s="29"/>
@@ -10348,7 +10370,7 @@
         <v>46</v>
       </c>
       <c r="K99" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L99" s="20"/>
       <c r="M99" s="20"/>
@@ -10389,7 +10411,7 @@
         <v>32</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G100" s="22" t="s">
         <v>81</v>
@@ -10404,7 +10426,7 @@
         <v>46</v>
       </c>
       <c r="K100" s="24" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L100" s="20"/>
       <c r="M100" s="20"/>
@@ -10420,7 +10442,7 @@
       <c r="W100" s="26"/>
       <c r="X100" s="26"/>
       <c r="Y100" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Z100" s="28"/>
       <c r="AA100" s="29"/>
@@ -10451,7 +10473,7 @@
         <v>33</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I101" s="23">
         <v>43937</v>
@@ -10460,7 +10482,7 @@
         <v>46</v>
       </c>
       <c r="K101" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L101" s="20"/>
       <c r="M101" s="20"/>
@@ -10504,19 +10526,19 @@
         <v>158</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I102" s="23">
         <v>43929</v>
       </c>
       <c r="J102" s="20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K102" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L102" s="20"/>
       <c r="M102" s="20"/>
@@ -10560,10 +10582,10 @@
         <v>176</v>
       </c>
       <c r="G103" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="H103" s="22" t="s">
         <v>438</v>
-      </c>
-      <c r="H103" s="22" t="s">
-        <v>441</v>
       </c>
       <c r="I103" s="23">
         <v>43937</v>
@@ -10572,7 +10594,7 @@
         <v>46</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L103" s="20"/>
       <c r="M103" s="20"/>
@@ -10588,7 +10610,7 @@
       <c r="W103" s="26"/>
       <c r="X103" s="26"/>
       <c r="Y103" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Z103" s="28"/>
       <c r="AA103" s="29"/>
@@ -10616,7 +10638,7 @@
         <v>176</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H104" s="22" t="s">
         <v>78</v>
@@ -10625,10 +10647,10 @@
         <v>43937</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K104" s="24" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L104" s="20"/>
       <c r="M104" s="20"/>
@@ -10644,7 +10666,7 @@
       <c r="W104" s="26"/>
       <c r="X104" s="26"/>
       <c r="Y104" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Z104" s="28"/>
       <c r="AA104" s="29"/>
@@ -10672,7 +10694,7 @@
         <v>176</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H105" s="22" t="s">
         <v>34</v>
@@ -10684,7 +10706,7 @@
         <v>46</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L105" s="20"/>
       <c r="M105" s="20"/>
@@ -10737,10 +10759,10 @@
         <v>43934</v>
       </c>
       <c r="J106" s="20" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K106" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L106" s="20"/>
       <c r="M106" s="20"/>
@@ -10756,7 +10778,7 @@
       <c r="W106" s="26"/>
       <c r="X106" s="26"/>
       <c r="Y106" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Z106" s="28"/>
       <c r="AA106" s="29"/>
@@ -10793,10 +10815,10 @@
         <v>43935</v>
       </c>
       <c r="J107" s="20" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K107" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L107" s="20"/>
       <c r="M107" s="20"/>
@@ -10852,7 +10874,7 @@
         <v>57</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L108" s="20"/>
       <c r="M108" s="20"/>
@@ -10893,7 +10915,7 @@
         <v>32</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G109" s="22" t="s">
         <v>104</v>
@@ -10908,7 +10930,7 @@
         <v>46</v>
       </c>
       <c r="K109" s="24" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L109" s="20"/>
       <c r="M109" s="20"/>
@@ -10949,13 +10971,13 @@
         <v>32</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G110" s="22" t="s">
         <v>104</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I110" s="23">
         <v>43939</v>
@@ -10964,7 +10986,7 @@
         <v>35</v>
       </c>
       <c r="K110" s="24" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L110" s="20"/>
       <c r="M110" s="20"/>
@@ -10980,7 +11002,7 @@
       <c r="W110" s="26"/>
       <c r="X110" s="26"/>
       <c r="Y110" s="27" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Z110" s="28"/>
       <c r="AA110" s="29"/>
@@ -11005,13 +11027,13 @@
         <v>43</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G111" s="22" t="s">
         <v>104</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I111" s="23">
         <v>43935</v>
@@ -11020,7 +11042,7 @@
         <v>35</v>
       </c>
       <c r="K111" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L111" s="20"/>
       <c r="M111" s="20"/>
@@ -11028,7 +11050,7 @@
       <c r="O111" s="20"/>
       <c r="P111" s="20"/>
       <c r="Q111" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R111" s="20"/>
       <c r="S111" s="20"/>
@@ -11061,13 +11083,13 @@
         <v>43</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G112" s="22" t="s">
         <v>104</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I112" s="23">
         <v>43940</v>
@@ -11076,7 +11098,7 @@
         <v>35</v>
       </c>
       <c r="K112" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L112" s="20"/>
       <c r="M112" s="20"/>
@@ -11084,7 +11106,7 @@
       <c r="O112" s="20"/>
       <c r="P112" s="20"/>
       <c r="Q112" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R112" s="20"/>
       <c r="S112" s="20"/>
@@ -11117,13 +11139,13 @@
         <v>43</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G113" s="22" t="s">
         <v>104</v>
       </c>
       <c r="H113" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I113" s="23">
         <v>43941</v>
@@ -11132,7 +11154,7 @@
         <v>35</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L113" s="20"/>
       <c r="M113" s="20"/>
@@ -11140,7 +11162,7 @@
       <c r="O113" s="20"/>
       <c r="P113" s="20"/>
       <c r="Q113" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R113" s="20"/>
       <c r="S113" s="20"/>
@@ -11173,13 +11195,13 @@
         <v>43</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G114" s="22" t="s">
         <v>168</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I114" s="23">
         <v>43944</v>
@@ -11188,7 +11210,7 @@
         <v>35</v>
       </c>
       <c r="K114" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L114" s="20"/>
       <c r="M114" s="20"/>
@@ -11196,7 +11218,7 @@
       <c r="O114" s="20"/>
       <c r="P114" s="20"/>
       <c r="Q114" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R114" s="20"/>
       <c r="S114" s="20"/>
@@ -11229,13 +11251,13 @@
         <v>43</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G115" s="22" t="s">
         <v>104</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I115" s="23">
         <v>43942</v>
@@ -11244,7 +11266,7 @@
         <v>35</v>
       </c>
       <c r="K115" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L115" s="20"/>
       <c r="M115" s="20"/>
@@ -11252,7 +11274,7 @@
       <c r="O115" s="20"/>
       <c r="P115" s="20"/>
       <c r="Q115" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R115" s="20"/>
       <c r="S115" s="20"/>
@@ -11285,7 +11307,7 @@
         <v>32</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G116" s="22" t="s">
         <v>104</v>
@@ -11300,7 +11322,7 @@
         <v>35</v>
       </c>
       <c r="K116" s="24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L116" s="20"/>
       <c r="M116" s="20"/>
@@ -11308,7 +11330,7 @@
       <c r="O116" s="20"/>
       <c r="P116" s="20"/>
       <c r="Q116" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R116" s="20"/>
       <c r="S116" s="20"/>
@@ -11341,7 +11363,7 @@
         <v>32</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G117" s="22" t="s">
         <v>104</v>
@@ -11356,7 +11378,7 @@
         <v>35</v>
       </c>
       <c r="K117" s="24" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="L117" s="20"/>
       <c r="M117" s="20"/>
@@ -11364,7 +11386,7 @@
       <c r="O117" s="20"/>
       <c r="P117" s="20"/>
       <c r="Q117" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R117" s="20"/>
       <c r="S117" s="20"/>
@@ -11397,7 +11419,7 @@
         <v>32</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G118" s="22" t="s">
         <v>104</v>
@@ -11412,7 +11434,7 @@
         <v>35</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L118" s="20"/>
       <c r="M118" s="20"/>
@@ -11420,7 +11442,7 @@
       <c r="O118" s="20"/>
       <c r="P118" s="20"/>
       <c r="Q118" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R118" s="20"/>
       <c r="S118" s="20"/>
@@ -11453,7 +11475,7 @@
         <v>32</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G119" s="22" t="s">
         <v>104</v>
@@ -11468,7 +11490,7 @@
         <v>35</v>
       </c>
       <c r="K119" s="24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L119" s="20"/>
       <c r="M119" s="20"/>
@@ -11476,7 +11498,7 @@
       <c r="O119" s="20"/>
       <c r="P119" s="20"/>
       <c r="Q119" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R119" s="20"/>
       <c r="S119" s="20"/>
@@ -11509,7 +11531,7 @@
         <v>32</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G120" s="22" t="s">
         <v>104</v>
@@ -11524,7 +11546,7 @@
         <v>35</v>
       </c>
       <c r="K120" s="24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L120" s="20"/>
       <c r="M120" s="20"/>
@@ -11532,7 +11554,7 @@
       <c r="O120" s="20"/>
       <c r="P120" s="20"/>
       <c r="Q120" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R120" s="20"/>
       <c r="S120" s="20"/>
@@ -11565,7 +11587,7 @@
         <v>43</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G121" s="22" t="s">
         <v>104</v>
@@ -11580,7 +11602,7 @@
         <v>35</v>
       </c>
       <c r="K121" s="24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L121" s="20"/>
       <c r="M121" s="20"/>
@@ -11588,7 +11610,7 @@
       <c r="O121" s="20"/>
       <c r="P121" s="20"/>
       <c r="Q121" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R121" s="20"/>
       <c r="S121" s="20"/>
@@ -11621,7 +11643,7 @@
         <v>43</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G122" s="22" t="s">
         <v>104</v>
@@ -11636,7 +11658,7 @@
         <v>35</v>
       </c>
       <c r="K122" s="24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L122" s="20"/>
       <c r="M122" s="20"/>
@@ -11644,7 +11666,7 @@
       <c r="O122" s="20"/>
       <c r="P122" s="20"/>
       <c r="Q122" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R122" s="20"/>
       <c r="S122" s="20"/>
@@ -11677,7 +11699,7 @@
         <v>32</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G123" s="22" t="s">
         <v>104</v>
@@ -11692,7 +11714,7 @@
         <v>35</v>
       </c>
       <c r="K123" s="24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L123" s="20"/>
       <c r="M123" s="20"/>
@@ -11700,7 +11722,7 @@
       <c r="O123" s="20"/>
       <c r="P123" s="20"/>
       <c r="Q123" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R123" s="20"/>
       <c r="S123" s="20"/>
@@ -11733,7 +11755,7 @@
         <v>32</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G124" s="22" t="s">
         <v>104</v>
@@ -11748,7 +11770,7 @@
         <v>35</v>
       </c>
       <c r="K124" s="24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L124" s="20"/>
       <c r="M124" s="20"/>
@@ -11756,7 +11778,7 @@
       <c r="O124" s="20"/>
       <c r="P124" s="20"/>
       <c r="Q124" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R124" s="20"/>
       <c r="S124" s="20"/>
@@ -11789,7 +11811,7 @@
         <v>43</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G125" s="22" t="s">
         <v>104</v>
@@ -11804,7 +11826,7 @@
         <v>35</v>
       </c>
       <c r="K125" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L125" s="20"/>
       <c r="M125" s="20"/>
@@ -11860,7 +11882,7 @@
         <v>57</v>
       </c>
       <c r="K126" s="24" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L126" s="20"/>
       <c r="M126" s="20"/>
@@ -11876,7 +11898,7 @@
       <c r="W126" s="26"/>
       <c r="X126" s="26"/>
       <c r="Y126" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z126" s="28"/>
       <c r="AA126" s="29"/>
@@ -11901,10 +11923,10 @@
         <v>43</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H127" s="22" t="s">
         <v>34</v>
@@ -11916,7 +11938,7 @@
         <v>57</v>
       </c>
       <c r="K127" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L127" s="20"/>
       <c r="M127" s="20"/>
@@ -11957,13 +11979,13 @@
         <v>32</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G128" s="22" t="s">
         <v>70</v>
       </c>
       <c r="H128" s="22" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I128" s="23">
         <v>43930</v>
@@ -11972,7 +11994,7 @@
         <v>35</v>
       </c>
       <c r="K128" s="24" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L128" s="20"/>
       <c r="M128" s="20"/>
@@ -11988,7 +12010,7 @@
       <c r="W128" s="26"/>
       <c r="X128" s="26"/>
       <c r="Y128" s="27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Z128" s="28"/>
       <c r="AA128" s="29"/>
@@ -12013,7 +12035,7 @@
         <v>43</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G129" s="22" t="s">
         <v>70</v>
@@ -12028,7 +12050,7 @@
         <v>35</v>
       </c>
       <c r="K129" s="24" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L129" s="20"/>
       <c r="M129" s="20"/>
@@ -12044,7 +12066,7 @@
       <c r="W129" s="26"/>
       <c r="X129" s="26"/>
       <c r="Y129" s="27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Z129" s="28"/>
       <c r="AA129" s="29"/>
@@ -12084,7 +12106,7 @@
         <v>57</v>
       </c>
       <c r="K130" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L130" s="20"/>
       <c r="M130" s="20"/>
@@ -12128,7 +12150,7 @@
         <v>160</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H131" s="22" t="s">
         <v>78</v>
@@ -12140,7 +12162,7 @@
         <v>57</v>
       </c>
       <c r="K131" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L131" s="20"/>
       <c r="M131" s="20"/>
@@ -12184,7 +12206,7 @@
         <v>171</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H132" s="22" t="s">
         <v>45</v>
@@ -12196,7 +12218,7 @@
         <v>57</v>
       </c>
       <c r="K132" s="24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L132" s="20"/>
       <c r="M132" s="20"/>
@@ -12214,7 +12236,7 @@
       <c r="Y132" s="27"/>
       <c r="Z132" s="28"/>
       <c r="AA132" s="29" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AB132" s="30"/>
       <c r="AC132" s="6">
@@ -12252,7 +12274,7 @@
         <v>46</v>
       </c>
       <c r="K133" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L133" s="20"/>
       <c r="M133" s="20"/>
@@ -12293,7 +12315,7 @@
         <v>43</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G134" s="22" t="s">
         <v>187</v>
@@ -12305,10 +12327,10 @@
         <v>43937</v>
       </c>
       <c r="J134" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K134" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L134" s="20"/>
       <c r="M134" s="20"/>
@@ -12349,7 +12371,7 @@
         <v>43</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G135" s="22" t="s">
         <v>187</v>
@@ -12364,7 +12386,7 @@
         <v>122</v>
       </c>
       <c r="K135" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L135" s="20"/>
       <c r="M135" s="20"/>
@@ -12405,7 +12427,7 @@
         <v>43</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G136" s="22" t="s">
         <v>187</v>
@@ -12417,10 +12439,10 @@
         <v>43941</v>
       </c>
       <c r="J136" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K136" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L136" s="20"/>
       <c r="M136" s="20"/>
@@ -12461,7 +12483,7 @@
         <v>32</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G137" s="22" t="s">
         <v>187</v>
@@ -12473,10 +12495,10 @@
         <v>43939</v>
       </c>
       <c r="J137" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K137" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L137" s="20"/>
       <c r="M137" s="20"/>
@@ -12517,7 +12539,7 @@
         <v>43</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G138" s="22" t="s">
         <v>187</v>
@@ -12529,10 +12551,10 @@
         <v>43925</v>
       </c>
       <c r="J138" s="20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K138" s="24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L138" s="20"/>
       <c r="M138" s="20"/>
@@ -12573,7 +12595,7 @@
         <v>43</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G139" s="22" t="s">
         <v>187</v>
@@ -12585,10 +12607,10 @@
         <v>43935</v>
       </c>
       <c r="J139" s="20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K139" s="24" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L139" s="20"/>
       <c r="M139" s="20"/>
@@ -12629,7 +12651,7 @@
         <v>32</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G140" s="22" t="s">
         <v>187</v>
@@ -12641,10 +12663,10 @@
         <v>43936</v>
       </c>
       <c r="J140" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K140" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L140" s="20"/>
       <c r="M140" s="20"/>
@@ -12685,7 +12707,7 @@
         <v>43</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G141" s="22" t="s">
         <v>187</v>
@@ -12697,10 +12719,10 @@
         <v>43940</v>
       </c>
       <c r="J141" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K141" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L141" s="20"/>
       <c r="M141" s="20"/>
@@ -12741,7 +12763,7 @@
         <v>32</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G142" s="22" t="s">
         <v>187</v>
@@ -12753,10 +12775,10 @@
         <v>43942</v>
       </c>
       <c r="J142" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K142" s="24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L142" s="20"/>
       <c r="M142" s="20"/>
@@ -12797,7 +12819,7 @@
         <v>32</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G143" s="22" t="s">
         <v>187</v>
@@ -12809,10 +12831,10 @@
         <v>43930</v>
       </c>
       <c r="J143" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K143" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L143" s="20"/>
       <c r="M143" s="20"/>
@@ -12853,22 +12875,22 @@
         <v>43</v>
       </c>
       <c r="F144" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G144" s="22" t="s">
         <v>187</v>
       </c>
       <c r="H144" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I144" s="23">
         <v>43936</v>
       </c>
       <c r="J144" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K144" s="24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L144" s="20"/>
       <c r="M144" s="20"/>
@@ -12909,22 +12931,22 @@
         <v>43</v>
       </c>
       <c r="F145" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I145" s="23">
         <v>43931</v>
       </c>
       <c r="J145" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K145" s="24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L145" s="20"/>
       <c r="M145" s="20"/>
@@ -12968,7 +12990,7 @@
         <v>179</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H146" s="22" t="s">
         <v>198</v>
@@ -12990,7 +13012,7 @@
       <c r="Q146" s="20"/>
       <c r="R146" s="20"/>
       <c r="S146" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T146" s="20"/>
       <c r="U146" s="26"/>
@@ -13024,7 +13046,7 @@
         <v>179</v>
       </c>
       <c r="G147" s="22" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H147" s="22" t="s">
         <v>78</v>
@@ -13036,7 +13058,7 @@
         <v>46</v>
       </c>
       <c r="K147" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L147" s="20"/>
       <c r="M147" s="20"/>
@@ -13092,7 +13114,7 @@
         <v>35</v>
       </c>
       <c r="K148" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L148" s="20"/>
       <c r="M148" s="20"/>
@@ -13133,10 +13155,10 @@
         <v>32</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G149" s="22" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H149" s="22" t="s">
         <v>78</v>
@@ -13148,7 +13170,7 @@
         <v>46</v>
       </c>
       <c r="K149" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L149" s="20"/>
       <c r="M149" s="20"/>
@@ -13204,7 +13226,7 @@
         <v>46</v>
       </c>
       <c r="K150" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L150" s="20"/>
       <c r="M150" s="20"/>
@@ -13248,7 +13270,7 @@
         <v>166</v>
       </c>
       <c r="G151" s="22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H151" s="22" t="s">
         <v>78</v>
@@ -13260,7 +13282,7 @@
         <v>46</v>
       </c>
       <c r="K151" s="24" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L151" s="20"/>
       <c r="M151" s="20"/>
@@ -13316,7 +13338,7 @@
         <v>35</v>
       </c>
       <c r="K152" s="24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L152" s="20"/>
       <c r="M152" s="20"/>
@@ -13324,7 +13346,7 @@
       <c r="O152" s="20"/>
       <c r="P152" s="20"/>
       <c r="Q152" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R152" s="20"/>
       <c r="S152" s="20"/>
@@ -13363,7 +13385,7 @@
         <v>104</v>
       </c>
       <c r="H153" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I153" s="23">
         <v>43936</v>
@@ -13372,7 +13394,7 @@
         <v>35</v>
       </c>
       <c r="K153" s="24" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L153" s="20"/>
       <c r="M153" s="20"/>
@@ -13419,7 +13441,7 @@
         <v>104</v>
       </c>
       <c r="H154" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I154" s="23">
         <v>43937</v>
@@ -13428,7 +13450,7 @@
         <v>35</v>
       </c>
       <c r="K154" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L154" s="20"/>
       <c r="M154" s="20"/>
@@ -13436,7 +13458,7 @@
       <c r="O154" s="20"/>
       <c r="P154" s="20"/>
       <c r="Q154" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R154" s="20"/>
       <c r="S154" s="20"/>
@@ -13475,7 +13497,7 @@
         <v>104</v>
       </c>
       <c r="H155" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I155" s="23">
         <v>43937</v>
@@ -13484,7 +13506,7 @@
         <v>35</v>
       </c>
       <c r="K155" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L155" s="20"/>
       <c r="M155" s="20"/>
@@ -13492,7 +13514,7 @@
       <c r="O155" s="20"/>
       <c r="P155" s="20"/>
       <c r="Q155" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R155" s="20"/>
       <c r="S155" s="20"/>
@@ -13540,7 +13562,7 @@
         <v>28</v>
       </c>
       <c r="K156" s="24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L156" s="20"/>
       <c r="M156" s="20"/>
@@ -13584,7 +13606,7 @@
         <v>162</v>
       </c>
       <c r="G157" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H157" s="22" t="s">
         <v>198</v>
@@ -13652,7 +13674,7 @@
         <v>46</v>
       </c>
       <c r="K158" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L158" s="20"/>
       <c r="M158" s="20"/>
@@ -13708,7 +13730,7 @@
         <v>46</v>
       </c>
       <c r="K159" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L159" s="20"/>
       <c r="M159" s="20"/>
@@ -13764,7 +13786,7 @@
         <v>46</v>
       </c>
       <c r="K160" s="24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L160" s="20"/>
       <c r="M160" s="20"/>
@@ -13820,7 +13842,7 @@
         <v>46</v>
       </c>
       <c r="K161" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L161" s="20"/>
       <c r="M161" s="20"/>
@@ -13864,7 +13886,7 @@
         <v>162</v>
       </c>
       <c r="G162" s="22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H162" s="22" t="s">
         <v>78</v>
@@ -13876,14 +13898,14 @@
         <v>35</v>
       </c>
       <c r="K162" s="24" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L162" s="20"/>
       <c r="M162" s="20"/>
       <c r="N162" s="20"/>
       <c r="O162" s="20"/>
       <c r="P162" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q162" s="20"/>
       <c r="R162" s="20"/>
@@ -13929,10 +13951,10 @@
         <v>43939</v>
       </c>
       <c r="J163" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="K163" s="24" t="s">
         <v>290</v>
-      </c>
-      <c r="K163" s="24" t="s">
-        <v>291</v>
       </c>
       <c r="L163" s="20"/>
       <c r="M163" s="20"/>
@@ -13979,16 +14001,16 @@
         <v>92</v>
       </c>
       <c r="H164" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I164" s="23">
         <v>43936</v>
       </c>
       <c r="J164" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K164" s="24" t="s">
-        <v>29</v>
+        <v>610</v>
       </c>
       <c r="L164" s="20"/>
       <c r="M164" s="20"/>
@@ -14035,13 +14057,13 @@
         <v>92</v>
       </c>
       <c r="H165" s="22" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I165" s="23">
         <v>43912</v>
       </c>
       <c r="J165" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K165" s="24" t="s">
         <v>29</v>
@@ -14097,10 +14119,10 @@
         <v>43935</v>
       </c>
       <c r="J166" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K166" s="24" t="s">
-        <v>29</v>
+        <v>569</v>
       </c>
       <c r="L166" s="20"/>
       <c r="M166" s="20"/>
@@ -14156,7 +14178,7 @@
         <v>46</v>
       </c>
       <c r="K167" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L167" s="20"/>
       <c r="M167" s="20"/>
@@ -14212,7 +14234,7 @@
         <v>46</v>
       </c>
       <c r="K168" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L168" s="20"/>
       <c r="M168" s="20"/>
@@ -14268,7 +14290,7 @@
         <v>46</v>
       </c>
       <c r="K169" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L169" s="20"/>
       <c r="M169" s="20"/>
@@ -14315,16 +14337,16 @@
         <v>104</v>
       </c>
       <c r="H170" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I170" s="23">
         <v>43939</v>
       </c>
       <c r="J170" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K170" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L170" s="20"/>
       <c r="M170" s="20"/>
@@ -14332,7 +14354,7 @@
       <c r="O170" s="20"/>
       <c r="P170" s="20"/>
       <c r="Q170" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R170" s="20"/>
       <c r="S170" s="20"/>
@@ -14368,7 +14390,7 @@
         <v>162</v>
       </c>
       <c r="G171" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H171" s="22" t="s">
         <v>41</v>
@@ -14380,7 +14402,7 @@
         <v>46</v>
       </c>
       <c r="K171" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L171" s="20"/>
       <c r="M171" s="20"/>
@@ -14427,13 +14449,13 @@
         <v>104</v>
       </c>
       <c r="H172" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I172" s="23">
         <v>43939</v>
       </c>
       <c r="J172" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K172" s="32" t="s">
         <v>213</v>
@@ -14446,7 +14468,7 @@
       <c r="Q172" s="20"/>
       <c r="R172" s="20"/>
       <c r="S172" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T172" s="20"/>
       <c r="U172" s="26"/>
@@ -14480,16 +14502,16 @@
         <v>162</v>
       </c>
       <c r="G173" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H173" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I173" s="23">
         <v>43939</v>
       </c>
       <c r="J173" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K173" s="32" t="s">
         <v>213</v>
@@ -14502,7 +14524,7 @@
       <c r="Q173" s="20"/>
       <c r="R173" s="20"/>
       <c r="S173" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T173" s="20"/>
       <c r="U173" s="26"/>
@@ -14539,16 +14561,16 @@
         <v>104</v>
       </c>
       <c r="H174" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I174" s="23">
         <v>43936</v>
       </c>
       <c r="J174" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K174" s="32" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L174" s="20"/>
       <c r="M174" s="20"/>
@@ -14558,7 +14580,7 @@
       <c r="Q174" s="20"/>
       <c r="R174" s="20"/>
       <c r="S174" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T174" s="20"/>
       <c r="U174" s="26"/>
@@ -14595,16 +14617,16 @@
         <v>104</v>
       </c>
       <c r="H175" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I175" s="23">
         <v>43934</v>
       </c>
       <c r="J175" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K175" s="32" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L175" s="20"/>
       <c r="M175" s="20"/>
@@ -14614,7 +14636,7 @@
       <c r="Q175" s="20"/>
       <c r="R175" s="20"/>
       <c r="S175" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T175" s="20"/>
       <c r="U175" s="26"/>
@@ -14648,7 +14670,7 @@
         <v>162</v>
       </c>
       <c r="G176" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H176" s="22" t="s">
         <v>82</v>
@@ -14660,7 +14682,7 @@
         <v>46</v>
       </c>
       <c r="K176" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L176" s="20"/>
       <c r="M176" s="20"/>
@@ -14716,7 +14738,7 @@
         <v>46</v>
       </c>
       <c r="K177" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L177" s="20"/>
       <c r="M177" s="20"/>
@@ -14769,17 +14791,17 @@
         <v>43938</v>
       </c>
       <c r="J178" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K178" s="24" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L178" s="20"/>
       <c r="M178" s="20"/>
       <c r="N178" s="20"/>
       <c r="O178" s="20"/>
       <c r="P178" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q178" s="20"/>
       <c r="R178" s="20"/>
@@ -14825,17 +14847,17 @@
         <v>43939</v>
       </c>
       <c r="J179" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K179" s="24" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L179" s="20"/>
       <c r="M179" s="20"/>
       <c r="N179" s="20"/>
       <c r="O179" s="20"/>
       <c r="P179" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q179" s="20"/>
       <c r="R179" s="20"/>
@@ -14881,17 +14903,17 @@
         <v>43939</v>
       </c>
       <c r="J180" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K180" s="24" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L180" s="20"/>
       <c r="M180" s="20"/>
       <c r="N180" s="20"/>
       <c r="O180" s="20"/>
       <c r="P180" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q180" s="20"/>
       <c r="R180" s="20"/>
@@ -14937,17 +14959,17 @@
         <v>43938</v>
       </c>
       <c r="J181" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K181" s="24" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L181" s="20"/>
       <c r="M181" s="20"/>
       <c r="N181" s="20"/>
       <c r="O181" s="20"/>
       <c r="P181" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q181" s="20"/>
       <c r="R181" s="20"/>
@@ -14996,7 +15018,7 @@
         <v>28</v>
       </c>
       <c r="K182" s="24" t="s">
-        <v>29</v>
+        <v>569</v>
       </c>
       <c r="L182" s="20"/>
       <c r="M182" s="20"/>
@@ -15052,7 +15074,7 @@
         <v>28</v>
       </c>
       <c r="K183" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L183" s="20"/>
       <c r="M183" s="20"/>
@@ -15108,7 +15130,7 @@
         <v>216</v>
       </c>
       <c r="K184" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L184" s="20"/>
       <c r="M184" s="20"/>
@@ -15164,7 +15186,7 @@
         <v>216</v>
       </c>
       <c r="K185" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L185" s="20"/>
       <c r="M185" s="20"/>
@@ -15220,7 +15242,7 @@
         <v>216</v>
       </c>
       <c r="K186" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L186" s="20"/>
       <c r="M186" s="20"/>
@@ -15276,7 +15298,7 @@
         <v>216</v>
       </c>
       <c r="K187" s="32" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L187" s="20"/>
       <c r="M187" s="20"/>
@@ -15332,7 +15354,7 @@
         <v>219</v>
       </c>
       <c r="K188" s="32" t="s">
-        <v>29</v>
+        <v>569</v>
       </c>
       <c r="L188" s="20"/>
       <c r="M188" s="20"/>
@@ -15388,7 +15410,7 @@
         <v>219</v>
       </c>
       <c r="K189" s="32" t="s">
-        <v>29</v>
+        <v>569</v>
       </c>
       <c r="L189" s="20"/>
       <c r="M189" s="20"/>
@@ -15432,7 +15454,7 @@
         <v>162</v>
       </c>
       <c r="G190" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H190" s="22" t="s">
         <v>78</v>
@@ -15444,7 +15466,7 @@
         <v>46</v>
       </c>
       <c r="K190" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L190" s="20"/>
       <c r="M190" s="20"/>
@@ -15500,7 +15522,7 @@
         <v>69</v>
       </c>
       <c r="K191" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L191" s="20"/>
       <c r="M191" s="20"/>
@@ -15556,7 +15578,7 @@
         <v>69</v>
       </c>
       <c r="K192" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L192" s="20"/>
       <c r="M192" s="20"/>
@@ -15724,7 +15746,7 @@
         <v>28</v>
       </c>
       <c r="K195" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L195" s="20"/>
       <c r="M195" s="20"/>
@@ -15780,7 +15802,7 @@
         <v>28</v>
       </c>
       <c r="K196" s="24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L196" s="20"/>
       <c r="M196" s="20"/>
@@ -15836,7 +15858,7 @@
         <v>28</v>
       </c>
       <c r="K197" s="24" t="s">
-        <v>294</v>
+        <v>612</v>
       </c>
       <c r="L197" s="20"/>
       <c r="M197" s="20"/>
@@ -15892,7 +15914,7 @@
         <v>28</v>
       </c>
       <c r="K198" s="24" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L198" s="20"/>
       <c r="M198" s="20"/>
@@ -16004,7 +16026,7 @@
         <v>28</v>
       </c>
       <c r="K200" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L200" s="20"/>
       <c r="M200" s="20"/>
@@ -16048,7 +16070,7 @@
         <v>97</v>
       </c>
       <c r="G201" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H201" s="22" t="s">
         <v>78</v>
@@ -16060,7 +16082,7 @@
         <v>46</v>
       </c>
       <c r="K201" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L201" s="20"/>
       <c r="M201" s="20"/>
@@ -16076,7 +16098,7 @@
       <c r="W201" s="26"/>
       <c r="X201" s="26"/>
       <c r="Y201" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z201" s="28"/>
       <c r="AA201" s="29"/>
@@ -16104,7 +16126,7 @@
         <v>97</v>
       </c>
       <c r="G202" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H202" s="22" t="s">
         <v>41</v>
@@ -16116,7 +16138,7 @@
         <v>46</v>
       </c>
       <c r="K202" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L202" s="20"/>
       <c r="M202" s="20"/>
@@ -16160,7 +16182,7 @@
         <v>97</v>
       </c>
       <c r="G203" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H203" s="22" t="s">
         <v>82</v>
@@ -16172,7 +16194,7 @@
         <v>46</v>
       </c>
       <c r="K203" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L203" s="20"/>
       <c r="M203" s="20"/>
@@ -16228,7 +16250,7 @@
         <v>28</v>
       </c>
       <c r="K204" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L204" s="20"/>
       <c r="M204" s="20"/>
@@ -16244,7 +16266,7 @@
       <c r="W204" s="26"/>
       <c r="X204" s="26"/>
       <c r="Y204" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z204" s="28"/>
       <c r="AA204" s="29"/>
@@ -16328,7 +16350,7 @@
         <v>97</v>
       </c>
       <c r="G206" s="22" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H206" s="22" t="s">
         <v>78</v>
@@ -16340,7 +16362,7 @@
         <v>57</v>
       </c>
       <c r="K206" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L206" s="20"/>
       <c r="M206" s="20"/>
@@ -16356,7 +16378,7 @@
       <c r="W206" s="26"/>
       <c r="X206" s="26"/>
       <c r="Y206" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z206" s="28"/>
       <c r="AA206" s="29"/>
@@ -16384,7 +16406,7 @@
         <v>97</v>
       </c>
       <c r="G207" s="22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H207" s="22" t="s">
         <v>34</v>
@@ -16396,7 +16418,7 @@
         <v>57</v>
       </c>
       <c r="K207" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L207" s="20"/>
       <c r="M207" s="20"/>
@@ -16412,7 +16434,7 @@
       <c r="W207" s="26"/>
       <c r="X207" s="26"/>
       <c r="Y207" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z207" s="28"/>
       <c r="AA207" s="29"/>
@@ -16440,10 +16462,10 @@
         <v>97</v>
       </c>
       <c r="G208" s="22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H208" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I208" s="23">
         <v>43919</v>
@@ -16452,7 +16474,7 @@
         <v>69</v>
       </c>
       <c r="K208" s="24" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L208" s="20"/>
       <c r="M208" s="20"/>
@@ -16468,7 +16490,7 @@
       <c r="W208" s="26"/>
       <c r="X208" s="26"/>
       <c r="Y208" s="27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Z208" s="28"/>
       <c r="AA208" s="29"/>
@@ -16496,7 +16518,7 @@
         <v>97</v>
       </c>
       <c r="G209" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H209" s="22" t="s">
         <v>82</v>
@@ -16508,7 +16530,7 @@
         <v>46</v>
       </c>
       <c r="K209" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L209" s="20"/>
       <c r="M209" s="20"/>
@@ -16552,7 +16574,7 @@
         <v>97</v>
       </c>
       <c r="G210" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H210" s="22" t="s">
         <v>78</v>
@@ -16564,7 +16586,7 @@
         <v>46</v>
       </c>
       <c r="K210" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L210" s="20"/>
       <c r="M210" s="20"/>
@@ -16608,7 +16630,7 @@
         <v>97</v>
       </c>
       <c r="G211" s="22" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H211" s="22" t="s">
         <v>78</v>
@@ -16620,7 +16642,7 @@
         <v>57</v>
       </c>
       <c r="K211" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L211" s="20"/>
       <c r="M211" s="20"/>
@@ -16636,7 +16658,7 @@
       <c r="W211" s="26"/>
       <c r="X211" s="26"/>
       <c r="Y211" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z211" s="28"/>
       <c r="AA211" s="29"/>
@@ -16664,7 +16686,7 @@
         <v>97</v>
       </c>
       <c r="G212" s="22" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H212" s="22" t="s">
         <v>78</v>
@@ -16676,7 +16698,7 @@
         <v>57</v>
       </c>
       <c r="K212" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L212" s="20"/>
       <c r="M212" s="20"/>
@@ -16720,7 +16742,7 @@
         <v>97</v>
       </c>
       <c r="G213" s="22" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H213" s="22" t="s">
         <v>78</v>
@@ -16729,10 +16751,10 @@
         <v>43933</v>
       </c>
       <c r="J213" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K213" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L213" s="20"/>
       <c r="M213" s="20"/>
@@ -16788,7 +16810,7 @@
         <v>69</v>
       </c>
       <c r="K214" s="38" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L214" s="20"/>
       <c r="M214" s="20"/>
@@ -16844,7 +16866,7 @@
         <v>69</v>
       </c>
       <c r="K215" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L215" s="20"/>
       <c r="M215" s="20"/>
@@ -16944,7 +16966,7 @@
         <v>97</v>
       </c>
       <c r="G217" s="22" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H217" s="22" t="s">
         <v>78</v>
@@ -16953,10 +16975,10 @@
         <v>43923</v>
       </c>
       <c r="J217" s="20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K217" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L217" s="20"/>
       <c r="M217" s="20"/>
@@ -17012,7 +17034,7 @@
         <v>28</v>
       </c>
       <c r="K218" s="24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L218" s="20"/>
       <c r="M218" s="20"/>
@@ -17180,7 +17202,7 @@
         <v>28</v>
       </c>
       <c r="K221" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L221" s="20"/>
       <c r="M221" s="20"/>
@@ -17404,7 +17426,7 @@
         <v>28</v>
       </c>
       <c r="K225" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L225" s="20"/>
       <c r="M225" s="20"/>
@@ -17516,7 +17538,7 @@
         <v>28</v>
       </c>
       <c r="K227" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L227" s="20"/>
       <c r="M227" s="20"/>
@@ -18020,7 +18042,7 @@
         <v>28</v>
       </c>
       <c r="K236" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L236" s="20"/>
       <c r="M236" s="20"/>
@@ -18076,7 +18098,7 @@
         <v>28</v>
       </c>
       <c r="K237" s="24" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="L237" s="20"/>
       <c r="M237" s="20"/>
@@ -18356,7 +18378,7 @@
         <v>28</v>
       </c>
       <c r="K242" s="32" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L242" s="20"/>
       <c r="M242" s="20"/>
@@ -18456,7 +18478,7 @@
         <v>97</v>
       </c>
       <c r="G244" s="22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H244" s="22" t="s">
         <v>34</v>
@@ -18468,7 +18490,7 @@
         <v>69</v>
       </c>
       <c r="K244" s="24" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L244" s="20"/>
       <c r="M244" s="20"/>
@@ -18484,7 +18506,7 @@
       <c r="W244" s="26"/>
       <c r="X244" s="26"/>
       <c r="Y244" s="27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Z244" s="28"/>
       <c r="AA244" s="29"/>
@@ -18512,10 +18534,10 @@
         <v>97</v>
       </c>
       <c r="G245" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="H245" s="22" t="s">
         <v>409</v>
-      </c>
-      <c r="H245" s="22" t="s">
-        <v>412</v>
       </c>
       <c r="I245" s="23">
         <v>43933</v>
@@ -18524,7 +18546,7 @@
         <v>28</v>
       </c>
       <c r="K245" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L245" s="20"/>
       <c r="M245" s="20"/>
@@ -18540,7 +18562,7 @@
       <c r="W245" s="26"/>
       <c r="X245" s="26"/>
       <c r="Y245" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z245" s="28"/>
       <c r="AA245" s="29"/>
@@ -18692,7 +18714,7 @@
         <v>28</v>
       </c>
       <c r="K248" s="37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L248" s="20"/>
       <c r="M248" s="20"/>
@@ -18708,7 +18730,7 @@
       <c r="W248" s="26"/>
       <c r="X248" s="26"/>
       <c r="Y248" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z248" s="28"/>
       <c r="AA248" s="29"/>
@@ -18736,10 +18758,10 @@
         <v>97</v>
       </c>
       <c r="G249" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H249" s="22" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I249" s="23">
         <v>43926</v>
@@ -18748,7 +18770,7 @@
         <v>28</v>
       </c>
       <c r="K249" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L249" s="20"/>
       <c r="M249" s="20"/>
@@ -18764,7 +18786,7 @@
       <c r="W249" s="26"/>
       <c r="X249" s="26"/>
       <c r="Y249" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z249" s="28"/>
       <c r="AA249" s="29"/>
@@ -18792,10 +18814,10 @@
         <v>97</v>
       </c>
       <c r="G250" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H250" s="22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I250" s="23">
         <v>43927</v>
@@ -18804,7 +18826,7 @@
         <v>28</v>
       </c>
       <c r="K250" s="37" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L250" s="20"/>
       <c r="M250" s="20"/>
@@ -18851,7 +18873,7 @@
         <v>99</v>
       </c>
       <c r="H251" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I251" s="23">
         <v>43920</v>
@@ -18972,7 +18994,7 @@
         <v>188</v>
       </c>
       <c r="K253" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L253" s="20"/>
       <c r="M253" s="20"/>
@@ -19028,7 +19050,7 @@
         <v>190</v>
       </c>
       <c r="K254" s="32" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L254" s="20"/>
       <c r="M254" s="20"/>
@@ -19084,7 +19106,7 @@
         <v>190</v>
       </c>
       <c r="K255" s="32" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L255" s="20"/>
       <c r="M255" s="20"/>
@@ -19140,7 +19162,7 @@
         <v>193</v>
       </c>
       <c r="K256" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L256" s="20"/>
       <c r="M256" s="20"/>
@@ -19196,7 +19218,7 @@
         <v>193</v>
       </c>
       <c r="K257" s="32" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L257" s="20"/>
       <c r="M257" s="20"/>
@@ -19252,7 +19274,7 @@
         <v>193</v>
       </c>
       <c r="K258" s="32" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L258" s="20"/>
       <c r="M258" s="20"/>
@@ -19308,7 +19330,7 @@
         <v>193</v>
       </c>
       <c r="K259" s="32" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L259" s="20"/>
       <c r="M259" s="20"/>
@@ -19364,7 +19386,7 @@
         <v>195</v>
       </c>
       <c r="K260" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L260" s="20"/>
       <c r="M260" s="20"/>
@@ -19420,7 +19442,7 @@
         <v>195</v>
       </c>
       <c r="K261" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L261" s="20"/>
       <c r="M261" s="20"/>
@@ -19476,7 +19498,7 @@
         <v>195</v>
       </c>
       <c r="K262" s="32" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L262" s="20"/>
       <c r="M262" s="20"/>
@@ -19532,7 +19554,7 @@
         <v>196</v>
       </c>
       <c r="K263" s="32" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L263" s="20"/>
       <c r="M263" s="20"/>
@@ -19587,8 +19609,8 @@
       <c r="J264" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="K264" s="24" t="s">
-        <v>29</v>
+      <c r="K264" s="95" t="s">
+        <v>590</v>
       </c>
       <c r="L264" s="20"/>
       <c r="M264" s="20"/>
@@ -19644,7 +19666,7 @@
         <v>196</v>
       </c>
       <c r="K265" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L265" s="20"/>
       <c r="M265" s="20"/>
@@ -19700,7 +19722,7 @@
         <v>196</v>
       </c>
       <c r="K266" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L266" s="20"/>
       <c r="M266" s="20"/>
@@ -19756,7 +19778,7 @@
         <v>57</v>
       </c>
       <c r="K267" s="37" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L267" s="20"/>
       <c r="M267" s="20"/>
@@ -19772,7 +19794,7 @@
       <c r="W267" s="26"/>
       <c r="X267" s="40"/>
       <c r="Y267" s="34" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Z267" s="35"/>
       <c r="AA267" s="33"/>
@@ -19812,7 +19834,7 @@
         <v>28</v>
       </c>
       <c r="K268" s="37" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L268" s="20"/>
       <c r="M268" s="20"/>
@@ -19924,7 +19946,7 @@
         <v>35</v>
       </c>
       <c r="K270" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L270" s="20"/>
       <c r="M270" s="20"/>
@@ -19980,7 +20002,7 @@
         <v>35</v>
       </c>
       <c r="K271" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L271" s="20"/>
       <c r="M271" s="20"/>
@@ -20036,7 +20058,7 @@
         <v>35</v>
       </c>
       <c r="K272" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L272" s="20"/>
       <c r="M272" s="20"/>
@@ -20092,7 +20114,7 @@
         <v>35</v>
       </c>
       <c r="K273" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L273" s="20"/>
       <c r="M273" s="20"/>
@@ -20148,7 +20170,7 @@
         <v>28</v>
       </c>
       <c r="K274" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L274" s="20"/>
       <c r="M274" s="20"/>
@@ -20204,7 +20226,7 @@
         <v>28</v>
       </c>
       <c r="K275" s="37" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L275" s="20"/>
       <c r="M275" s="20"/>
@@ -20260,7 +20282,7 @@
         <v>28</v>
       </c>
       <c r="K276" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L276" s="20"/>
       <c r="M276" s="20"/>
@@ -20316,7 +20338,7 @@
         <v>35</v>
       </c>
       <c r="K277" s="37" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L277" s="20"/>
       <c r="M277" s="20"/>
@@ -20372,7 +20394,7 @@
         <v>35</v>
       </c>
       <c r="K278" s="24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L278" s="20"/>
       <c r="M278" s="20"/>
@@ -20428,7 +20450,7 @@
         <v>35</v>
       </c>
       <c r="K279" s="37" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L279" s="20"/>
       <c r="M279" s="20"/>
@@ -20540,7 +20562,7 @@
         <v>28</v>
       </c>
       <c r="K281" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L281" s="20"/>
       <c r="M281" s="20"/>
@@ -20652,7 +20674,7 @@
         <v>183</v>
       </c>
       <c r="K283" s="24" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L283" s="20"/>
       <c r="M283" s="20"/>
@@ -20708,7 +20730,7 @@
         <v>183</v>
       </c>
       <c r="K284" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L284" s="20"/>
       <c r="M284" s="20"/>
@@ -20764,7 +20786,7 @@
         <v>184</v>
       </c>
       <c r="K285" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L285" s="20"/>
       <c r="M285" s="20"/>
@@ -20820,7 +20842,7 @@
         <v>184</v>
       </c>
       <c r="K286" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L286" s="20"/>
       <c r="M286" s="20"/>
@@ -20876,7 +20898,7 @@
         <v>184</v>
       </c>
       <c r="K287" s="24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L287" s="20"/>
       <c r="M287" s="20"/>
@@ -20932,7 +20954,7 @@
         <v>184</v>
       </c>
       <c r="K288" s="24" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L288" s="20"/>
       <c r="M288" s="20"/>
@@ -20988,7 +21010,7 @@
         <v>184</v>
       </c>
       <c r="K289" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L289" s="20"/>
       <c r="M289" s="20"/>
@@ -21044,7 +21066,7 @@
         <v>184</v>
       </c>
       <c r="K290" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L290" s="20"/>
       <c r="M290" s="20"/>
@@ -21100,7 +21122,7 @@
         <v>185</v>
       </c>
       <c r="K291" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L291" s="20"/>
       <c r="M291" s="20"/>
@@ -21156,7 +21178,7 @@
         <v>185</v>
       </c>
       <c r="K292" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L292" s="20"/>
       <c r="M292" s="20"/>
@@ -21212,7 +21234,7 @@
         <v>185</v>
       </c>
       <c r="K293" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L293" s="20"/>
       <c r="M293" s="20"/>
@@ -21380,7 +21402,7 @@
         <v>46</v>
       </c>
       <c r="K296" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L296" s="20"/>
       <c r="M296" s="20"/>
@@ -21483,7 +21505,7 @@
         <v>92</v>
       </c>
       <c r="H298" s="22" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I298" s="23">
         <v>43926</v>
@@ -21492,7 +21514,7 @@
         <v>185</v>
       </c>
       <c r="K298" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L298" s="20"/>
       <c r="M298" s="20"/>
@@ -21548,7 +21570,7 @@
         <v>185</v>
       </c>
       <c r="K299" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L299" s="20"/>
       <c r="M299" s="20"/>
@@ -21660,7 +21682,7 @@
         <v>28</v>
       </c>
       <c r="K301" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L301" s="20"/>
       <c r="M301" s="20"/>
@@ -21716,7 +21738,7 @@
         <v>28</v>
       </c>
       <c r="K302" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L302" s="20"/>
       <c r="M302" s="20"/>
@@ -21828,7 +21850,7 @@
         <v>173</v>
       </c>
       <c r="K304" s="95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L304" s="20"/>
       <c r="M304" s="20"/>
@@ -21884,7 +21906,7 @@
         <v>173</v>
       </c>
       <c r="K305" s="24" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L305" s="20"/>
       <c r="M305" s="20"/>
@@ -21940,7 +21962,7 @@
         <v>173</v>
       </c>
       <c r="K306" s="24" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L306" s="20"/>
       <c r="M306" s="20"/>
@@ -21996,7 +22018,7 @@
         <v>173</v>
       </c>
       <c r="K307" s="24" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L307" s="20"/>
       <c r="M307" s="20"/>
@@ -22276,7 +22298,7 @@
         <v>28</v>
       </c>
       <c r="K312" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L312" s="20"/>
       <c r="M312" s="20"/>
@@ -22332,7 +22354,7 @@
         <v>28</v>
       </c>
       <c r="K313" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L313" s="20"/>
       <c r="M313" s="20"/>
@@ -22388,7 +22410,7 @@
         <v>28</v>
       </c>
       <c r="K314" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L314" s="20"/>
       <c r="M314" s="20"/>
@@ -22444,7 +22466,7 @@
         <v>69</v>
       </c>
       <c r="K315" s="37" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L315" s="20"/>
       <c r="M315" s="20"/>
@@ -22556,7 +22578,7 @@
         <v>69</v>
       </c>
       <c r="K317" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L317" s="20"/>
       <c r="M317" s="20"/>
@@ -22612,7 +22634,7 @@
         <v>69</v>
       </c>
       <c r="K318" s="38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L318" s="20"/>
       <c r="M318" s="20"/>
@@ -22668,7 +22690,7 @@
         <v>28</v>
       </c>
       <c r="K319" s="37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L319" s="20"/>
       <c r="M319" s="20"/>
@@ -22724,7 +22746,7 @@
         <v>28</v>
       </c>
       <c r="K320" s="37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L320" s="20"/>
       <c r="M320" s="20"/>
@@ -22780,7 +22802,7 @@
         <v>28</v>
       </c>
       <c r="K321" s="37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L321" s="20"/>
       <c r="M321" s="20"/>
@@ -22836,7 +22858,7 @@
         <v>28</v>
       </c>
       <c r="K322" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L322" s="20"/>
       <c r="M322" s="20"/>
@@ -22892,7 +22914,7 @@
         <v>28</v>
       </c>
       <c r="K323" s="24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L323" s="20"/>
       <c r="M323" s="20"/>
@@ -22948,7 +22970,7 @@
         <v>28</v>
       </c>
       <c r="K324" s="37" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L324" s="20"/>
       <c r="M324" s="20"/>
@@ -23004,7 +23026,7 @@
         <v>28</v>
       </c>
       <c r="K325" s="37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L325" s="20"/>
       <c r="M325" s="20"/>
@@ -23110,13 +23132,13 @@
         <v>83</v>
       </c>
       <c r="I327" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J327" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K327" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L327" s="20"/>
       <c r="M327" s="20"/>
@@ -23166,13 +23188,13 @@
         <v>83</v>
       </c>
       <c r="I328" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J328" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K328" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L328" s="20"/>
       <c r="M328" s="20"/>
@@ -23222,13 +23244,13 @@
         <v>83</v>
       </c>
       <c r="I329" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J329" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K329" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L329" s="20"/>
       <c r="M329" s="20"/>
@@ -23278,13 +23300,13 @@
         <v>83</v>
       </c>
       <c r="I330" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J330" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K330" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L330" s="20"/>
       <c r="M330" s="20"/>
@@ -23340,7 +23362,7 @@
         <v>28</v>
       </c>
       <c r="K331" s="24" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L331" s="20"/>
       <c r="M331" s="20"/>
@@ -23396,7 +23418,7 @@
         <v>28</v>
       </c>
       <c r="K332" s="37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L332" s="39"/>
       <c r="M332" s="39"/>
@@ -23508,7 +23530,7 @@
         <v>28</v>
       </c>
       <c r="K334" s="37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L334" s="39"/>
       <c r="M334" s="39"/>
@@ -23564,7 +23586,7 @@
         <v>28</v>
       </c>
       <c r="K335" s="37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L335" s="39"/>
       <c r="M335" s="39"/>
@@ -23620,7 +23642,7 @@
         <v>28</v>
       </c>
       <c r="K336" s="37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L336" s="39"/>
       <c r="M336" s="39"/>
@@ -23676,7 +23698,7 @@
         <v>28</v>
       </c>
       <c r="K337" s="37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L337" s="39"/>
       <c r="M337" s="39"/>
@@ -23723,7 +23745,7 @@
         <v>116</v>
       </c>
       <c r="H338" s="41" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I338" s="98">
         <v>43923</v>
@@ -23732,7 +23754,7 @@
         <v>28</v>
       </c>
       <c r="K338" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L338" s="39"/>
       <c r="M338" s="39"/>
@@ -23788,7 +23810,7 @@
         <v>28</v>
       </c>
       <c r="K339" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L339" s="39"/>
       <c r="M339" s="39"/>
@@ -23956,7 +23978,7 @@
         <v>28</v>
       </c>
       <c r="K342" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L342" s="39"/>
       <c r="M342" s="39"/>
@@ -24124,7 +24146,7 @@
         <v>28</v>
       </c>
       <c r="K345" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L345" s="39"/>
       <c r="M345" s="39"/>
@@ -24292,7 +24314,7 @@
         <v>28</v>
       </c>
       <c r="K348" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L348" s="39"/>
       <c r="M348" s="39"/>
@@ -24348,7 +24370,7 @@
         <v>28</v>
       </c>
       <c r="K349" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L349" s="39"/>
       <c r="M349" s="39"/>
@@ -24628,7 +24650,7 @@
         <v>28</v>
       </c>
       <c r="K354" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L354" s="39"/>
       <c r="M354" s="39"/>
@@ -24908,7 +24930,7 @@
         <v>28</v>
       </c>
       <c r="K359" s="37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L359" s="39"/>
       <c r="M359" s="39"/>
@@ -24964,7 +24986,7 @@
         <v>28</v>
       </c>
       <c r="K360" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L360" s="39"/>
       <c r="M360" s="39"/>
@@ -25020,7 +25042,7 @@
         <v>28</v>
       </c>
       <c r="K361" s="37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L361" s="39"/>
       <c r="M361" s="39"/>
@@ -25132,7 +25154,7 @@
         <v>28</v>
       </c>
       <c r="K363" s="37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L363" s="39"/>
       <c r="M363" s="39"/>
@@ -25356,7 +25378,7 @@
         <v>69</v>
       </c>
       <c r="K367" s="24" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L367" s="39"/>
       <c r="M367" s="39"/>
@@ -25524,7 +25546,7 @@
         <v>28</v>
       </c>
       <c r="K370" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L370" s="39"/>
       <c r="M370" s="39"/>
@@ -25860,7 +25882,7 @@
         <v>28</v>
       </c>
       <c r="K376" s="37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L376" s="39"/>
       <c r="M376" s="39"/>
@@ -25910,13 +25932,13 @@
         <v>78</v>
       </c>
       <c r="I377" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J377" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K377" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L377" s="39"/>
       <c r="M377" s="39"/>
@@ -25966,13 +25988,13 @@
         <v>83</v>
       </c>
       <c r="I378" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J378" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K378" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L378" s="39"/>
       <c r="M378" s="39"/>
@@ -26022,13 +26044,13 @@
         <v>83</v>
       </c>
       <c r="I379" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J379" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K379" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L379" s="39"/>
       <c r="M379" s="39"/>
@@ -26078,13 +26100,13 @@
         <v>83</v>
       </c>
       <c r="I380" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J380" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K380" s="38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L380" s="39"/>
       <c r="M380" s="39"/>
@@ -26134,13 +26156,13 @@
         <v>83</v>
       </c>
       <c r="I381" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J381" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K381" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L381" s="39"/>
       <c r="M381" s="39"/>
@@ -26190,13 +26212,13 @@
         <v>83</v>
       </c>
       <c r="I382" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J382" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K382" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L382" s="39"/>
       <c r="M382" s="39"/>
@@ -26246,13 +26268,13 @@
         <v>83</v>
       </c>
       <c r="I383" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J383" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K383" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L383" s="39"/>
       <c r="M383" s="39"/>
@@ -26302,13 +26324,13 @@
         <v>83</v>
       </c>
       <c r="I384" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J384" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K384" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L384" s="39"/>
       <c r="M384" s="39"/>
@@ -26364,7 +26386,7 @@
         <v>28</v>
       </c>
       <c r="K385" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L385" s="39"/>
       <c r="M385" s="39"/>
@@ -26420,7 +26442,7 @@
         <v>28</v>
       </c>
       <c r="K386" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L386" s="39"/>
       <c r="M386" s="39"/>
@@ -26470,13 +26492,13 @@
         <v>83</v>
       </c>
       <c r="I387" s="98" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J387" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K387" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L387" s="39"/>
       <c r="M387" s="39"/>
@@ -26532,7 +26554,7 @@
         <v>28</v>
       </c>
       <c r="K388" s="38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L388" s="39"/>
       <c r="M388" s="39"/>
@@ -26588,7 +26610,7 @@
         <v>28</v>
       </c>
       <c r="K389" s="38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L389" s="39"/>
       <c r="M389" s="39"/>
@@ -26700,7 +26722,7 @@
         <v>69</v>
       </c>
       <c r="K391" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L391" s="39"/>
       <c r="M391" s="39"/>
@@ -26756,7 +26778,7 @@
         <v>46</v>
       </c>
       <c r="K392" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L392" s="39"/>
       <c r="M392" s="39"/>
@@ -26812,7 +26834,7 @@
         <v>57</v>
       </c>
       <c r="K393" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L393" s="39"/>
       <c r="M393" s="39"/>
@@ -26868,7 +26890,7 @@
         <v>57</v>
       </c>
       <c r="K394" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L394" s="39"/>
       <c r="M394" s="39"/>
@@ -26980,7 +27002,7 @@
         <v>46</v>
       </c>
       <c r="K396" s="37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L396" s="39"/>
       <c r="M396" s="39"/>
@@ -27036,7 +27058,7 @@
         <v>46</v>
       </c>
       <c r="K397" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L397" s="39"/>
       <c r="M397" s="39"/>
@@ -27092,7 +27114,7 @@
         <v>46</v>
       </c>
       <c r="K398" s="37" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L398" s="39"/>
       <c r="M398" s="39"/>
@@ -27148,7 +27170,7 @@
         <v>46</v>
       </c>
       <c r="K399" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L399" s="39"/>
       <c r="M399" s="39"/>
@@ -27260,7 +27282,7 @@
         <v>57</v>
       </c>
       <c r="K401" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L401" s="39"/>
       <c r="M401" s="39"/>
@@ -27372,7 +27394,7 @@
         <v>57</v>
       </c>
       <c r="K403" s="37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L403" s="39"/>
       <c r="M403" s="39"/>
@@ -27428,7 +27450,7 @@
         <v>57</v>
       </c>
       <c r="K404" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L404" s="39"/>
       <c r="M404" s="39"/>
@@ -27596,7 +27618,7 @@
         <v>28</v>
       </c>
       <c r="K407" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L407" s="39"/>
       <c r="M407" s="39"/>
@@ -27764,7 +27786,7 @@
         <v>28</v>
       </c>
       <c r="K410" s="37" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L410" s="39"/>
       <c r="M410" s="39"/>
@@ -27820,7 +27842,7 @@
         <v>28</v>
       </c>
       <c r="K411" s="37" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L411" s="39"/>
       <c r="M411" s="39"/>
@@ -27876,7 +27898,7 @@
         <v>85</v>
       </c>
       <c r="K412" s="37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L412" s="39"/>
       <c r="M412" s="39"/>
@@ -27988,7 +28010,7 @@
         <v>28</v>
       </c>
       <c r="K414" s="24" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L414" s="39"/>
       <c r="M414" s="39"/>
@@ -28156,7 +28178,7 @@
         <v>28</v>
       </c>
       <c r="K417" s="37" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="L417" s="39"/>
       <c r="M417" s="39"/>
@@ -28268,7 +28290,7 @@
         <v>69</v>
       </c>
       <c r="K419" s="37" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L419" s="39"/>
       <c r="M419" s="39"/>
@@ -28380,7 +28402,7 @@
         <v>28</v>
       </c>
       <c r="K421" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L421" s="39"/>
       <c r="M421" s="39"/>
@@ -28492,7 +28514,7 @@
         <v>28</v>
       </c>
       <c r="K423" s="37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L423" s="39"/>
       <c r="M423" s="39"/>
@@ -28548,7 +28570,7 @@
         <v>28</v>
       </c>
       <c r="K424" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L424" s="39"/>
       <c r="M424" s="39"/>
@@ -28604,7 +28626,7 @@
         <v>28</v>
       </c>
       <c r="K425" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L425" s="39"/>
       <c r="M425" s="39"/>
@@ -28660,7 +28682,7 @@
         <v>28</v>
       </c>
       <c r="K426" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L426" s="39"/>
       <c r="M426" s="39"/>
@@ -28716,7 +28738,7 @@
         <v>28</v>
       </c>
       <c r="K427" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L427" s="39"/>
       <c r="M427" s="39"/>
@@ -28772,7 +28794,7 @@
         <v>28</v>
       </c>
       <c r="K428" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L428" s="39"/>
       <c r="M428" s="39"/>
@@ -28828,7 +28850,7 @@
         <v>28</v>
       </c>
       <c r="K429" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L429" s="39"/>
       <c r="M429" s="39"/>
@@ -28884,7 +28906,7 @@
         <v>28</v>
       </c>
       <c r="K430" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L430" s="39"/>
       <c r="M430" s="39"/>
@@ -28940,7 +28962,7 @@
         <v>28</v>
       </c>
       <c r="K431" s="37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L431" s="39"/>
       <c r="M431" s="39"/>
@@ -28996,7 +29018,7 @@
         <v>28</v>
       </c>
       <c r="K432" s="37" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L432" s="39"/>
       <c r="M432" s="39"/>
@@ -29052,7 +29074,7 @@
         <v>28</v>
       </c>
       <c r="K433" s="37" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L433" s="39"/>
       <c r="M433" s="39"/>
@@ -29108,7 +29130,7 @@
         <v>28</v>
       </c>
       <c r="K434" s="37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L434" s="39"/>
       <c r="M434" s="39"/>
@@ -29220,7 +29242,7 @@
         <v>69</v>
       </c>
       <c r="K436" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L436" s="39"/>
       <c r="M436" s="39"/>
@@ -29332,7 +29354,7 @@
         <v>28</v>
       </c>
       <c r="K438" s="37" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L438" s="39"/>
       <c r="M438" s="39"/>
@@ -29388,7 +29410,7 @@
         <v>28</v>
       </c>
       <c r="K439" s="37" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L439" s="39"/>
       <c r="M439" s="39"/>
@@ -29444,7 +29466,7 @@
         <v>28</v>
       </c>
       <c r="K440" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L440" s="39"/>
       <c r="M440" s="39"/>
@@ -29500,7 +29522,7 @@
         <v>28</v>
       </c>
       <c r="K441" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L441" s="39"/>
       <c r="M441" s="39"/>
@@ -29556,7 +29578,7 @@
         <v>28</v>
       </c>
       <c r="K442" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L442" s="39"/>
       <c r="M442" s="39"/>
@@ -29603,7 +29625,7 @@
         <v>104</v>
       </c>
       <c r="H443" s="41" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I443" s="99">
         <v>43927</v>
@@ -29612,7 +29634,7 @@
         <v>69</v>
       </c>
       <c r="K443" s="37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L443" s="39"/>
       <c r="M443" s="39"/>
@@ -29668,7 +29690,7 @@
         <v>164</v>
       </c>
       <c r="K444" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L444" s="39"/>
       <c r="M444" s="39"/>
@@ -29780,7 +29802,7 @@
         <v>46</v>
       </c>
       <c r="K446" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L446" s="39"/>
       <c r="M446" s="39"/>
@@ -29836,7 +29858,7 @@
         <v>46</v>
       </c>
       <c r="K447" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L447" s="39"/>
       <c r="M447" s="39"/>
@@ -29948,7 +29970,7 @@
         <v>46</v>
       </c>
       <c r="K449" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L449" s="39"/>
       <c r="M449" s="39"/>
@@ -30172,7 +30194,7 @@
         <v>224</v>
       </c>
       <c r="K453" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L453" s="39"/>
       <c r="M453" s="39"/>
@@ -30284,7 +30306,7 @@
         <v>224</v>
       </c>
       <c r="K455" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L455" s="39"/>
       <c r="M455" s="39"/>
@@ -30340,7 +30362,7 @@
         <v>122</v>
       </c>
       <c r="K456" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L456" s="39"/>
       <c r="M456" s="39"/>
@@ -30620,7 +30642,7 @@
         <v>122</v>
       </c>
       <c r="K461" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L461" s="39"/>
       <c r="M461" s="39"/>
@@ -30676,7 +30698,7 @@
         <v>122</v>
       </c>
       <c r="K462" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L462" s="39"/>
       <c r="M462" s="39"/>
@@ -30720,7 +30742,7 @@
         <v>90</v>
       </c>
       <c r="G463" s="41" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H463" s="41" t="s">
         <v>72</v>
@@ -30956,7 +30978,7 @@
         <v>28</v>
       </c>
       <c r="K467" s="37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L467" s="39"/>
       <c r="M467" s="39"/>
@@ -31012,7 +31034,7 @@
         <v>28</v>
       </c>
       <c r="K468" s="37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L468" s="39"/>
       <c r="M468" s="39"/>
@@ -31124,7 +31146,7 @@
         <v>28</v>
       </c>
       <c r="K470" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L470" s="39"/>
       <c r="M470" s="39"/>
@@ -31236,7 +31258,7 @@
         <v>28</v>
       </c>
       <c r="K472" s="37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L472" s="39"/>
       <c r="M472" s="39"/>
@@ -31348,7 +31370,7 @@
         <v>28</v>
       </c>
       <c r="K474" s="37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L474" s="39"/>
       <c r="M474" s="39"/>
@@ -31460,7 +31482,7 @@
         <v>69</v>
       </c>
       <c r="K476" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L476" s="39"/>
       <c r="M476" s="39"/>
@@ -31572,7 +31594,7 @@
         <v>69</v>
       </c>
       <c r="K478" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L478" s="39"/>
       <c r="M478" s="39"/>
@@ -31684,7 +31706,7 @@
         <v>28</v>
       </c>
       <c r="K480" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L480" s="39"/>
       <c r="M480" s="39"/>
@@ -31740,7 +31762,7 @@
         <v>28</v>
       </c>
       <c r="K481" s="37" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="L481" s="39"/>
       <c r="M481" s="39"/>
@@ -31908,7 +31930,7 @@
         <v>69</v>
       </c>
       <c r="K484" s="37" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L484" s="39"/>
       <c r="M484" s="39"/>
@@ -32076,7 +32098,7 @@
         <v>69</v>
       </c>
       <c r="K487" s="37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L487" s="39"/>
       <c r="M487" s="39"/>
@@ -32132,7 +32154,7 @@
         <v>69</v>
       </c>
       <c r="K488" s="37" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="L488" s="39"/>
       <c r="M488" s="39"/>
@@ -32188,7 +32210,7 @@
         <v>69</v>
       </c>
       <c r="K489" s="37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L489" s="39"/>
       <c r="M489" s="39"/>
@@ -32412,7 +32434,7 @@
         <v>28</v>
       </c>
       <c r="K493" s="37" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L493" s="39"/>
       <c r="M493" s="39"/>
@@ -32468,7 +32490,7 @@
         <v>28</v>
       </c>
       <c r="K494" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L494" s="39"/>
       <c r="M494" s="39"/>
@@ -32524,7 +32546,7 @@
         <v>28</v>
       </c>
       <c r="K495" s="37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L495" s="39"/>
       <c r="M495" s="39"/>
@@ -32580,7 +32602,7 @@
         <v>28</v>
       </c>
       <c r="K496" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L496" s="39"/>
       <c r="M496" s="39"/>
@@ -32692,7 +32714,7 @@
         <v>28</v>
       </c>
       <c r="K498" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L498" s="39"/>
       <c r="M498" s="39"/>
@@ -32804,7 +32826,7 @@
         <v>28</v>
       </c>
       <c r="K500" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L500" s="39"/>
       <c r="M500" s="39"/>
@@ -32972,7 +32994,7 @@
         <v>69</v>
       </c>
       <c r="K503" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L503" s="39"/>
       <c r="M503" s="39"/>
@@ -33252,7 +33274,7 @@
         <v>28</v>
       </c>
       <c r="K508" s="37" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L508" s="39"/>
       <c r="M508" s="39"/>
@@ -33308,7 +33330,7 @@
         <v>28</v>
       </c>
       <c r="K509" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L509" s="39"/>
       <c r="M509" s="39"/>
@@ -33364,7 +33386,7 @@
         <v>28</v>
       </c>
       <c r="K510" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L510" s="39"/>
       <c r="M510" s="39"/>
@@ -33420,7 +33442,7 @@
         <v>28</v>
       </c>
       <c r="K511" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L511" s="39"/>
       <c r="M511" s="39"/>
@@ -33588,7 +33610,7 @@
         <v>28</v>
       </c>
       <c r="K514" s="37" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L514" s="39"/>
       <c r="M514" s="39"/>
@@ -33700,7 +33722,7 @@
         <v>28</v>
       </c>
       <c r="K516" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L516" s="39"/>
       <c r="M516" s="39"/>
@@ -33756,7 +33778,7 @@
         <v>28</v>
       </c>
       <c r="K517" s="37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L517" s="39"/>
       <c r="M517" s="39"/>
@@ -33812,7 +33834,7 @@
         <v>85</v>
       </c>
       <c r="K518" s="37" t="s">
-        <v>336</v>
+        <v>613</v>
       </c>
       <c r="L518" s="39"/>
       <c r="M518" s="39"/>
@@ -33924,7 +33946,7 @@
         <v>57</v>
       </c>
       <c r="K520" s="37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L520" s="39"/>
       <c r="M520" s="39"/>
@@ -34148,7 +34170,7 @@
         <v>28</v>
       </c>
       <c r="K524" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L524" s="39"/>
       <c r="M524" s="39"/>
@@ -34204,7 +34226,7 @@
         <v>28</v>
       </c>
       <c r="K525" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L525" s="39"/>
       <c r="M525" s="39"/>
@@ -34260,7 +34282,7 @@
         <v>46</v>
       </c>
       <c r="K526" s="37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L526" s="39"/>
       <c r="M526" s="39"/>
@@ -34316,7 +34338,7 @@
         <v>46</v>
       </c>
       <c r="K527" s="37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L527" s="39"/>
       <c r="M527" s="39"/>
@@ -34372,7 +34394,7 @@
         <v>149</v>
       </c>
       <c r="K528" s="37" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L528" s="39"/>
       <c r="M528" s="39"/>
@@ -34428,7 +34450,7 @@
         <v>149</v>
       </c>
       <c r="K529" s="37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L529" s="39"/>
       <c r="M529" s="39"/>
@@ -34484,7 +34506,7 @@
         <v>35</v>
       </c>
       <c r="K530" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L530" s="39"/>
       <c r="M530" s="39"/>
@@ -34540,7 +34562,7 @@
         <v>85</v>
       </c>
       <c r="K531" s="38" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L531" s="39"/>
       <c r="M531" s="39"/>
@@ -34596,7 +34618,7 @@
         <v>69</v>
       </c>
       <c r="K532" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L532" s="39"/>
       <c r="M532" s="39"/>
@@ -34708,7 +34730,7 @@
         <v>28</v>
       </c>
       <c r="K534" s="38" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L534" s="39"/>
       <c r="M534" s="39"/>
@@ -34764,7 +34786,7 @@
         <v>28</v>
       </c>
       <c r="K535" s="38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L535" s="39"/>
       <c r="M535" s="39"/>
@@ -34876,7 +34898,7 @@
         <v>28</v>
       </c>
       <c r="K537" s="38" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L537" s="39"/>
       <c r="M537" s="39"/>
@@ -34932,7 +34954,7 @@
         <v>28</v>
       </c>
       <c r="K538" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L538" s="39"/>
       <c r="M538" s="39"/>
@@ -34988,7 +35010,7 @@
         <v>28</v>
       </c>
       <c r="K539" s="38" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L539" s="39"/>
       <c r="M539" s="39"/>
@@ -35156,7 +35178,7 @@
         <v>28</v>
       </c>
       <c r="K542" s="38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L542" s="39"/>
       <c r="M542" s="39"/>
@@ -35212,7 +35234,7 @@
         <v>28</v>
       </c>
       <c r="K543" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L543" s="39"/>
       <c r="M543" s="39"/>
@@ -35268,7 +35290,7 @@
         <v>122</v>
       </c>
       <c r="K544" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L544" s="39"/>
       <c r="M544" s="39"/>
@@ -35324,7 +35346,7 @@
         <v>28</v>
       </c>
       <c r="K545" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L545" s="39"/>
       <c r="M545" s="39"/>
@@ -35380,7 +35402,7 @@
         <v>46</v>
       </c>
       <c r="K546" s="38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L546" s="39"/>
       <c r="M546" s="39"/>
@@ -35436,7 +35458,7 @@
         <v>46</v>
       </c>
       <c r="K547" s="38" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L547" s="39"/>
       <c r="M547" s="39"/>
@@ -35492,7 +35514,7 @@
         <v>46</v>
       </c>
       <c r="K548" s="38" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L548" s="39"/>
       <c r="M548" s="39"/>
@@ -35548,7 +35570,7 @@
         <v>46</v>
       </c>
       <c r="K549" s="38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L549" s="39"/>
       <c r="M549" s="39"/>
@@ -35604,7 +35626,7 @@
         <v>36</v>
       </c>
       <c r="K550" s="38" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L550" s="39"/>
       <c r="M550" s="39"/>
@@ -35660,7 +35682,7 @@
         <v>35</v>
       </c>
       <c r="K551" s="38" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L551" s="39"/>
       <c r="M551" s="39"/>
@@ -35716,7 +35738,7 @@
         <v>36</v>
       </c>
       <c r="K552" s="38" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L552" s="39"/>
       <c r="M552" s="39"/>
@@ -35772,7 +35794,7 @@
         <v>85</v>
       </c>
       <c r="K553" s="38" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L553" s="39"/>
       <c r="M553" s="39"/>
@@ -35828,7 +35850,7 @@
         <v>35</v>
       </c>
       <c r="K554" s="38" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L554" s="39"/>
       <c r="M554" s="39"/>
@@ -35884,7 +35906,7 @@
         <v>35</v>
       </c>
       <c r="K555" s="38" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L555" s="39"/>
       <c r="M555" s="39"/>
@@ -35996,7 +36018,7 @@
         <v>57</v>
       </c>
       <c r="K557" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L557" s="39"/>
       <c r="M557" s="39"/>
@@ -36052,7 +36074,7 @@
         <v>28</v>
       </c>
       <c r="K558" s="38" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L558" s="39"/>
       <c r="M558" s="39"/>
@@ -36108,7 +36130,7 @@
         <v>28</v>
       </c>
       <c r="K559" s="38" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L559" s="39"/>
       <c r="M559" s="39"/>
@@ -36164,7 +36186,7 @@
         <v>28</v>
       </c>
       <c r="K560" s="38" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L560" s="39"/>
       <c r="M560" s="39"/>
@@ -36220,7 +36242,7 @@
         <v>28</v>
       </c>
       <c r="K561" s="38" t="s">
-        <v>29</v>
+        <v>613</v>
       </c>
       <c r="L561" s="39"/>
       <c r="M561" s="39"/>
@@ -36276,7 +36298,7 @@
         <v>28</v>
       </c>
       <c r="K562" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L562" s="39"/>
       <c r="M562" s="39"/>
@@ -36388,7 +36410,7 @@
         <v>85</v>
       </c>
       <c r="K564" s="38" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L564" s="39"/>
       <c r="M564" s="39"/>
@@ -36444,7 +36466,7 @@
         <v>85</v>
       </c>
       <c r="K565" s="38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L565" s="39"/>
       <c r="M565" s="39"/>
@@ -36500,7 +36522,7 @@
         <v>28</v>
       </c>
       <c r="K566" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L566" s="39"/>
       <c r="M566" s="39"/>
@@ -36556,7 +36578,7 @@
         <v>28</v>
       </c>
       <c r="K567" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L567" s="39"/>
       <c r="M567" s="39"/>
@@ -36612,7 +36634,7 @@
         <v>28</v>
       </c>
       <c r="K568" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L568" s="39"/>
       <c r="M568" s="39"/>
@@ -36724,7 +36746,7 @@
         <v>35</v>
       </c>
       <c r="K570" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L570" s="39"/>
       <c r="M570" s="39"/>
@@ -36780,7 +36802,7 @@
         <v>28</v>
       </c>
       <c r="K571" s="38" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L571" s="39"/>
       <c r="M571" s="39"/>
@@ -36836,7 +36858,7 @@
         <v>28</v>
       </c>
       <c r="K572" s="38" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L572" s="39"/>
       <c r="M572" s="39"/>
@@ -37172,7 +37194,7 @@
         <v>57</v>
       </c>
       <c r="K578" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L578" s="39"/>
       <c r="M578" s="39"/>
@@ -37228,7 +37250,7 @@
         <v>57</v>
       </c>
       <c r="K579" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L579" s="39"/>
       <c r="M579" s="39"/>
@@ -37272,10 +37294,10 @@
         <v>38</v>
       </c>
       <c r="G580" s="41" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H580" s="41" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I580" s="98">
         <v>43909</v>
@@ -37396,7 +37418,7 @@
         <v>28</v>
       </c>
       <c r="K582" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L582" s="39"/>
       <c r="M582" s="39"/>
@@ -37452,7 +37474,7 @@
         <v>28</v>
       </c>
       <c r="K583" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L583" s="39"/>
       <c r="M583" s="39"/>
@@ -37564,7 +37586,7 @@
         <v>57</v>
       </c>
       <c r="K585" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L585" s="39"/>
       <c r="M585" s="39"/>
@@ -37676,7 +37698,7 @@
         <v>28</v>
       </c>
       <c r="K587" s="38" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L587" s="39"/>
       <c r="M587" s="39"/>
@@ -39748,7 +39770,7 @@
         <v>57</v>
       </c>
       <c r="K624" s="38" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L624" s="39"/>
       <c r="M624" s="39"/>
@@ -39792,10 +39814,10 @@
         <v>115</v>
       </c>
       <c r="G625" s="41" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H625" s="41" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I625" s="98">
         <v>43901</v>
@@ -39860,7 +39882,7 @@
         <v>122</v>
       </c>
       <c r="K626" s="38" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L626" s="39"/>
       <c r="M626" s="39" t="s">
@@ -39960,7 +39982,7 @@
         <v>38</v>
       </c>
       <c r="G628" s="41" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H628" s="41" t="s">
         <v>41</v>
@@ -40016,7 +40038,7 @@
         <v>38</v>
       </c>
       <c r="G629" s="41" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H629" s="41" t="s">
         <v>41</v>
@@ -40590,7 +40612,7 @@
         <v>61</v>
       </c>
       <c r="K639" s="38" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L639" s="39"/>
       <c r="M639" s="39"/>
@@ -40646,7 +40668,7 @@
         <v>150</v>
       </c>
       <c r="K640" s="38" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L640" s="39"/>
       <c r="M640" s="39"/>
@@ -41197,7 +41219,7 @@
         <v>136</v>
       </c>
       <c r="H650" s="22" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I650" s="23">
         <v>43898</v>
@@ -41262,7 +41284,7 @@
         <v>46</v>
       </c>
       <c r="K651" s="38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L651" s="39"/>
       <c r="M651" s="39" t="s">
@@ -41365,7 +41387,7 @@
         <v>136</v>
       </c>
       <c r="H653" s="22" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I653" s="98">
         <v>43901</v>
@@ -41486,7 +41508,7 @@
         <v>57</v>
       </c>
       <c r="K655" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L655" s="39"/>
       <c r="M655" s="39"/>
@@ -41542,7 +41564,7 @@
         <v>57</v>
       </c>
       <c r="K656" s="38" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L656" s="39"/>
       <c r="M656" s="39"/>
@@ -41994,7 +42016,7 @@
         <v>57</v>
       </c>
       <c r="K664" s="77" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L664" s="53"/>
       <c r="M664" s="39"/>
@@ -42539,7 +42561,7 @@
         <v>32</v>
       </c>
       <c r="F674" s="42" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G674" s="21" t="s">
         <v>104</v>
@@ -42554,7 +42576,7 @@
         <v>57</v>
       </c>
       <c r="K674" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L674" s="54"/>
       <c r="M674" s="53" t="s">
@@ -42722,7 +42744,7 @@
         <v>57</v>
       </c>
       <c r="K677" s="41" t="s">
-        <v>265</v>
+        <v>611</v>
       </c>
       <c r="L677" s="53"/>
       <c r="M677" s="39"/>
@@ -42834,7 +42856,7 @@
         <v>57</v>
       </c>
       <c r="K679" s="49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L679" s="53"/>
       <c r="M679" s="39"/>
@@ -43168,7 +43190,7 @@
         <v>57</v>
       </c>
       <c r="K685" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L685" s="53"/>
       <c r="M685" s="39"/>
@@ -43280,7 +43302,7 @@
         <v>57</v>
       </c>
       <c r="K687" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L687" s="63"/>
       <c r="M687" s="64"/>
@@ -43392,7 +43414,7 @@
         <v>57</v>
       </c>
       <c r="K689" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L689" s="55"/>
       <c r="M689" s="56"/>
@@ -43448,7 +43470,7 @@
         <v>57</v>
       </c>
       <c r="K690" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L690" s="39" t="s">
         <v>30</v>
@@ -43504,7 +43526,7 @@
         <v>57</v>
       </c>
       <c r="K691" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L691" s="55"/>
       <c r="M691" s="56"/>
@@ -43560,7 +43582,7 @@
         <v>149</v>
       </c>
       <c r="K692" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L692" s="55"/>
       <c r="M692" s="56"/>
@@ -43616,7 +43638,7 @@
         <v>57</v>
       </c>
       <c r="K693" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L693" s="55"/>
       <c r="M693" s="56"/>
@@ -43672,7 +43694,7 @@
         <v>57</v>
       </c>
       <c r="K694" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L694" s="63"/>
       <c r="M694" s="64"/>
@@ -43728,7 +43750,7 @@
         <v>57</v>
       </c>
       <c r="K695" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L695" s="55"/>
       <c r="M695" s="56"/>
@@ -43784,7 +43806,7 @@
         <v>57</v>
       </c>
       <c r="K696" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L696" s="63"/>
       <c r="M696" s="64"/>
@@ -43896,7 +43918,7 @@
         <v>57</v>
       </c>
       <c r="K698" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L698" s="63"/>
       <c r="M698" s="64"/>
@@ -43952,7 +43974,7 @@
         <v>57</v>
       </c>
       <c r="K699" s="38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L699" s="55"/>
       <c r="M699" s="56"/>
@@ -44008,7 +44030,7 @@
         <v>57</v>
       </c>
       <c r="K700" s="77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L700" s="55"/>
       <c r="M700" s="56"/>
@@ -44120,7 +44142,7 @@
         <v>149</v>
       </c>
       <c r="K702" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L702" s="55"/>
       <c r="M702" s="56"/>
@@ -44176,7 +44198,7 @@
         <v>57</v>
       </c>
       <c r="K703" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L703" s="55"/>
       <c r="M703" s="56"/>
@@ -44232,7 +44254,7 @@
         <v>57</v>
       </c>
       <c r="K704" s="52" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L704" s="55"/>
       <c r="M704" s="56"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -3788,7 +3788,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/10 24時現在</t>
+    <t>6/11 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5005,8 +5005,8 @@
   </sheetPr>
   <dimension ref="A1:AC711"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H688" sqref="H688"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\president01\userredirect$\m009118\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640" tabRatio="483"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="483"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$AB$707</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3788,14 +3793,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/11 24時現在</t>
+    <t>6/12 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4991,7 +4996,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5005,8 +5010,8 @@
   </sheetPr>
   <dimension ref="A1:AC711"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -3788,7 +3788,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/14 24時現在</t>
+    <t>6/15 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5005,8 +5005,8 @@
   </sheetPr>
   <dimension ref="A1:AC711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="617">
   <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
@@ -3733,10 +3733,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>感染経路確認済</t>
     <rPh sb="0" eb="2">
       <t>カンセン</t>
@@ -3788,7 +3784,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/15 24時現在</t>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/18 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4668,9 +4676,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -4680,28 +4685,7 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4718,6 +4702,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4991,7 +4999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5005,8 +5013,8 @@
   </sheetPr>
   <dimension ref="A1:AC711"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5060,14 +5068,14 @@
     </row>
     <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
@@ -5119,82 +5127,82 @@
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="108" t="s">
+      <c r="G4" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="L4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="M4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="100" t="s">
+      <c r="N4" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="100" t="s">
+      <c r="O4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="100" t="s">
+      <c r="Q4" s="105" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="100" t="s">
+      <c r="T4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="100" t="s">
+      <c r="U4" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="96"/>
-      <c r="W4" s="100" t="s">
+      <c r="V4" s="99"/>
+      <c r="W4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="100" t="s">
+      <c r="X4" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="102" t="s">
+      <c r="Y4" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="104" t="s">
+      <c r="Z4" s="111" t="s">
         <v>21</v>
       </c>
       <c r="AA4" s="13"/>
@@ -5202,31 +5210,31 @@
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="105"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="112"/>
       <c r="AA5" s="16" t="s">
         <v>22</v>
       </c>
@@ -5313,7 +5321,7 @@
       <c r="Z7" s="28"/>
       <c r="AA7" s="29"/>
       <c r="AB7" s="30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5365,7 +5373,7 @@
       <c r="Z8" s="28"/>
       <c r="AA8" s="29"/>
       <c r="AB8" s="30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5391,7 +5399,7 @@
       <c r="H9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="97">
+      <c r="I9" s="96">
         <v>43954</v>
       </c>
       <c r="J9" s="20" t="s">
@@ -5443,7 +5451,7 @@
       <c r="H10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="97">
+      <c r="I10" s="96">
         <v>43956</v>
       </c>
       <c r="J10" s="20" t="s">
@@ -5495,7 +5503,7 @@
       <c r="H11" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="96">
         <v>43962</v>
       </c>
       <c r="J11" s="20" t="s">
@@ -5807,7 +5815,7 @@
       <c r="H17" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="I17" s="97">
+      <c r="I17" s="96">
         <v>43960</v>
       </c>
       <c r="J17" s="20" t="s">
@@ -6119,7 +6127,7 @@
       <c r="H23" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="97">
+      <c r="I23" s="96">
         <v>43955</v>
       </c>
       <c r="J23" s="20" t="s">
@@ -6171,7 +6179,7 @@
       <c r="H24" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="97">
+      <c r="I24" s="96">
         <v>43948</v>
       </c>
       <c r="J24" s="20" t="s">
@@ -6223,7 +6231,7 @@
       <c r="H25" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="97">
+      <c r="I25" s="96">
         <v>43955</v>
       </c>
       <c r="J25" s="20" t="s">
@@ -7570,14 +7578,16 @@
         <v>122</v>
       </c>
       <c r="K49" s="95" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
       <c r="N49" s="20"/>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
+      <c r="Q49" s="20" t="s">
+        <v>615</v>
+      </c>
       <c r="R49" s="20"/>
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
@@ -7585,9 +7595,7 @@
       <c r="V49" s="26"/>
       <c r="W49" s="26"/>
       <c r="X49" s="26"/>
-      <c r="Y49" s="27" t="s">
-        <v>607</v>
-      </c>
+      <c r="Y49" s="27"/>
       <c r="Z49" s="28"/>
       <c r="AA49" s="29"/>
       <c r="AB49" s="30"/>
@@ -8034,7 +8042,7 @@
       <c r="W57" s="26"/>
       <c r="X57" s="26"/>
       <c r="Y57" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Z57" s="28"/>
       <c r="AA57" s="29"/>
@@ -9411,7 +9419,7 @@
       <c r="H82" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I82" s="97">
+      <c r="I82" s="96">
         <v>43937</v>
       </c>
       <c r="J82" s="20" t="s">
@@ -9467,7 +9475,7 @@
       <c r="H83" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="I83" s="97">
+      <c r="I83" s="96">
         <v>43942</v>
       </c>
       <c r="J83" s="20" t="s">
@@ -9523,7 +9531,7 @@
       <c r="H84" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I84" s="97">
+      <c r="I84" s="96">
         <v>43946</v>
       </c>
       <c r="J84" s="20" t="s">
@@ -9579,7 +9587,7 @@
       <c r="H85" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="I85" s="97">
+      <c r="I85" s="96">
         <v>43942</v>
       </c>
       <c r="J85" s="20" t="s">
@@ -10083,7 +10091,7 @@
       <c r="H94" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I94" s="97">
+      <c r="I94" s="96">
         <v>43944</v>
       </c>
       <c r="J94" s="20" t="s">
@@ -10139,7 +10147,7 @@
       <c r="H95" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I95" s="97">
+      <c r="I95" s="96">
         <v>43934</v>
       </c>
       <c r="J95" s="20" t="s">
@@ -10195,7 +10203,7 @@
       <c r="H96" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I96" s="97">
+      <c r="I96" s="96">
         <v>43934</v>
       </c>
       <c r="J96" s="20" t="s">
@@ -14010,7 +14018,7 @@
         <v>287</v>
       </c>
       <c r="K164" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L164" s="20"/>
       <c r="M164" s="20"/>
@@ -15858,7 +15866,7 @@
         <v>28</v>
       </c>
       <c r="K197" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L197" s="20"/>
       <c r="M197" s="20"/>
@@ -15970,7 +15978,7 @@
         <v>28</v>
       </c>
       <c r="K199" s="24" t="s">
-        <v>29</v>
+        <v>569</v>
       </c>
       <c r="L199" s="20"/>
       <c r="M199" s="20"/>
@@ -15987,10 +15995,10 @@
       <c r="X199" s="26"/>
       <c r="Y199" s="27"/>
       <c r="Z199" s="28"/>
-      <c r="AA199" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB199" s="30"/>
+      <c r="AA199" s="29"/>
+      <c r="AB199" s="30" t="s">
+        <v>613</v>
+      </c>
       <c r="AC199" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -18707,7 +18715,7 @@
       <c r="H248" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I248" s="98">
+      <c r="I248" s="97">
         <v>43928</v>
       </c>
       <c r="J248" s="20" t="s">
@@ -19771,7 +19779,7 @@
       <c r="H267" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I267" s="98">
+      <c r="I267" s="97">
         <v>43930</v>
       </c>
       <c r="J267" s="39" t="s">
@@ -19827,7 +19835,7 @@
       <c r="H268" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I268" s="98">
+      <c r="I268" s="97">
         <v>43929</v>
       </c>
       <c r="J268" s="20" t="s">
@@ -19883,7 +19891,7 @@
       <c r="H269" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I269" s="98">
+      <c r="I269" s="97">
         <v>43913</v>
       </c>
       <c r="J269" s="39" t="s">
@@ -19939,7 +19947,7 @@
       <c r="H270" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I270" s="98">
+      <c r="I270" s="97">
         <v>43927</v>
       </c>
       <c r="J270" s="39" t="s">
@@ -19995,7 +20003,7 @@
       <c r="H271" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I271" s="98">
+      <c r="I271" s="97">
         <v>43931</v>
       </c>
       <c r="J271" s="39" t="s">
@@ -20051,7 +20059,7 @@
       <c r="H272" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I272" s="98">
+      <c r="I272" s="97">
         <v>43933</v>
       </c>
       <c r="J272" s="39" t="s">
@@ -20107,7 +20115,7 @@
       <c r="H273" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I273" s="98">
+      <c r="I273" s="97">
         <v>43936</v>
       </c>
       <c r="J273" s="39" t="s">
@@ -20163,7 +20171,7 @@
       <c r="H274" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I274" s="98">
+      <c r="I274" s="97">
         <v>43927</v>
       </c>
       <c r="J274" s="39" t="s">
@@ -20219,7 +20227,7 @@
       <c r="H275" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I275" s="98">
+      <c r="I275" s="97">
         <v>43930</v>
       </c>
       <c r="J275" s="20" t="s">
@@ -20275,7 +20283,7 @@
       <c r="H276" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="I276" s="98">
+      <c r="I276" s="97">
         <v>43928</v>
       </c>
       <c r="J276" s="39" t="s">
@@ -20331,7 +20339,7 @@
       <c r="H277" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I277" s="98">
+      <c r="I277" s="97">
         <v>43928</v>
       </c>
       <c r="J277" s="39" t="s">
@@ -20387,7 +20395,7 @@
       <c r="H278" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I278" s="98">
+      <c r="I278" s="97">
         <v>43929</v>
       </c>
       <c r="J278" s="39" t="s">
@@ -20443,7 +20451,7 @@
       <c r="H279" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I279" s="98">
+      <c r="I279" s="97">
         <v>43932</v>
       </c>
       <c r="J279" s="39" t="s">
@@ -20499,7 +20507,7 @@
       <c r="H280" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I280" s="98">
+      <c r="I280" s="97">
         <v>43925</v>
       </c>
       <c r="J280" s="39" t="s">
@@ -20555,7 +20563,7 @@
       <c r="H281" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I281" s="98">
+      <c r="I281" s="97">
         <v>43932</v>
       </c>
       <c r="J281" s="39" t="s">
@@ -20611,7 +20619,7 @@
       <c r="H282" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I282" s="98">
+      <c r="I282" s="97">
         <v>43922</v>
       </c>
       <c r="J282" s="39" t="s">
@@ -21619,7 +21627,7 @@
       <c r="H300" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="I300" s="98">
+      <c r="I300" s="97">
         <v>43927</v>
       </c>
       <c r="J300" s="39" t="s">
@@ -21675,7 +21683,7 @@
       <c r="H301" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I301" s="98">
+      <c r="I301" s="97">
         <v>43919</v>
       </c>
       <c r="J301" s="39" t="s">
@@ -21731,7 +21739,7 @@
       <c r="H302" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="I302" s="98">
+      <c r="I302" s="97">
         <v>43922</v>
       </c>
       <c r="J302" s="39" t="s">
@@ -22074,7 +22082,7 @@
         <v>173</v>
       </c>
       <c r="K308" s="24" t="s">
-        <v>29</v>
+        <v>569</v>
       </c>
       <c r="L308" s="20"/>
       <c r="M308" s="20"/>
@@ -22091,10 +22099,10 @@
       <c r="X308" s="26"/>
       <c r="Y308" s="27"/>
       <c r="Z308" s="28"/>
-      <c r="AA308" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB308" s="30"/>
+      <c r="AA308" s="29"/>
+      <c r="AB308" s="30" t="s">
+        <v>614</v>
+      </c>
       <c r="AC308" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -22123,7 +22131,7 @@
       <c r="H309" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="I309" s="98">
+      <c r="I309" s="97">
         <v>43923</v>
       </c>
       <c r="J309" s="39" t="s">
@@ -22179,7 +22187,7 @@
       <c r="H310" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I310" s="98">
+      <c r="I310" s="97">
         <v>43928</v>
       </c>
       <c r="J310" s="39" t="s">
@@ -22235,7 +22243,7 @@
       <c r="H311" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="I311" s="98">
+      <c r="I311" s="97">
         <v>43915</v>
       </c>
       <c r="J311" s="39" t="s">
@@ -22291,7 +22299,7 @@
       <c r="H312" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I312" s="98">
+      <c r="I312" s="97">
         <v>43930</v>
       </c>
       <c r="J312" s="39" t="s">
@@ -22347,7 +22355,7 @@
       <c r="H313" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I313" s="98">
+      <c r="I313" s="97">
         <v>43930</v>
       </c>
       <c r="J313" s="39" t="s">
@@ -22403,7 +22411,7 @@
       <c r="H314" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I314" s="98">
+      <c r="I314" s="97">
         <v>43933</v>
       </c>
       <c r="J314" s="39" t="s">
@@ -22459,7 +22467,7 @@
       <c r="H315" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I315" s="98" t="s">
+      <c r="I315" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J315" s="39" t="s">
@@ -22515,7 +22523,7 @@
       <c r="H316" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I316" s="98">
+      <c r="I316" s="97">
         <v>43928</v>
       </c>
       <c r="J316" s="39" t="s">
@@ -22571,7 +22579,7 @@
       <c r="H317" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I317" s="98">
+      <c r="I317" s="97">
         <v>43932</v>
       </c>
       <c r="J317" s="39" t="s">
@@ -22627,7 +22635,7 @@
       <c r="H318" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I318" s="98">
+      <c r="I318" s="97">
         <v>43924</v>
       </c>
       <c r="J318" s="39" t="s">
@@ -22683,7 +22691,7 @@
       <c r="H319" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I319" s="98">
+      <c r="I319" s="97">
         <v>43933</v>
       </c>
       <c r="J319" s="39" t="s">
@@ -22739,7 +22747,7 @@
       <c r="H320" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="I320" s="98">
+      <c r="I320" s="97">
         <v>43932</v>
       </c>
       <c r="J320" s="39" t="s">
@@ -22795,7 +22803,7 @@
       <c r="H321" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="I321" s="98">
+      <c r="I321" s="97">
         <v>43932</v>
       </c>
       <c r="J321" s="39" t="s">
@@ -22963,7 +22971,7 @@
       <c r="H324" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="I324" s="99">
+      <c r="I324" s="98">
         <v>43932</v>
       </c>
       <c r="J324" s="39" t="s">
@@ -23019,7 +23027,7 @@
       <c r="H325" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="I325" s="99">
+      <c r="I325" s="98">
         <v>43930</v>
       </c>
       <c r="J325" s="39" t="s">
@@ -23075,7 +23083,7 @@
       <c r="H326" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I326" s="99">
+      <c r="I326" s="98">
         <v>43923</v>
       </c>
       <c r="J326" s="39" t="s">
@@ -23131,7 +23139,7 @@
       <c r="H327" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I327" s="98" t="s">
+      <c r="I327" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J327" s="39" t="s">
@@ -23187,7 +23195,7 @@
       <c r="H328" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I328" s="98" t="s">
+      <c r="I328" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J328" s="39" t="s">
@@ -23243,7 +23251,7 @@
       <c r="H329" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I329" s="98" t="s">
+      <c r="I329" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J329" s="39" t="s">
@@ -23299,7 +23307,7 @@
       <c r="H330" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I330" s="98" t="s">
+      <c r="I330" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J330" s="39" t="s">
@@ -23411,7 +23419,7 @@
       <c r="H332" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I332" s="98">
+      <c r="I332" s="97">
         <v>43931</v>
       </c>
       <c r="J332" s="39" t="s">
@@ -23467,7 +23475,7 @@
       <c r="H333" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I333" s="98">
+      <c r="I333" s="97">
         <v>43913</v>
       </c>
       <c r="J333" s="39" t="s">
@@ -23523,7 +23531,7 @@
       <c r="H334" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I334" s="98">
+      <c r="I334" s="97">
         <v>43930</v>
       </c>
       <c r="J334" s="39" t="s">
@@ -23579,7 +23587,7 @@
       <c r="H335" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I335" s="98">
+      <c r="I335" s="97">
         <v>43930</v>
       </c>
       <c r="J335" s="39" t="s">
@@ -23635,7 +23643,7 @@
       <c r="H336" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I336" s="98">
+      <c r="I336" s="97">
         <v>43922</v>
       </c>
       <c r="J336" s="39" t="s">
@@ -23691,7 +23699,7 @@
       <c r="H337" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I337" s="98">
+      <c r="I337" s="97">
         <v>43918</v>
       </c>
       <c r="J337" s="39" t="s">
@@ -23747,7 +23755,7 @@
       <c r="H338" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="I338" s="98">
+      <c r="I338" s="97">
         <v>43923</v>
       </c>
       <c r="J338" s="39" t="s">
@@ -23803,7 +23811,7 @@
       <c r="H339" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="I339" s="98">
+      <c r="I339" s="97">
         <v>43927</v>
       </c>
       <c r="J339" s="39" t="s">
@@ -23859,7 +23867,7 @@
       <c r="H340" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I340" s="98">
+      <c r="I340" s="97">
         <v>43929</v>
       </c>
       <c r="J340" s="39" t="s">
@@ -23915,7 +23923,7 @@
       <c r="H341" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I341" s="99">
+      <c r="I341" s="98">
         <v>43927</v>
       </c>
       <c r="J341" s="39" t="s">
@@ -23971,7 +23979,7 @@
       <c r="H342" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I342" s="99">
+      <c r="I342" s="98">
         <v>43927</v>
       </c>
       <c r="J342" s="39" t="s">
@@ -24027,7 +24035,7 @@
       <c r="H343" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I343" s="99">
+      <c r="I343" s="98">
         <v>43920</v>
       </c>
       <c r="J343" s="39" t="s">
@@ -24083,7 +24091,7 @@
       <c r="H344" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I344" s="99">
+      <c r="I344" s="98">
         <v>43925</v>
       </c>
       <c r="J344" s="39" t="s">
@@ -24139,7 +24147,7 @@
       <c r="H345" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I345" s="99">
+      <c r="I345" s="98">
         <v>43927</v>
       </c>
       <c r="J345" s="39" t="s">
@@ -24195,7 +24203,7 @@
       <c r="H346" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I346" s="99">
+      <c r="I346" s="98">
         <v>43927</v>
       </c>
       <c r="J346" s="39" t="s">
@@ -24251,7 +24259,7 @@
       <c r="H347" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I347" s="98">
+      <c r="I347" s="97">
         <v>43935</v>
       </c>
       <c r="J347" s="39" t="s">
@@ -24307,7 +24315,7 @@
       <c r="H348" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I348" s="98">
+      <c r="I348" s="97">
         <v>43925</v>
       </c>
       <c r="J348" s="39" t="s">
@@ -24363,7 +24371,7 @@
       <c r="H349" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="I349" s="98">
+      <c r="I349" s="97">
         <v>43928</v>
       </c>
       <c r="J349" s="39" t="s">
@@ -24419,7 +24427,7 @@
       <c r="H350" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I350" s="98">
+      <c r="I350" s="97">
         <v>43924</v>
       </c>
       <c r="J350" s="39" t="s">
@@ -24475,7 +24483,7 @@
       <c r="H351" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I351" s="98">
+      <c r="I351" s="97">
         <v>43923</v>
       </c>
       <c r="J351" s="39" t="s">
@@ -24531,7 +24539,7 @@
       <c r="H352" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I352" s="98">
+      <c r="I352" s="97">
         <v>43924</v>
       </c>
       <c r="J352" s="39" t="s">
@@ -24587,7 +24595,7 @@
       <c r="H353" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="I353" s="98">
+      <c r="I353" s="97">
         <v>43929</v>
       </c>
       <c r="J353" s="39" t="s">
@@ -24643,7 +24651,7 @@
       <c r="H354" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I354" s="98">
+      <c r="I354" s="97">
         <v>43922</v>
       </c>
       <c r="J354" s="39" t="s">
@@ -24699,7 +24707,7 @@
       <c r="H355" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I355" s="98">
+      <c r="I355" s="97">
         <v>43917</v>
       </c>
       <c r="J355" s="39" t="s">
@@ -24755,7 +24763,7 @@
       <c r="H356" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I356" s="98">
+      <c r="I356" s="97">
         <v>43925</v>
       </c>
       <c r="J356" s="39" t="s">
@@ -24811,7 +24819,7 @@
       <c r="H357" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I357" s="98">
+      <c r="I357" s="97">
         <v>43925</v>
       </c>
       <c r="J357" s="39" t="s">
@@ -24867,7 +24875,7 @@
       <c r="H358" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I358" s="98">
+      <c r="I358" s="97">
         <v>43926</v>
       </c>
       <c r="J358" s="39" t="s">
@@ -24923,7 +24931,7 @@
       <c r="H359" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I359" s="98">
+      <c r="I359" s="97">
         <v>43923</v>
       </c>
       <c r="J359" s="39" t="s">
@@ -24979,7 +24987,7 @@
       <c r="H360" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I360" s="98">
+      <c r="I360" s="97">
         <v>43924</v>
       </c>
       <c r="J360" s="39" t="s">
@@ -25035,7 +25043,7 @@
       <c r="H361" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I361" s="98">
+      <c r="I361" s="97">
         <v>43927</v>
       </c>
       <c r="J361" s="39" t="s">
@@ -25091,7 +25099,7 @@
       <c r="H362" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I362" s="98">
+      <c r="I362" s="97">
         <v>43927</v>
       </c>
       <c r="J362" s="39" t="s">
@@ -25147,7 +25155,7 @@
       <c r="H363" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="I363" s="98">
+      <c r="I363" s="97">
         <v>43929</v>
       </c>
       <c r="J363" s="39" t="s">
@@ -25203,7 +25211,7 @@
       <c r="H364" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I364" s="98">
+      <c r="I364" s="97">
         <v>43921</v>
       </c>
       <c r="J364" s="39" t="s">
@@ -25259,7 +25267,7 @@
       <c r="H365" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I365" s="98">
+      <c r="I365" s="97">
         <v>43923</v>
       </c>
       <c r="J365" s="39" t="s">
@@ -25315,7 +25323,7 @@
       <c r="H366" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I366" s="98">
+      <c r="I366" s="97">
         <v>43921</v>
       </c>
       <c r="J366" s="39" t="s">
@@ -25371,7 +25379,7 @@
       <c r="H367" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I367" s="98">
+      <c r="I367" s="97">
         <v>43930</v>
       </c>
       <c r="J367" s="39" t="s">
@@ -25427,7 +25435,7 @@
       <c r="H368" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I368" s="98">
+      <c r="I368" s="97">
         <v>43920</v>
       </c>
       <c r="J368" s="39" t="s">
@@ -25483,7 +25491,7 @@
       <c r="H369" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I369" s="98">
+      <c r="I369" s="97">
         <v>43921</v>
       </c>
       <c r="J369" s="39" t="s">
@@ -25539,7 +25547,7 @@
       <c r="H370" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I370" s="99">
+      <c r="I370" s="98">
         <v>43926</v>
       </c>
       <c r="J370" s="39" t="s">
@@ -25595,7 +25603,7 @@
       <c r="H371" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I371" s="99">
+      <c r="I371" s="98">
         <v>43922</v>
       </c>
       <c r="J371" s="39" t="s">
@@ -25651,7 +25659,7 @@
       <c r="H372" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I372" s="98">
+      <c r="I372" s="97">
         <v>43921</v>
       </c>
       <c r="J372" s="39" t="s">
@@ -25707,7 +25715,7 @@
       <c r="H373" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I373" s="98">
+      <c r="I373" s="97">
         <v>43928</v>
       </c>
       <c r="J373" s="39" t="s">
@@ -25763,7 +25771,7 @@
       <c r="H374" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="I374" s="99">
+      <c r="I374" s="98">
         <v>43925</v>
       </c>
       <c r="J374" s="39" t="s">
@@ -25819,7 +25827,7 @@
       <c r="H375" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I375" s="98">
+      <c r="I375" s="97">
         <v>43922</v>
       </c>
       <c r="J375" s="39" t="s">
@@ -25875,7 +25883,7 @@
       <c r="H376" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I376" s="98">
+      <c r="I376" s="97">
         <v>43929</v>
       </c>
       <c r="J376" s="39" t="s">
@@ -25931,7 +25939,7 @@
       <c r="H377" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I377" s="98" t="s">
+      <c r="I377" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J377" s="39" t="s">
@@ -25987,7 +25995,7 @@
       <c r="H378" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I378" s="98" t="s">
+      <c r="I378" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J378" s="39" t="s">
@@ -26043,7 +26051,7 @@
       <c r="H379" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I379" s="98" t="s">
+      <c r="I379" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J379" s="39" t="s">
@@ -26099,7 +26107,7 @@
       <c r="H380" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I380" s="98" t="s">
+      <c r="I380" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J380" s="39" t="s">
@@ -26155,7 +26163,7 @@
       <c r="H381" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I381" s="98" t="s">
+      <c r="I381" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J381" s="39" t="s">
@@ -26211,7 +26219,7 @@
       <c r="H382" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I382" s="98" t="s">
+      <c r="I382" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J382" s="39" t="s">
@@ -26267,7 +26275,7 @@
       <c r="H383" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I383" s="98" t="s">
+      <c r="I383" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J383" s="39" t="s">
@@ -26323,7 +26331,7 @@
       <c r="H384" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I384" s="98" t="s">
+      <c r="I384" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J384" s="39" t="s">
@@ -26379,7 +26387,7 @@
       <c r="H385" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I385" s="99">
+      <c r="I385" s="98">
         <v>43931</v>
       </c>
       <c r="J385" s="39" t="s">
@@ -26435,7 +26443,7 @@
       <c r="H386" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I386" s="99">
+      <c r="I386" s="98">
         <v>43931</v>
       </c>
       <c r="J386" s="39" t="s">
@@ -26491,7 +26499,7 @@
       <c r="H387" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I387" s="98" t="s">
+      <c r="I387" s="97" t="s">
         <v>602</v>
       </c>
       <c r="J387" s="39" t="s">
@@ -26547,7 +26555,7 @@
       <c r="H388" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I388" s="99">
+      <c r="I388" s="98">
         <v>43925</v>
       </c>
       <c r="J388" s="39" t="s">
@@ -26603,7 +26611,7 @@
       <c r="H389" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I389" s="99">
+      <c r="I389" s="98">
         <v>43915</v>
       </c>
       <c r="J389" s="39" t="s">
@@ -26659,7 +26667,7 @@
       <c r="H390" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I390" s="98">
+      <c r="I390" s="97">
         <v>43928</v>
       </c>
       <c r="J390" s="39" t="s">
@@ -26715,7 +26723,7 @@
       <c r="H391" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="I391" s="98">
+      <c r="I391" s="97">
         <v>43921</v>
       </c>
       <c r="J391" s="39" t="s">
@@ -26771,7 +26779,7 @@
       <c r="H392" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I392" s="98">
+      <c r="I392" s="97">
         <v>43926</v>
       </c>
       <c r="J392" s="39" t="s">
@@ -26827,7 +26835,7 @@
       <c r="H393" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I393" s="98">
+      <c r="I393" s="97">
         <v>43923</v>
       </c>
       <c r="J393" s="39" t="s">
@@ -26883,7 +26891,7 @@
       <c r="H394" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I394" s="98">
+      <c r="I394" s="97">
         <v>43921</v>
       </c>
       <c r="J394" s="39" t="s">
@@ -26939,7 +26947,7 @@
       <c r="H395" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I395" s="98">
+      <c r="I395" s="97">
         <v>43922</v>
       </c>
       <c r="J395" s="39" t="s">
@@ -26995,7 +27003,7 @@
       <c r="H396" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I396" s="98" t="s">
+      <c r="I396" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J396" s="39" t="s">
@@ -27051,7 +27059,7 @@
       <c r="H397" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="I397" s="98">
+      <c r="I397" s="97">
         <v>43924</v>
       </c>
       <c r="J397" s="39" t="s">
@@ -27107,7 +27115,7 @@
       <c r="H398" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I398" s="98" t="s">
+      <c r="I398" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J398" s="39" t="s">
@@ -27163,7 +27171,7 @@
       <c r="H399" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I399" s="98">
+      <c r="I399" s="97">
         <v>43924</v>
       </c>
       <c r="J399" s="39" t="s">
@@ -27219,7 +27227,7 @@
       <c r="H400" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="I400" s="98">
+      <c r="I400" s="97">
         <v>43927</v>
       </c>
       <c r="J400" s="39" t="s">
@@ -27275,7 +27283,7 @@
       <c r="H401" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="I401" s="98">
+      <c r="I401" s="97">
         <v>43924</v>
       </c>
       <c r="J401" s="39" t="s">
@@ -27331,7 +27339,7 @@
       <c r="H402" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I402" s="98">
+      <c r="I402" s="97">
         <v>43925</v>
       </c>
       <c r="J402" s="39" t="s">
@@ -27387,7 +27395,7 @@
       <c r="H403" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I403" s="98">
+      <c r="I403" s="97">
         <v>43922</v>
       </c>
       <c r="J403" s="39" t="s">
@@ -27443,7 +27451,7 @@
       <c r="H404" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="I404" s="98">
+      <c r="I404" s="97">
         <v>43928</v>
       </c>
       <c r="J404" s="39" t="s">
@@ -27499,7 +27507,7 @@
       <c r="H405" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I405" s="98">
+      <c r="I405" s="97">
         <v>43919</v>
       </c>
       <c r="J405" s="39" t="s">
@@ -27555,7 +27563,7 @@
       <c r="H406" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I406" s="99">
+      <c r="I406" s="98">
         <v>43920</v>
       </c>
       <c r="J406" s="39" t="s">
@@ -27611,7 +27619,7 @@
       <c r="H407" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I407" s="99">
+      <c r="I407" s="98">
         <v>43928</v>
       </c>
       <c r="J407" s="39" t="s">
@@ -27667,7 +27675,7 @@
       <c r="H408" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I408" s="99">
+      <c r="I408" s="98">
         <v>43921</v>
       </c>
       <c r="J408" s="39" t="s">
@@ -27723,7 +27731,7 @@
       <c r="H409" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I409" s="99">
+      <c r="I409" s="98">
         <v>43927</v>
       </c>
       <c r="J409" s="39" t="s">
@@ -27779,7 +27787,7 @@
       <c r="H410" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="I410" s="99">
+      <c r="I410" s="98">
         <v>43928</v>
       </c>
       <c r="J410" s="39" t="s">
@@ -27835,7 +27843,7 @@
       <c r="H411" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I411" s="99">
+      <c r="I411" s="98">
         <v>43920</v>
       </c>
       <c r="J411" s="39" t="s">
@@ -27891,7 +27899,7 @@
       <c r="H412" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I412" s="99">
+      <c r="I412" s="98">
         <v>43924</v>
       </c>
       <c r="J412" s="39" t="s">
@@ -27947,7 +27955,7 @@
       <c r="H413" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="I413" s="99">
+      <c r="I413" s="98">
         <v>43926</v>
       </c>
       <c r="J413" s="39" t="s">
@@ -28003,7 +28011,7 @@
       <c r="H414" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I414" s="99">
+      <c r="I414" s="98">
         <v>43924</v>
       </c>
       <c r="J414" s="39" t="s">
@@ -28059,7 +28067,7 @@
       <c r="H415" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I415" s="99">
+      <c r="I415" s="98">
         <v>43918</v>
       </c>
       <c r="J415" s="39" t="s">
@@ -28115,7 +28123,7 @@
       <c r="H416" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I416" s="99">
+      <c r="I416" s="98">
         <v>43921</v>
       </c>
       <c r="J416" s="39" t="s">
@@ -28171,7 +28179,7 @@
       <c r="H417" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I417" s="99">
+      <c r="I417" s="98">
         <v>43900</v>
       </c>
       <c r="J417" s="39" t="s">
@@ -28227,7 +28235,7 @@
       <c r="H418" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I418" s="99">
+      <c r="I418" s="98">
         <v>43923</v>
       </c>
       <c r="J418" s="39" t="s">
@@ -28283,7 +28291,7 @@
       <c r="H419" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I419" s="98">
+      <c r="I419" s="97">
         <v>43928</v>
       </c>
       <c r="J419" s="39" t="s">
@@ -28339,7 +28347,7 @@
       <c r="H420" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I420" s="98">
+      <c r="I420" s="97">
         <v>43918</v>
       </c>
       <c r="J420" s="39" t="s">
@@ -28395,7 +28403,7 @@
       <c r="H421" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I421" s="98">
+      <c r="I421" s="97">
         <v>43921</v>
       </c>
       <c r="J421" s="39" t="s">
@@ -28451,7 +28459,7 @@
       <c r="H422" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I422" s="98">
+      <c r="I422" s="97">
         <v>43924</v>
       </c>
       <c r="J422" s="39" t="s">
@@ -28507,7 +28515,7 @@
       <c r="H423" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I423" s="98">
+      <c r="I423" s="97">
         <v>43922</v>
       </c>
       <c r="J423" s="39" t="s">
@@ -28563,7 +28571,7 @@
       <c r="H424" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I424" s="98">
+      <c r="I424" s="97">
         <v>43923</v>
       </c>
       <c r="J424" s="39" t="s">
@@ -28619,7 +28627,7 @@
       <c r="H425" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I425" s="98">
+      <c r="I425" s="97">
         <v>43927</v>
       </c>
       <c r="J425" s="39" t="s">
@@ -28675,7 +28683,7 @@
       <c r="H426" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="I426" s="98">
+      <c r="I426" s="97">
         <v>43927</v>
       </c>
       <c r="J426" s="39" t="s">
@@ -28731,7 +28739,7 @@
       <c r="H427" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="I427" s="98">
+      <c r="I427" s="97">
         <v>43924</v>
       </c>
       <c r="J427" s="39" t="s">
@@ -28787,7 +28795,7 @@
       <c r="H428" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I428" s="98">
+      <c r="I428" s="97">
         <v>43924</v>
       </c>
       <c r="J428" s="39" t="s">
@@ -28843,7 +28851,7 @@
       <c r="H429" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I429" s="98">
+      <c r="I429" s="97">
         <v>43927</v>
       </c>
       <c r="J429" s="39" t="s">
@@ -28899,7 +28907,7 @@
       <c r="H430" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="I430" s="98">
+      <c r="I430" s="97">
         <v>43918</v>
       </c>
       <c r="J430" s="39" t="s">
@@ -28955,7 +28963,7 @@
       <c r="H431" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I431" s="98">
+      <c r="I431" s="97">
         <v>43928</v>
       </c>
       <c r="J431" s="39" t="s">
@@ -29011,7 +29019,7 @@
       <c r="H432" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I432" s="98">
+      <c r="I432" s="97">
         <v>43926</v>
       </c>
       <c r="J432" s="39" t="s">
@@ -29067,7 +29075,7 @@
       <c r="H433" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I433" s="98">
+      <c r="I433" s="97">
         <v>43922</v>
       </c>
       <c r="J433" s="39" t="s">
@@ -29123,7 +29131,7 @@
       <c r="H434" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I434" s="98">
+      <c r="I434" s="97">
         <v>43920</v>
       </c>
       <c r="J434" s="39" t="s">
@@ -29179,7 +29187,7 @@
       <c r="H435" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I435" s="98">
+      <c r="I435" s="97">
         <v>43915</v>
       </c>
       <c r="J435" s="39" t="s">
@@ -29235,7 +29243,7 @@
       <c r="H436" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I436" s="98">
+      <c r="I436" s="97">
         <v>43928</v>
       </c>
       <c r="J436" s="39" t="s">
@@ -29291,7 +29299,7 @@
       <c r="H437" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I437" s="98">
+      <c r="I437" s="97">
         <v>43923</v>
       </c>
       <c r="J437" s="39" t="s">
@@ -29347,7 +29355,7 @@
       <c r="H438" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I438" s="98">
+      <c r="I438" s="97">
         <v>43925</v>
       </c>
       <c r="J438" s="39" t="s">
@@ -29403,7 +29411,7 @@
       <c r="H439" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I439" s="98">
+      <c r="I439" s="97">
         <v>43920</v>
       </c>
       <c r="J439" s="39" t="s">
@@ -29459,7 +29467,7 @@
       <c r="H440" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I440" s="99">
+      <c r="I440" s="98">
         <v>43926</v>
       </c>
       <c r="J440" s="39" t="s">
@@ -29515,7 +29523,7 @@
       <c r="H441" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="I441" s="99">
+      <c r="I441" s="98">
         <v>43923</v>
       </c>
       <c r="J441" s="39" t="s">
@@ -29571,7 +29579,7 @@
       <c r="H442" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I442" s="99">
+      <c r="I442" s="98">
         <v>43923</v>
       </c>
       <c r="J442" s="39" t="s">
@@ -29627,7 +29635,7 @@
       <c r="H443" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="I443" s="99">
+      <c r="I443" s="98">
         <v>43927</v>
       </c>
       <c r="J443" s="39" t="s">
@@ -29683,7 +29691,7 @@
       <c r="H444" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I444" s="99">
+      <c r="I444" s="98">
         <v>43920</v>
       </c>
       <c r="J444" s="39" t="s">
@@ -29739,7 +29747,7 @@
       <c r="H445" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="I445" s="99">
+      <c r="I445" s="98">
         <v>43924</v>
       </c>
       <c r="J445" s="39" t="s">
@@ -29795,7 +29803,7 @@
       <c r="H446" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I446" s="99">
+      <c r="I446" s="98">
         <v>43924</v>
       </c>
       <c r="J446" s="39" t="s">
@@ -29851,7 +29859,7 @@
       <c r="H447" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I447" s="99">
+      <c r="I447" s="98">
         <v>43922</v>
       </c>
       <c r="J447" s="39" t="s">
@@ -29907,7 +29915,7 @@
       <c r="H448" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I448" s="99">
+      <c r="I448" s="98">
         <v>43921</v>
       </c>
       <c r="J448" s="39" t="s">
@@ -29963,7 +29971,7 @@
       <c r="H449" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I449" s="99">
+      <c r="I449" s="98">
         <v>43921</v>
       </c>
       <c r="J449" s="39" t="s">
@@ -30019,7 +30027,7 @@
       <c r="H450" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I450" s="99">
+      <c r="I450" s="98">
         <v>43921</v>
       </c>
       <c r="J450" s="39" t="s">
@@ -30075,7 +30083,7 @@
       <c r="H451" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I451" s="99">
+      <c r="I451" s="98">
         <v>43924</v>
       </c>
       <c r="J451" s="39" t="s">
@@ -30131,7 +30139,7 @@
       <c r="H452" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I452" s="99">
+      <c r="I452" s="98">
         <v>43926</v>
       </c>
       <c r="J452" s="39" t="s">
@@ -30187,7 +30195,7 @@
       <c r="H453" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="I453" s="99">
+      <c r="I453" s="98">
         <v>43922</v>
       </c>
       <c r="J453" s="39" t="s">
@@ -30243,7 +30251,7 @@
       <c r="H454" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I454" s="99">
+      <c r="I454" s="98">
         <v>43917</v>
       </c>
       <c r="J454" s="39" t="s">
@@ -30299,7 +30307,7 @@
       <c r="H455" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I455" s="99">
+      <c r="I455" s="98">
         <v>43920</v>
       </c>
       <c r="J455" s="39" t="s">
@@ -30355,7 +30363,7 @@
       <c r="H456" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I456" s="99">
+      <c r="I456" s="98">
         <v>43923</v>
       </c>
       <c r="J456" s="39" t="s">
@@ -30411,7 +30419,7 @@
       <c r="H457" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I457" s="99">
+      <c r="I457" s="98">
         <v>43919</v>
       </c>
       <c r="J457" s="39" t="s">
@@ -30467,7 +30475,7 @@
       <c r="H458" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="I458" s="98">
+      <c r="I458" s="97">
         <v>43927</v>
       </c>
       <c r="J458" s="39" t="s">
@@ -30523,7 +30531,7 @@
       <c r="H459" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I459" s="98">
+      <c r="I459" s="97">
         <v>43921</v>
       </c>
       <c r="J459" s="39" t="s">
@@ -30579,7 +30587,7 @@
       <c r="H460" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I460" s="98">
+      <c r="I460" s="97">
         <v>43915</v>
       </c>
       <c r="J460" s="39" t="s">
@@ -30635,7 +30643,7 @@
       <c r="H461" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I461" s="98">
+      <c r="I461" s="97">
         <v>43925</v>
       </c>
       <c r="J461" s="39" t="s">
@@ -30691,7 +30699,7 @@
       <c r="H462" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I462" s="98">
+      <c r="I462" s="97">
         <v>43925</v>
       </c>
       <c r="J462" s="39" t="s">
@@ -30747,7 +30755,7 @@
       <c r="H463" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I463" s="98">
+      <c r="I463" s="97">
         <v>43925</v>
       </c>
       <c r="J463" s="39" t="s">
@@ -30803,7 +30811,7 @@
       <c r="H464" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I464" s="98">
+      <c r="I464" s="97">
         <v>43918</v>
       </c>
       <c r="J464" s="39" t="s">
@@ -30859,7 +30867,7 @@
       <c r="H465" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I465" s="98">
+      <c r="I465" s="97">
         <v>43921</v>
       </c>
       <c r="J465" s="39" t="s">
@@ -30915,7 +30923,7 @@
       <c r="H466" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I466" s="98">
+      <c r="I466" s="97">
         <v>43925</v>
       </c>
       <c r="J466" s="39" t="s">
@@ -30971,7 +30979,7 @@
       <c r="H467" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I467" s="98">
+      <c r="I467" s="97">
         <v>43925</v>
       </c>
       <c r="J467" s="39" t="s">
@@ -31027,7 +31035,7 @@
       <c r="H468" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I468" s="98">
+      <c r="I468" s="97">
         <v>43923</v>
       </c>
       <c r="J468" s="39" t="s">
@@ -31083,7 +31091,7 @@
       <c r="H469" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I469" s="98">
+      <c r="I469" s="97">
         <v>43917</v>
       </c>
       <c r="J469" s="39" t="s">
@@ -31139,7 +31147,7 @@
       <c r="H470" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I470" s="98">
+      <c r="I470" s="97">
         <v>43927</v>
       </c>
       <c r="J470" s="39" t="s">
@@ -31195,7 +31203,7 @@
       <c r="H471" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="I471" s="98">
+      <c r="I471" s="97">
         <v>43927</v>
       </c>
       <c r="J471" s="39" t="s">
@@ -31251,7 +31259,7 @@
       <c r="H472" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I472" s="98">
+      <c r="I472" s="97">
         <v>43927</v>
       </c>
       <c r="J472" s="39" t="s">
@@ -31307,7 +31315,7 @@
       <c r="H473" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I473" s="98">
+      <c r="I473" s="97">
         <v>43919</v>
       </c>
       <c r="J473" s="39" t="s">
@@ -31363,7 +31371,7 @@
       <c r="H474" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I474" s="98" t="s">
+      <c r="I474" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J474" s="39" t="s">
@@ -31419,7 +31427,7 @@
       <c r="H475" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I475" s="98" t="s">
+      <c r="I475" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J475" s="39" t="s">
@@ -31475,7 +31483,7 @@
       <c r="H476" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="I476" s="98" t="s">
+      <c r="I476" s="97" t="s">
         <v>31</v>
       </c>
       <c r="J476" s="39" t="s">
@@ -31531,7 +31539,7 @@
       <c r="H477" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I477" s="98">
+      <c r="I477" s="97">
         <v>43919</v>
       </c>
       <c r="J477" s="39" t="s">
@@ -31587,7 +31595,7 @@
       <c r="H478" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I478" s="98">
+      <c r="I478" s="97">
         <v>43917</v>
       </c>
       <c r="J478" s="39" t="s">
@@ -31643,7 +31651,7 @@
       <c r="H479" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I479" s="98">
+      <c r="I479" s="97">
         <v>43921</v>
       </c>
       <c r="J479" s="39" t="s">
@@ -31699,7 +31707,7 @@
       <c r="H480" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I480" s="98">
+      <c r="I480" s="97">
         <v>43925</v>
       </c>
       <c r="J480" s="39" t="s">
@@ -31755,7 +31763,7 @@
       <c r="H481" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I481" s="98">
+      <c r="I481" s="97">
         <v>43921</v>
       </c>
       <c r="J481" s="39" t="s">
@@ -31811,7 +31819,7 @@
       <c r="H482" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I482" s="98">
+      <c r="I482" s="97">
         <v>43925</v>
       </c>
       <c r="J482" s="39" t="s">
@@ -31867,7 +31875,7 @@
       <c r="H483" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I483" s="98">
+      <c r="I483" s="97">
         <v>43922</v>
       </c>
       <c r="J483" s="39" t="s">
@@ -31923,7 +31931,7 @@
       <c r="H484" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I484" s="98">
+      <c r="I484" s="97">
         <v>43924</v>
       </c>
       <c r="J484" s="39" t="s">
@@ -31979,7 +31987,7 @@
       <c r="H485" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I485" s="98">
+      <c r="I485" s="97">
         <v>43919</v>
       </c>
       <c r="J485" s="39" t="s">
@@ -32035,7 +32043,7 @@
       <c r="H486" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I486" s="98">
+      <c r="I486" s="97">
         <v>43922</v>
       </c>
       <c r="J486" s="39" t="s">
@@ -32091,7 +32099,7 @@
       <c r="H487" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I487" s="98">
+      <c r="I487" s="97">
         <v>43925</v>
       </c>
       <c r="J487" s="39" t="s">
@@ -32147,7 +32155,7 @@
       <c r="H488" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I488" s="98">
+      <c r="I488" s="97">
         <v>43925</v>
       </c>
       <c r="J488" s="39" t="s">
@@ -32203,7 +32211,7 @@
       <c r="H489" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="I489" s="98">
+      <c r="I489" s="97">
         <v>43920</v>
       </c>
       <c r="J489" s="39" t="s">
@@ -32259,7 +32267,7 @@
       <c r="H490" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I490" s="98">
+      <c r="I490" s="97">
         <v>43919</v>
       </c>
       <c r="J490" s="39" t="s">
@@ -32315,7 +32323,7 @@
       <c r="H491" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I491" s="98">
+      <c r="I491" s="97">
         <v>43921</v>
       </c>
       <c r="J491" s="39" t="s">
@@ -32371,7 +32379,7 @@
       <c r="H492" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I492" s="98">
+      <c r="I492" s="97">
         <v>43920</v>
       </c>
       <c r="J492" s="39" t="s">
@@ -32427,7 +32435,7 @@
       <c r="H493" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="I493" s="98">
+      <c r="I493" s="97">
         <v>43926</v>
       </c>
       <c r="J493" s="39" t="s">
@@ -32483,7 +32491,7 @@
       <c r="H494" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I494" s="98">
+      <c r="I494" s="97">
         <v>43922</v>
       </c>
       <c r="J494" s="39" t="s">
@@ -32539,7 +32547,7 @@
       <c r="H495" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I495" s="98">
+      <c r="I495" s="97">
         <v>43920</v>
       </c>
       <c r="J495" s="39" t="s">
@@ -32595,7 +32603,7 @@
       <c r="H496" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I496" s="98">
+      <c r="I496" s="97">
         <v>43919</v>
       </c>
       <c r="J496" s="39" t="s">
@@ -32651,7 +32659,7 @@
       <c r="H497" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I497" s="98">
+      <c r="I497" s="97">
         <v>43919</v>
       </c>
       <c r="J497" s="39" t="s">
@@ -32707,7 +32715,7 @@
       <c r="H498" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I498" s="98">
+      <c r="I498" s="97">
         <v>43924</v>
       </c>
       <c r="J498" s="39" t="s">
@@ -32763,7 +32771,7 @@
       <c r="H499" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="I499" s="98">
+      <c r="I499" s="97">
         <v>43917</v>
       </c>
       <c r="J499" s="39" t="s">
@@ -32819,7 +32827,7 @@
       <c r="H500" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I500" s="98">
+      <c r="I500" s="97">
         <v>43923</v>
       </c>
       <c r="J500" s="39" t="s">
@@ -32875,7 +32883,7 @@
       <c r="H501" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I501" s="98">
+      <c r="I501" s="97">
         <v>43923</v>
       </c>
       <c r="J501" s="39" t="s">
@@ -32931,7 +32939,7 @@
       <c r="H502" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I502" s="98">
+      <c r="I502" s="97">
         <v>43920</v>
       </c>
       <c r="J502" s="39" t="s">
@@ -32987,7 +32995,7 @@
       <c r="H503" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I503" s="98">
+      <c r="I503" s="97">
         <v>43921</v>
       </c>
       <c r="J503" s="39" t="s">
@@ -33043,7 +33051,7 @@
       <c r="H504" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I504" s="98">
+      <c r="I504" s="97">
         <v>43920</v>
       </c>
       <c r="J504" s="39" t="s">
@@ -33099,7 +33107,7 @@
       <c r="H505" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I505" s="98">
+      <c r="I505" s="97">
         <v>43920</v>
       </c>
       <c r="J505" s="39" t="s">
@@ -33155,7 +33163,7 @@
       <c r="H506" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I506" s="98">
+      <c r="I506" s="97">
         <v>43918</v>
       </c>
       <c r="J506" s="39" t="s">
@@ -33211,7 +33219,7 @@
       <c r="H507" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I507" s="98">
+      <c r="I507" s="97">
         <v>43920</v>
       </c>
       <c r="J507" s="39" t="s">
@@ -33267,7 +33275,7 @@
       <c r="H508" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="I508" s="98">
+      <c r="I508" s="97">
         <v>43918</v>
       </c>
       <c r="J508" s="39" t="s">
@@ -33323,7 +33331,7 @@
       <c r="H509" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="I509" s="98">
+      <c r="I509" s="97">
         <v>43917</v>
       </c>
       <c r="J509" s="39" t="s">
@@ -33379,7 +33387,7 @@
       <c r="H510" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I510" s="98">
+      <c r="I510" s="97">
         <v>43921</v>
       </c>
       <c r="J510" s="39" t="s">
@@ -33435,7 +33443,7 @@
       <c r="H511" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I511" s="98">
+      <c r="I511" s="97">
         <v>43918</v>
       </c>
       <c r="J511" s="39" t="s">
@@ -33491,7 +33499,7 @@
       <c r="H512" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I512" s="98">
+      <c r="I512" s="97">
         <v>43919</v>
       </c>
       <c r="J512" s="39" t="s">
@@ -33547,7 +33555,7 @@
       <c r="H513" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="I513" s="98">
+      <c r="I513" s="97">
         <v>43920</v>
       </c>
       <c r="J513" s="39" t="s">
@@ -33603,7 +33611,7 @@
       <c r="H514" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I514" s="98">
+      <c r="I514" s="97">
         <v>43919</v>
       </c>
       <c r="J514" s="39" t="s">
@@ -33659,7 +33667,7 @@
       <c r="H515" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I515" s="98">
+      <c r="I515" s="97">
         <v>43916</v>
       </c>
       <c r="J515" s="39" t="s">
@@ -33715,7 +33723,7 @@
       <c r="H516" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I516" s="98">
+      <c r="I516" s="97">
         <v>43916</v>
       </c>
       <c r="J516" s="39" t="s">
@@ -33771,7 +33779,7 @@
       <c r="H517" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I517" s="98">
+      <c r="I517" s="97">
         <v>43922</v>
       </c>
       <c r="J517" s="39" t="s">
@@ -33827,14 +33835,14 @@
       <c r="H518" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I518" s="98">
+      <c r="I518" s="97">
         <v>43919</v>
       </c>
       <c r="J518" s="39" t="s">
         <v>85</v>
       </c>
       <c r="K518" s="37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L518" s="39"/>
       <c r="M518" s="39"/>
@@ -33883,7 +33891,7 @@
       <c r="H519" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I519" s="98">
+      <c r="I519" s="97">
         <v>43921</v>
       </c>
       <c r="J519" s="39" t="s">
@@ -33939,7 +33947,7 @@
       <c r="H520" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I520" s="98">
+      <c r="I520" s="97">
         <v>43922</v>
       </c>
       <c r="J520" s="39" t="s">
@@ -33995,7 +34003,7 @@
       <c r="H521" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I521" s="98">
+      <c r="I521" s="97">
         <v>43920</v>
       </c>
       <c r="J521" s="39" t="s">
@@ -34051,7 +34059,7 @@
       <c r="H522" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I522" s="98">
+      <c r="I522" s="97">
         <v>43922</v>
       </c>
       <c r="J522" s="39" t="s">
@@ -34107,7 +34115,7 @@
       <c r="H523" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I523" s="98">
+      <c r="I523" s="97">
         <v>43917</v>
       </c>
       <c r="J523" s="39" t="s">
@@ -34163,7 +34171,7 @@
       <c r="H524" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I524" s="98">
+      <c r="I524" s="97">
         <v>43917</v>
       </c>
       <c r="J524" s="39" t="s">
@@ -34219,7 +34227,7 @@
       <c r="H525" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I525" s="98">
+      <c r="I525" s="97">
         <v>43917</v>
       </c>
       <c r="J525" s="39" t="s">
@@ -34275,7 +34283,7 @@
       <c r="H526" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I526" s="98">
+      <c r="I526" s="97">
         <v>43922</v>
       </c>
       <c r="J526" s="39" t="s">
@@ -34331,7 +34339,7 @@
       <c r="H527" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I527" s="98">
+      <c r="I527" s="97">
         <v>43923</v>
       </c>
       <c r="J527" s="39" t="s">
@@ -34387,7 +34395,7 @@
       <c r="H528" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I528" s="98">
+      <c r="I528" s="97">
         <v>43917</v>
       </c>
       <c r="J528" s="39" t="s">
@@ -34443,7 +34451,7 @@
       <c r="H529" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I529" s="98">
+      <c r="I529" s="97">
         <v>43921</v>
       </c>
       <c r="J529" s="39" t="s">
@@ -34499,7 +34507,7 @@
       <c r="H530" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I530" s="98">
+      <c r="I530" s="97">
         <v>43918</v>
       </c>
       <c r="J530" s="39" t="s">
@@ -34555,7 +34563,7 @@
       <c r="H531" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I531" s="98">
+      <c r="I531" s="97">
         <v>43917</v>
       </c>
       <c r="J531" s="39" t="s">
@@ -34611,7 +34619,7 @@
       <c r="H532" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="I532" s="98">
+      <c r="I532" s="97">
         <v>43921</v>
       </c>
       <c r="J532" s="39" t="s">
@@ -34667,7 +34675,7 @@
       <c r="H533" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I533" s="98">
+      <c r="I533" s="97">
         <v>43916</v>
       </c>
       <c r="J533" s="39" t="s">
@@ -34723,7 +34731,7 @@
       <c r="H534" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I534" s="98">
+      <c r="I534" s="97">
         <v>43916</v>
       </c>
       <c r="J534" s="39" t="s">
@@ -34779,7 +34787,7 @@
       <c r="H535" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I535" s="98">
+      <c r="I535" s="97">
         <v>43918</v>
       </c>
       <c r="J535" s="39" t="s">
@@ -34835,7 +34843,7 @@
       <c r="H536" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I536" s="98">
+      <c r="I536" s="97">
         <v>43919</v>
       </c>
       <c r="J536" s="39" t="s">
@@ -34891,7 +34899,7 @@
       <c r="H537" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I537" s="98">
+      <c r="I537" s="97">
         <v>43920</v>
       </c>
       <c r="J537" s="39" t="s">
@@ -34947,7 +34955,7 @@
       <c r="H538" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I538" s="98">
+      <c r="I538" s="97">
         <v>43916</v>
       </c>
       <c r="J538" s="39" t="s">
@@ -35003,7 +35011,7 @@
       <c r="H539" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I539" s="98">
+      <c r="I539" s="97">
         <v>43919</v>
       </c>
       <c r="J539" s="39" t="s">
@@ -35059,7 +35067,7 @@
       <c r="H540" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="I540" s="98">
+      <c r="I540" s="97">
         <v>43903</v>
       </c>
       <c r="J540" s="39" t="s">
@@ -35115,7 +35123,7 @@
       <c r="H541" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I541" s="98">
+      <c r="I541" s="97">
         <v>43916</v>
       </c>
       <c r="J541" s="39" t="s">
@@ -35171,7 +35179,7 @@
       <c r="H542" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I542" s="98">
+      <c r="I542" s="97">
         <v>43918</v>
       </c>
       <c r="J542" s="39" t="s">
@@ -35227,7 +35235,7 @@
       <c r="H543" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I543" s="98">
+      <c r="I543" s="97">
         <v>43917</v>
       </c>
       <c r="J543" s="39" t="s">
@@ -35283,7 +35291,7 @@
       <c r="H544" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="I544" s="98">
+      <c r="I544" s="97">
         <v>43918</v>
       </c>
       <c r="J544" s="39" t="s">
@@ -35339,7 +35347,7 @@
       <c r="H545" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I545" s="98">
+      <c r="I545" s="97">
         <v>43917</v>
       </c>
       <c r="J545" s="39" t="s">
@@ -35395,7 +35403,7 @@
       <c r="H546" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I546" s="98">
+      <c r="I546" s="97">
         <v>43919</v>
       </c>
       <c r="J546" s="39" t="s">
@@ -35451,7 +35459,7 @@
       <c r="H547" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="I547" s="98">
+      <c r="I547" s="97">
         <v>43915</v>
       </c>
       <c r="J547" s="39" t="s">
@@ -35507,7 +35515,7 @@
       <c r="H548" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="I548" s="98">
+      <c r="I548" s="97">
         <v>43920</v>
       </c>
       <c r="J548" s="39" t="s">
@@ -35563,7 +35571,7 @@
       <c r="H549" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I549" s="98">
+      <c r="I549" s="97">
         <v>43917</v>
       </c>
       <c r="J549" s="39" t="s">
@@ -35619,7 +35627,7 @@
       <c r="H550" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="I550" s="98">
+      <c r="I550" s="97">
         <v>43908</v>
       </c>
       <c r="J550" s="39" t="s">
@@ -35675,7 +35683,7 @@
       <c r="H551" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="I551" s="98" t="s">
+      <c r="I551" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J551" s="39" t="s">
@@ -35731,7 +35739,7 @@
       <c r="H552" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I552" s="98">
+      <c r="I552" s="97">
         <v>43917</v>
       </c>
       <c r="J552" s="39" t="s">
@@ -35787,7 +35795,7 @@
       <c r="H553" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I553" s="98">
+      <c r="I553" s="97">
         <v>43916</v>
       </c>
       <c r="J553" s="39" t="s">
@@ -35843,7 +35851,7 @@
       <c r="H554" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I554" s="98">
+      <c r="I554" s="97">
         <v>43916</v>
       </c>
       <c r="J554" s="39" t="s">
@@ -35899,7 +35907,7 @@
       <c r="H555" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I555" s="98">
+      <c r="I555" s="97">
         <v>43911</v>
       </c>
       <c r="J555" s="39" t="s">
@@ -35955,7 +35963,7 @@
       <c r="H556" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I556" s="98">
+      <c r="I556" s="97">
         <v>43913</v>
       </c>
       <c r="J556" s="39" t="s">
@@ -36011,7 +36019,7 @@
       <c r="H557" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I557" s="98">
+      <c r="I557" s="97">
         <v>43913</v>
       </c>
       <c r="J557" s="39" t="s">
@@ -36067,7 +36075,7 @@
       <c r="H558" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I558" s="98">
+      <c r="I558" s="97">
         <v>43913</v>
       </c>
       <c r="J558" s="39" t="s">
@@ -36123,7 +36131,7 @@
       <c r="H559" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I559" s="98">
+      <c r="I559" s="97">
         <v>43913</v>
       </c>
       <c r="J559" s="39" t="s">
@@ -36179,7 +36187,7 @@
       <c r="H560" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I560" s="98">
+      <c r="I560" s="97">
         <v>43914</v>
       </c>
       <c r="J560" s="39" t="s">
@@ -36235,14 +36243,14 @@
       <c r="H561" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="I561" s="98">
+      <c r="I561" s="97">
         <v>43916</v>
       </c>
       <c r="J561" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K561" s="38" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L561" s="39"/>
       <c r="M561" s="39"/>
@@ -36291,7 +36299,7 @@
       <c r="H562" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I562" s="98">
+      <c r="I562" s="97">
         <v>43918</v>
       </c>
       <c r="J562" s="39" t="s">
@@ -36347,7 +36355,7 @@
       <c r="H563" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I563" s="98">
+      <c r="I563" s="97">
         <v>43914</v>
       </c>
       <c r="J563" s="39" t="s">
@@ -36403,7 +36411,7 @@
       <c r="H564" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I564" s="98">
+      <c r="I564" s="97">
         <v>43916</v>
       </c>
       <c r="J564" s="39" t="s">
@@ -36459,7 +36467,7 @@
       <c r="H565" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I565" s="98">
+      <c r="I565" s="97">
         <v>43909</v>
       </c>
       <c r="J565" s="39" t="s">
@@ -36515,7 +36523,7 @@
       <c r="H566" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I566" s="98">
+      <c r="I566" s="97">
         <v>43913</v>
       </c>
       <c r="J566" s="39" t="s">
@@ -36571,7 +36579,7 @@
       <c r="H567" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I567" s="98">
+      <c r="I567" s="97">
         <v>43916</v>
       </c>
       <c r="J567" s="39" t="s">
@@ -36627,7 +36635,7 @@
       <c r="H568" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I568" s="98">
+      <c r="I568" s="97">
         <v>43911</v>
       </c>
       <c r="J568" s="39" t="s">
@@ -36683,7 +36691,7 @@
       <c r="H569" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="I569" s="98">
+      <c r="I569" s="97">
         <v>43916</v>
       </c>
       <c r="J569" s="39" t="s">
@@ -36739,7 +36747,7 @@
       <c r="H570" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="I570" s="98">
+      <c r="I570" s="97">
         <v>43915</v>
       </c>
       <c r="J570" s="39" t="s">
@@ -36795,7 +36803,7 @@
       <c r="H571" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I571" s="98">
+      <c r="I571" s="97">
         <v>43914</v>
       </c>
       <c r="J571" s="39" t="s">
@@ -36851,7 +36859,7 @@
       <c r="H572" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I572" s="98">
+      <c r="I572" s="97">
         <v>43918</v>
       </c>
       <c r="J572" s="39" t="s">
@@ -36907,7 +36915,7 @@
       <c r="H573" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I573" s="98">
+      <c r="I573" s="97">
         <v>43909</v>
       </c>
       <c r="J573" s="39" t="s">
@@ -36963,7 +36971,7 @@
       <c r="H574" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I574" s="98">
+      <c r="I574" s="97">
         <v>43913</v>
       </c>
       <c r="J574" s="39" t="s">
@@ -37019,7 +37027,7 @@
       <c r="H575" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I575" s="98">
+      <c r="I575" s="97">
         <v>43915</v>
       </c>
       <c r="J575" s="39" t="s">
@@ -37075,7 +37083,7 @@
       <c r="H576" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I576" s="98">
+      <c r="I576" s="97">
         <v>43912</v>
       </c>
       <c r="J576" s="39" t="s">
@@ -37131,7 +37139,7 @@
       <c r="H577" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="I577" s="98">
+      <c r="I577" s="97">
         <v>43913</v>
       </c>
       <c r="J577" s="39" t="s">
@@ -37187,7 +37195,7 @@
       <c r="H578" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I578" s="98">
+      <c r="I578" s="97">
         <v>43909</v>
       </c>
       <c r="J578" s="39" t="s">
@@ -37243,7 +37251,7 @@
       <c r="H579" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I579" s="98">
+      <c r="I579" s="97">
         <v>43908</v>
       </c>
       <c r="J579" s="39" t="s">
@@ -37299,7 +37307,7 @@
       <c r="H580" s="41" t="s">
         <v>604</v>
       </c>
-      <c r="I580" s="98">
+      <c r="I580" s="97">
         <v>43909</v>
       </c>
       <c r="J580" s="39" t="s">
@@ -37355,7 +37363,7 @@
       <c r="H581" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I581" s="98">
+      <c r="I581" s="97">
         <v>43911</v>
       </c>
       <c r="J581" s="39" t="s">
@@ -37411,7 +37419,7 @@
       <c r="H582" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I582" s="98">
+      <c r="I582" s="97">
         <v>43900</v>
       </c>
       <c r="J582" s="39" t="s">
@@ -37467,7 +37475,7 @@
       <c r="H583" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="I583" s="98">
+      <c r="I583" s="97">
         <v>43901</v>
       </c>
       <c r="J583" s="39" t="s">
@@ -37523,7 +37531,7 @@
       <c r="H584" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I584" s="98">
+      <c r="I584" s="97">
         <v>43911</v>
       </c>
       <c r="J584" s="39" t="s">
@@ -37579,7 +37587,7 @@
       <c r="H585" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="I585" s="98">
+      <c r="I585" s="97">
         <v>43904</v>
       </c>
       <c r="J585" s="39" t="s">
@@ -37635,7 +37643,7 @@
       <c r="H586" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I586" s="98">
+      <c r="I586" s="97">
         <v>43900</v>
       </c>
       <c r="J586" s="39" t="s">
@@ -37691,7 +37699,7 @@
       <c r="H587" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="I587" s="98">
+      <c r="I587" s="97">
         <v>43914</v>
       </c>
       <c r="J587" s="39" t="s">
@@ -37747,7 +37755,7 @@
       <c r="H588" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I588" s="98">
+      <c r="I588" s="97">
         <v>43901</v>
       </c>
       <c r="J588" s="39" t="s">
@@ -37803,7 +37811,7 @@
       <c r="H589" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="I589" s="98">
+      <c r="I589" s="97">
         <v>43909</v>
       </c>
       <c r="J589" s="39" t="s">
@@ -37859,7 +37867,7 @@
       <c r="H590" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I590" s="98">
+      <c r="I590" s="97">
         <v>43910</v>
       </c>
       <c r="J590" s="39" t="s">
@@ -37915,7 +37923,7 @@
       <c r="H591" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I591" s="98" t="s">
+      <c r="I591" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J591" s="39" t="s">
@@ -37971,7 +37979,7 @@
       <c r="H592" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I592" s="98">
+      <c r="I592" s="97">
         <v>43910</v>
       </c>
       <c r="J592" s="39" t="s">
@@ -38027,7 +38035,7 @@
       <c r="H593" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I593" s="98">
+      <c r="I593" s="97">
         <v>43901</v>
       </c>
       <c r="J593" s="39" t="s">
@@ -38083,7 +38091,7 @@
       <c r="H594" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I594" s="98">
+      <c r="I594" s="97">
         <v>43901</v>
       </c>
       <c r="J594" s="39" t="s">
@@ -38139,7 +38147,7 @@
       <c r="H595" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I595" s="98">
+      <c r="I595" s="97">
         <v>43911</v>
       </c>
       <c r="J595" s="39" t="s">
@@ -38195,7 +38203,7 @@
       <c r="H596" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I596" s="98" t="s">
+      <c r="I596" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J596" s="39" t="s">
@@ -38251,7 +38259,7 @@
       <c r="H597" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I597" s="98">
+      <c r="I597" s="97">
         <v>43909</v>
       </c>
       <c r="J597" s="39" t="s">
@@ -38307,7 +38315,7 @@
       <c r="H598" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I598" s="98">
+      <c r="I598" s="97">
         <v>43911</v>
       </c>
       <c r="J598" s="39" t="s">
@@ -38363,7 +38371,7 @@
       <c r="H599" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I599" s="98" t="s">
+      <c r="I599" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J599" s="39" t="s">
@@ -38419,7 +38427,7 @@
       <c r="H600" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I600" s="98">
+      <c r="I600" s="97">
         <v>43890</v>
       </c>
       <c r="J600" s="39" t="s">
@@ -38475,7 +38483,7 @@
       <c r="H601" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I601" s="98">
+      <c r="I601" s="97">
         <v>43908</v>
       </c>
       <c r="J601" s="39" t="s">
@@ -38531,7 +38539,7 @@
       <c r="H602" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I602" s="98">
+      <c r="I602" s="97">
         <v>43907</v>
       </c>
       <c r="J602" s="39" t="s">
@@ -38587,7 +38595,7 @@
       <c r="H603" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I603" s="98">
+      <c r="I603" s="97">
         <v>43907</v>
       </c>
       <c r="J603" s="39" t="s">
@@ -38643,7 +38651,7 @@
       <c r="H604" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I604" s="98">
+      <c r="I604" s="97">
         <v>43909</v>
       </c>
       <c r="J604" s="39" t="s">
@@ -38699,7 +38707,7 @@
       <c r="H605" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I605" s="98">
+      <c r="I605" s="97">
         <v>43909</v>
       </c>
       <c r="J605" s="39" t="s">
@@ -38755,7 +38763,7 @@
       <c r="H606" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I606" s="98" t="s">
+      <c r="I606" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J606" s="39" t="s">
@@ -38811,7 +38819,7 @@
       <c r="H607" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I607" s="98">
+      <c r="I607" s="97">
         <v>43890</v>
       </c>
       <c r="J607" s="39" t="s">
@@ -38867,7 +38875,7 @@
       <c r="H608" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I608" s="98" t="s">
+      <c r="I608" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J608" s="39" t="s">
@@ -38923,7 +38931,7 @@
       <c r="H609" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I609" s="98">
+      <c r="I609" s="97">
         <v>43903</v>
       </c>
       <c r="J609" s="39" t="s">
@@ -38979,7 +38987,7 @@
       <c r="H610" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I610" s="98">
+      <c r="I610" s="97">
         <v>43901</v>
       </c>
       <c r="J610" s="39" t="s">
@@ -39203,7 +39211,7 @@
       <c r="H614" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I614" s="98">
+      <c r="I614" s="97">
         <v>43907</v>
       </c>
       <c r="J614" s="39" t="s">
@@ -39483,7 +39491,7 @@
       <c r="H619" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I619" s="98">
+      <c r="I619" s="97">
         <v>43902</v>
       </c>
       <c r="J619" s="39" t="s">
@@ -39595,7 +39603,7 @@
       <c r="H621" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I621" s="98">
+      <c r="I621" s="97">
         <v>43900</v>
       </c>
       <c r="J621" s="39" t="s">
@@ -39651,7 +39659,7 @@
       <c r="H622" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I622" s="98">
+      <c r="I622" s="97">
         <v>43902</v>
       </c>
       <c r="J622" s="39" t="s">
@@ -39707,7 +39715,7 @@
       <c r="H623" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I623" s="98">
+      <c r="I623" s="97">
         <v>43904</v>
       </c>
       <c r="J623" s="39" t="s">
@@ -39763,7 +39771,7 @@
       <c r="H624" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I624" s="98">
+      <c r="I624" s="97">
         <v>43902</v>
       </c>
       <c r="J624" s="39" t="s">
@@ -39819,7 +39827,7 @@
       <c r="H625" s="41" t="s">
         <v>604</v>
       </c>
-      <c r="I625" s="98">
+      <c r="I625" s="97">
         <v>43901</v>
       </c>
       <c r="J625" s="39" t="s">
@@ -39875,7 +39883,7 @@
       <c r="H626" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="I626" s="98">
+      <c r="I626" s="97">
         <v>43892</v>
       </c>
       <c r="J626" s="39" t="s">
@@ -39931,7 +39939,7 @@
       <c r="H627" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I627" s="98">
+      <c r="I627" s="97">
         <v>43897</v>
       </c>
       <c r="J627" s="39" t="s">
@@ -39987,7 +39995,7 @@
       <c r="H628" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I628" s="98" t="s">
+      <c r="I628" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J628" s="39" t="s">
@@ -40043,7 +40051,7 @@
       <c r="H629" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I629" s="98">
+      <c r="I629" s="97">
         <v>43900</v>
       </c>
       <c r="J629" s="39" t="s">
@@ -40099,7 +40107,7 @@
       <c r="H630" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I630" s="98">
+      <c r="I630" s="97">
         <v>43901</v>
       </c>
       <c r="J630" s="39" t="s">
@@ -40155,7 +40163,7 @@
       <c r="H631" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I631" s="98" t="s">
+      <c r="I631" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J631" s="39" t="s">
@@ -40211,7 +40219,7 @@
       <c r="H632" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I632" s="98" t="s">
+      <c r="I632" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J632" s="39" t="s">
@@ -40267,7 +40275,7 @@
       <c r="H633" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I633" s="98" t="s">
+      <c r="I633" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J633" s="39" t="s">
@@ -40323,7 +40331,7 @@
       <c r="H634" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I634" s="98" t="s">
+      <c r="I634" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J634" s="39" t="s">
@@ -40379,7 +40387,7 @@
       <c r="H635" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="I635" s="98" t="s">
+      <c r="I635" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J635" s="39" t="s">
@@ -40435,7 +40443,7 @@
       <c r="H636" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="I636" s="98" t="s">
+      <c r="I636" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J636" s="39" t="s">
@@ -40491,7 +40499,7 @@
       <c r="H637" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I637" s="98">
+      <c r="I637" s="97">
         <v>43893</v>
       </c>
       <c r="J637" s="39" t="s">
@@ -40549,7 +40557,7 @@
       <c r="H638" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I638" s="98">
+      <c r="I638" s="97">
         <v>43892</v>
       </c>
       <c r="J638" s="39" t="s">
@@ -40605,7 +40613,7 @@
       <c r="H639" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I639" s="98">
+      <c r="I639" s="97">
         <v>43892</v>
       </c>
       <c r="J639" s="39" t="s">
@@ -40661,7 +40669,7 @@
       <c r="H640" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I640" s="98">
+      <c r="I640" s="97">
         <v>43899</v>
       </c>
       <c r="J640" s="39" t="s">
@@ -40717,7 +40725,7 @@
       <c r="H641" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I641" s="98">
+      <c r="I641" s="97">
         <v>43900</v>
       </c>
       <c r="J641" s="39" t="s">
@@ -40829,7 +40837,7 @@
       <c r="H643" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I643" s="98">
+      <c r="I643" s="97">
         <v>43895</v>
       </c>
       <c r="J643" s="39" t="s">
@@ -40885,7 +40893,7 @@
       <c r="H644" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I644" s="98" t="s">
+      <c r="I644" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J644" s="39" t="s">
@@ -40941,7 +40949,7 @@
       <c r="H645" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I645" s="98" t="s">
+      <c r="I645" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J645" s="39" t="s">
@@ -41053,7 +41061,7 @@
       <c r="H647" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I647" s="98" t="s">
+      <c r="I647" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J647" s="39" t="s">
@@ -41109,7 +41117,7 @@
       <c r="H648" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I648" s="98" t="s">
+      <c r="I648" s="97" t="s">
         <v>56</v>
       </c>
       <c r="J648" s="39" t="s">
@@ -41165,7 +41173,7 @@
       <c r="H649" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I649" s="98">
+      <c r="I649" s="97">
         <v>43899</v>
       </c>
       <c r="J649" s="39" t="s">
@@ -41277,7 +41285,7 @@
       <c r="H651" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="I651" s="98">
+      <c r="I651" s="97">
         <v>43895</v>
       </c>
       <c r="J651" s="39" t="s">
@@ -41333,7 +41341,7 @@
       <c r="H652" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I652" s="98">
+      <c r="I652" s="97">
         <v>43897</v>
       </c>
       <c r="J652" s="39" t="s">
@@ -41389,7 +41397,7 @@
       <c r="H653" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="I653" s="98">
+      <c r="I653" s="97">
         <v>43901</v>
       </c>
       <c r="J653" s="39" t="s">
@@ -41445,7 +41453,7 @@
       <c r="H654" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I654" s="98">
+      <c r="I654" s="97">
         <v>43896</v>
       </c>
       <c r="J654" s="39" t="s">
@@ -41501,7 +41509,7 @@
       <c r="H655" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="I655" s="98">
+      <c r="I655" s="97">
         <v>43897</v>
       </c>
       <c r="J655" s="39" t="s">
@@ -41557,7 +41565,7 @@
       <c r="H656" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I656" s="98">
+      <c r="I656" s="97">
         <v>43896</v>
       </c>
       <c r="J656" s="39" t="s">
@@ -41613,7 +41621,7 @@
       <c r="H657" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I657" s="98">
+      <c r="I657" s="97">
         <v>43898</v>
       </c>
       <c r="J657" s="39" t="s">
@@ -41671,7 +41679,7 @@
       <c r="H658" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I658" s="98">
+      <c r="I658" s="97">
         <v>43885</v>
       </c>
       <c r="J658" s="39" t="s">
@@ -41729,7 +41737,7 @@
       <c r="H659" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="I659" s="98">
+      <c r="I659" s="97">
         <v>43897</v>
       </c>
       <c r="J659" s="39" t="s">
@@ -41785,7 +41793,7 @@
       <c r="H660" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I660" s="98">
+      <c r="I660" s="97">
         <v>43901</v>
       </c>
       <c r="J660" s="39" t="s">
@@ -41841,7 +41849,7 @@
       <c r="H661" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I661" s="98">
+      <c r="I661" s="97">
         <v>43891</v>
       </c>
       <c r="J661" s="39" t="s">
@@ -41897,7 +41905,7 @@
       <c r="H662" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I662" s="98">
+      <c r="I662" s="97">
         <v>43891</v>
       </c>
       <c r="J662" s="39" t="s">
@@ -41953,7 +41961,7 @@
       <c r="H663" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I663" s="98">
+      <c r="I663" s="97">
         <v>43899</v>
       </c>
       <c r="J663" s="39" t="s">
@@ -42009,7 +42017,7 @@
       <c r="H664" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I664" s="98">
+      <c r="I664" s="97">
         <v>43892</v>
       </c>
       <c r="J664" s="39" t="s">
@@ -42065,7 +42073,7 @@
       <c r="H665" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I665" s="98">
+      <c r="I665" s="97">
         <v>43901</v>
       </c>
       <c r="J665" s="39" t="s">
@@ -42289,7 +42297,7 @@
       <c r="H669" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I669" s="98">
+      <c r="I669" s="97">
         <v>43900</v>
       </c>
       <c r="J669" s="39" t="s">
@@ -42401,7 +42409,7 @@
       <c r="H671" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="I671" s="98">
+      <c r="I671" s="97">
         <v>43887</v>
       </c>
       <c r="J671" s="39" t="s">
@@ -42513,7 +42521,7 @@
       <c r="H673" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="I673" s="98">
+      <c r="I673" s="97">
         <v>43894</v>
       </c>
       <c r="J673" s="39" t="s">
@@ -42744,7 +42752,7 @@
         <v>57</v>
       </c>
       <c r="K677" s="41" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L677" s="53"/>
       <c r="M677" s="39"/>
@@ -42963,7 +42971,7 @@
       <c r="H681" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I681" s="98">
+      <c r="I681" s="97">
         <v>43886</v>
       </c>
       <c r="J681" s="39" t="s">
@@ -43073,7 +43081,7 @@
         <v>44</v>
       </c>
       <c r="H683" s="41"/>
-      <c r="I683" s="98">
+      <c r="I683" s="97">
         <v>43896</v>
       </c>
       <c r="J683" s="39" t="s">
@@ -43127,7 +43135,7 @@
       <c r="H684" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I684" s="98">
+      <c r="I684" s="97">
         <v>43894</v>
       </c>
       <c r="J684" s="39" t="s">
@@ -43183,7 +43191,7 @@
       <c r="H685" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="I685" s="98">
+      <c r="I685" s="97">
         <v>43896</v>
       </c>
       <c r="J685" s="39" t="s">
@@ -43239,7 +43247,7 @@
       <c r="H686" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I686" s="98">
+      <c r="I686" s="97">
         <v>43889</v>
       </c>
       <c r="J686" s="39" t="s">
@@ -44372,7 +44380,7 @@
       </c>
       <c r="Q706" s="2">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R706" s="2">
         <f t="shared" si="11"/>
@@ -44404,7 +44412,7 @@
       </c>
       <c r="Y706" s="2">
         <f t="shared" si="11"/>
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Z706" s="2">
         <f t="shared" si="11"/>
@@ -44412,11 +44420,11 @@
       </c>
       <c r="AA706" s="2">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB706" s="3">
         <f t="shared" si="11"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC706" s="92">
         <f>SUM(L706:AB706)</f>
@@ -44589,6 +44597,20 @@
     <sortCondition descending="1" ref="B7:B705"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -44600,20 +44622,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -3889,7 +3889,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/24 24時現在</t>
+    <t>6/25 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4811,6 +4811,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4825,30 +4849,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5122,7 +5122,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5136,8 +5136,8 @@
   </sheetPr>
   <dimension ref="A1:AC716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5191,14 +5191,14 @@
     </row>
     <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
@@ -5255,77 +5255,77 @@
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="102" t="s">
+      <c r="G4" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="107" t="s">
+      <c r="L4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="107" t="s">
+      <c r="O4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="107" t="s">
+      <c r="Q4" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="109" t="s">
+      <c r="R4" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="107" t="s">
+      <c r="T4" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="107" t="s">
+      <c r="U4" s="102" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="99"/>
-      <c r="W4" s="107" t="s">
+      <c r="W4" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="107" t="s">
+      <c r="X4" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="111" t="s">
+      <c r="Y4" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="113" t="s">
+      <c r="Z4" s="106" t="s">
         <v>21</v>
       </c>
       <c r="AA4" s="13"/>
@@ -5333,31 +5333,31 @@
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="114"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="107"/>
       <c r="AA5" s="16" t="s">
         <v>22</v>
       </c>
@@ -44980,20 +44980,6 @@
     <sortCondition descending="1" ref="B7:B705"/>
   </sortState>
   <mergeCells count="25">
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -45005,6 +44991,20 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5044" uniqueCount="641">
   <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
@@ -3956,10 +3956,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/28 24時現在</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大阪で確認された患者の濃厚接触者</t>
     <rPh sb="0" eb="2">
       <t>オオサカ</t>
@@ -3976,6 +3972,14 @@
     <rPh sb="13" eb="16">
       <t>セッショクシャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/29 24時現在</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5223,7 +5227,10 @@
   <dimension ref="A1:AC717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="G202" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5336,7 +5343,7 @@
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5771,7 +5778,7 @@
         <v>618</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
@@ -16778,8 +16785,8 @@
       <c r="J210" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K210" s="95" t="s">
-        <v>590</v>
+      <c r="K210" s="24" t="s">
+        <v>569</v>
       </c>
       <c r="L210" s="20"/>
       <c r="M210" s="20"/>
@@ -16794,12 +16801,12 @@
       <c r="V210" s="26"/>
       <c r="W210" s="26"/>
       <c r="X210" s="26"/>
-      <c r="Y210" s="27" t="s">
-        <v>282</v>
-      </c>
+      <c r="Y210" s="27"/>
       <c r="Z210" s="28"/>
       <c r="AA210" s="29"/>
-      <c r="AB210" s="30"/>
+      <c r="AB210" s="30" t="s">
+        <v>640</v>
+      </c>
       <c r="AC210" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -44933,7 +44940,7 @@
       </c>
       <c r="Y712" s="2">
         <f t="shared" si="11"/>
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z712" s="2">
         <f t="shared" si="11"/>
@@ -44945,7 +44952,7 @@
       </c>
       <c r="AB712" s="3">
         <f t="shared" si="11"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AC712" s="92">
         <f>SUM(L712:AB712)</f>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\president01\userredirect$\m009118\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640" tabRatio="483"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="483"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$AB$717</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -4007,14 +4012,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7/2 24時現在</t>
+    <t>7/3 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4929,30 +4934,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4968,6 +4949,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4977,6 +4982,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5237,7 +5245,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5255,7 +5263,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5309,14 +5317,14 @@
     </row>
     <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="90"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
@@ -5373,77 +5381,77 @@
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="90"/>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="110" t="s">
+      <c r="G4" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="102" t="s">
+      <c r="L4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="102" t="s">
+      <c r="M4" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="102" t="s">
+      <c r="O4" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="108" t="s">
+      <c r="R4" s="109" t="s">
         <v>220</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="109" t="s">
         <v>221</v>
       </c>
-      <c r="T4" s="102" t="s">
+      <c r="T4" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="107" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="89"/>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="102" t="s">
+      <c r="X4" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="104" t="s">
+      <c r="Y4" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="106" t="s">
+      <c r="Z4" s="113" t="s">
         <v>21</v>
       </c>
       <c r="AA4" s="12"/>
@@ -5451,31 +5459,31 @@
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="90"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="107"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="114"/>
       <c r="AA5" s="15" t="s">
         <v>22</v>
       </c>
@@ -45358,6 +45366,20 @@
     <sortCondition descending="1" ref="B7:B705"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -45369,20 +45391,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/corona_kanjyajyokyo.xlsx
+++ b/corona_kanjyajyokyo.xlsx
@@ -5291,10 +5291,6 @@
     <rPh sb="19" eb="22">
       <t>ドウキョニン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7/27 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5675,6 +5671,10 @@
     <rPh sb="19" eb="22">
       <t>チョウサチュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/28 24時現在</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6969,10 +6969,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6992,27 +7013,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7335,7 +7335,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7350,10 +7350,10 @@
   <dimension ref="A1:AD1072"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7380,14 +7380,14 @@
   <sheetData>
     <row r="1" spans="1:29" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="77"/>
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
       <c r="H1" s="7"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -7439,7 +7439,7 @@
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="11" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -7458,7 +7458,7 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="146" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -7473,77 +7473,77 @@
     </row>
     <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="77"/>
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="186" t="s">
+      <c r="D4" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="186" t="s">
+      <c r="E4" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="186" t="s">
+      <c r="F4" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="186" t="s">
+      <c r="G4" s="176" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="186" t="s">
+      <c r="I4" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="186" t="s">
+      <c r="J4" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="186" t="s">
+      <c r="K4" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="176" t="s">
+      <c r="L4" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="176" t="s">
+      <c r="M4" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="176" t="s">
+      <c r="N4" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="176" t="s">
+      <c r="O4" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="176" t="s">
+      <c r="P4" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="176" t="s">
+      <c r="Q4" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="R4" s="184" t="s">
+      <c r="R4" s="183" t="s">
         <v>187</v>
       </c>
-      <c r="S4" s="184" t="s">
+      <c r="S4" s="183" t="s">
         <v>188</v>
       </c>
-      <c r="T4" s="176" t="s">
+      <c r="T4" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="176" t="s">
+      <c r="U4" s="181" t="s">
         <v>17</v>
       </c>
       <c r="V4" s="156"/>
-      <c r="W4" s="176" t="s">
+      <c r="W4" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="178" t="s">
+      <c r="X4" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="180" t="s">
+      <c r="Y4" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="182" t="s">
+      <c r="Z4" s="189" t="s">
         <v>21</v>
       </c>
       <c r="AA4" s="164"/>
@@ -7551,31 +7551,31 @@
     </row>
     <row r="5" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="77"/>
-      <c r="B5" s="190"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="185"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="177"/>
-      <c r="U5" s="177"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
       <c r="V5" s="88"/>
-      <c r="W5" s="177"/>
-      <c r="X5" s="179"/>
-      <c r="Y5" s="181"/>
-      <c r="Z5" s="183"/>
+      <c r="W5" s="182"/>
+      <c r="X5" s="186"/>
+      <c r="Y5" s="188"/>
+      <c r="Z5" s="190"/>
       <c r="AA5" s="165" t="s">
         <v>22</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>417</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>46</v>
@@ -7642,7 +7642,7 @@
         <v>44035</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K7" s="151" t="s">
         <v>319</v>
@@ -7663,7 +7663,7 @@
       <c r="Y7" s="150"/>
       <c r="Z7" s="91"/>
       <c r="AA7" s="166" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AB7" s="102"/>
       <c r="AC7" s="72"/>
@@ -7695,7 +7695,7 @@
         <v>44036</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K8" s="163" t="s">
         <v>319</v>
@@ -7716,7 +7716,7 @@
       <c r="Y8" s="150"/>
       <c r="Z8" s="91"/>
       <c r="AA8" s="166" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AB8" s="102"/>
       <c r="AC8" s="72"/>
@@ -7739,7 +7739,7 @@
         <v>141</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>34</v>
@@ -7748,7 +7748,7 @@
         <v>44039</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K9" s="151" t="s">
         <v>655</v>
@@ -7767,7 +7767,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="102"/>
       <c r="Y9" s="145" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Z9" s="91"/>
       <c r="AA9" s="167"/>
@@ -7792,7 +7792,7 @@
         <v>163</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>76</v>
@@ -7801,7 +7801,7 @@
         <v>44034</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K10" s="151" t="s">
         <v>655</v>
@@ -7820,7 +7820,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="102"/>
       <c r="Y10" s="145" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="Z10" s="91"/>
       <c r="AA10" s="167"/>
@@ -7845,7 +7845,7 @@
         <v>163</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>72</v>
@@ -7854,7 +7854,7 @@
         <v>44035</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K11" s="163" t="s">
         <v>319</v>
@@ -7875,7 +7875,7 @@
       <c r="Y11" s="150"/>
       <c r="Z11" s="91"/>
       <c r="AA11" s="166" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AB11" s="102"/>
       <c r="AC11" s="72"/>
@@ -7898,7 +7898,7 @@
         <v>149</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>46</v>
@@ -7907,7 +7907,7 @@
         <v>44029</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K12" s="151" t="s">
         <v>655</v>
@@ -7926,7 +7926,7 @@
       <c r="W12" s="91"/>
       <c r="X12" s="102"/>
       <c r="Y12" s="145" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Z12" s="91"/>
       <c r="AA12" s="167"/>
@@ -7960,7 +7960,7 @@
         <v>44035</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K13" s="163" t="s">
         <v>319</v>
@@ -7981,7 +7981,7 @@
       <c r="Y13" s="145"/>
       <c r="Z13" s="91"/>
       <c r="AA13" s="166" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AB13" s="102"/>
       <c r="AC13" s="72"/>
@@ -8007,13 +8007,13 @@
         <v>82</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I14" s="120">
         <v>44032</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K14" s="163" t="s">
         <v>319</v>
@@ -8034,7 +8034,7 @@
       <c r="Y14" s="150"/>
       <c r="Z14" s="91"/>
       <c r="AA14" s="166" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AB14" s="102"/>
       <c r="AC14" s="72"/>
@@ -8066,7 +8066,7 @@
         <v>44038</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K15" s="163" t="s">
         <v>319</v>
@@ -8087,7 +8087,7 @@
       <c r="Y15" s="150"/>
       <c r="Z15" s="91"/>
       <c r="AA15" s="166" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AB15" s="102"/>
       <c r="AC15" s="72"/>
@@ -8119,10 +8119,10 @@
         <v>44034</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K16" s="151" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L16" s="91"/>
       <c r="M16" s="91"/>
@@ -8138,7 +8138,7 @@
       <c r="W16" s="91"/>
       <c r="X16" s="102"/>
       <c r="Y16" s="145" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Z16" s="91"/>
       <c r="AA16" s="167"/>
@@ -8166,16 +8166,16 @@
         <v>328</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I17" s="120">
         <v>44028</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K17" s="151" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L17" s="91"/>
       <c r="M17" s="91"/>
@@ -8191,7 +8191,7 @@
       <c r="W17" s="91"/>
       <c r="X17" s="102"/>
       <c r="Y17" s="145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Z17" s="91"/>
       <c r="AA17" s="167"/>
@@ -8219,16 +8219,16 @@
         <v>328</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I18" s="120">
         <v>44037</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K18" s="151" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L18" s="91"/>
       <c r="M18" s="91"/>
@@ -8244,7 +8244,7 @@
       <c r="W18" s="91"/>
       <c r="X18" s="102"/>
       <c r="Y18" s="145" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Z18" s="91"/>
       <c r="AA18" s="167"/>
@@ -8278,7 +8278,7 @@
         <v>44026</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K19" s="163" t="s">
         <v>386</v>
@@ -8297,7 +8297,7 @@
       <c r="W19" s="91"/>
       <c r="X19" s="102"/>
       <c r="Y19" s="145" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Z19" s="91"/>
       <c r="AA19" s="167"/>
@@ -8334,7 +8334,7 @@
         <v>44</v>
       </c>
       <c r="K20" s="151" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L20" s="91"/>
       <c r="M20" s="91"/>
@@ -8387,7 +8387,7 @@
         <v>44</v>
       </c>
       <c r="K21" s="151" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L21" s="91"/>
       <c r="M21" s="91"/>
@@ -8437,7 +8437,7 @@
         <v>44035</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K22" s="151" t="s">
         <v>637</v>
@@ -8456,7 +8456,7 @@
       <c r="W22" s="91"/>
       <c r="X22" s="102"/>
       <c r="Y22" s="145" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Z22" s="91"/>
       <c r="AA22" s="167"/>
@@ -8490,7 +8490,7 @@
         <v>44031</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K23" s="151" t="s">
         <v>319</v>
@@ -8511,7 +8511,7 @@
       <c r="Y23" s="150"/>
       <c r="Z23" s="91"/>
       <c r="AA23" s="166" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AB23" s="102"/>
       <c r="AC23" s="72"/>
@@ -8543,10 +8543,10 @@
         <v>44</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K24" s="151" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L24" s="91"/>
       <c r="M24" s="91"/>
@@ -8564,7 +8564,7 @@
       <c r="Y24" s="150"/>
       <c r="Z24" s="91"/>
       <c r="AA24" s="166" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AB24" s="102"/>
       <c r="AC24" s="72"/>
@@ -8596,10 +8596,10 @@
         <v>44034</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K25" s="151" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L25" s="91"/>
       <c r="M25" s="91"/>
@@ -8617,7 +8617,7 @@
       <c r="Y25" s="150"/>
       <c r="Z25" s="91"/>
       <c r="AA25" s="166" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AB25" s="102"/>
       <c r="AC25" s="72"/>
@@ -8643,7 +8643,7 @@
         <v>349</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I26" s="120">
         <v>44035</v>
@@ -8652,7 +8652,7 @@
         <v>115</v>
       </c>
       <c r="K26" s="151" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L26" s="91"/>
       <c r="M26" s="91"/>
@@ -8705,7 +8705,7 @@
         <v>115</v>
       </c>
       <c r="K27" s="151" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L27" s="91"/>
       <c r="M27" s="91"/>
@@ -8829,7 +8829,7 @@
       <c r="Y29" s="150"/>
       <c r="Z29" s="91"/>
       <c r="AA29" s="166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB29" s="102"/>
       <c r="AC29" s="72"/>
@@ -8882,7 +8882,7 @@
       <c r="Y30" s="150"/>
       <c r="Z30" s="91"/>
       <c r="AA30" s="166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB30" s="102"/>
       <c r="AC30" s="72"/>
@@ -8935,7 +8935,7 @@
       <c r="Y31" s="150"/>
       <c r="Z31" s="91"/>
       <c r="AA31" s="166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB31" s="102"/>
       <c r="AC31" s="72"/>
@@ -8988,7 +8988,7 @@
       <c r="Y32" s="150"/>
       <c r="Z32" s="91"/>
       <c r="AA32" s="166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB32" s="102"/>
       <c r="AC32" s="72"/>
@@ -9041,7 +9041,7 @@
       <c r="Y33" s="150"/>
       <c r="Z33" s="91"/>
       <c r="AA33" s="166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB33" s="102"/>
       <c r="AC33" s="72"/>
@@ -9094,7 +9094,7 @@
       <c r="Y34" s="150"/>
       <c r="Z34" s="91"/>
       <c r="AA34" s="166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB34" s="102"/>
       <c r="AC34" s="72"/>
@@ -9147,7 +9147,7 @@
       <c r="Y35" s="150"/>
       <c r="Z35" s="91"/>
       <c r="AA35" s="166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB35" s="102"/>
       <c r="AC35" s="72"/>
@@ -9200,7 +9200,7 @@
       <c r="Y36" s="150"/>
       <c r="Z36" s="91"/>
       <c r="AA36" s="166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB36" s="102"/>
       <c r="AC36" s="72"/>
@@ -9253,7 +9253,7 @@
       <c r="Y37" s="150"/>
       <c r="Z37" s="91"/>
       <c r="AA37" s="166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB37" s="102"/>
       <c r="AC37" s="72"/>
@@ -9306,7 +9306,7 @@
       <c r="Y38" s="150"/>
       <c r="Z38" s="91"/>
       <c r="AA38" s="166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB38" s="102"/>
       <c r="AC38" s="72"/>
@@ -9359,7 +9359,7 @@
       <c r="Y39" s="150"/>
       <c r="Z39" s="91"/>
       <c r="AA39" s="166" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB39" s="102"/>
       <c r="AC39" s="72"/>
@@ -9571,7 +9571,7 @@
       <c r="Y43" s="145"/>
       <c r="Z43" s="91"/>
       <c r="AA43" s="166" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AB43" s="102"/>
       <c r="AC43" s="72"/>
@@ -9765,7 +9765,7 @@
         <v>689</v>
       </c>
       <c r="K47" s="151" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L47" s="91"/>
       <c r="M47" s="91"/>
@@ -11620,7 +11620,7 @@
         <v>115</v>
       </c>
       <c r="K82" s="163" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L82" s="91"/>
       <c r="M82" s="91"/>
@@ -11691,7 +11691,7 @@
       <c r="Y83" s="145"/>
       <c r="Z83" s="152"/>
       <c r="AA83" s="166" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AB83" s="161"/>
       <c r="AC83" s="72"/>
@@ -11723,10 +11723,10 @@
         <v>44032</v>
       </c>
       <c r="J84" s="23" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K84" s="163" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L84" s="91"/>
       <c r="M84" s="91"/>
@@ -11744,7 +11744,7 @@
       <c r="Y84" s="145"/>
       <c r="Z84" s="152"/>
       <c r="AA84" s="166" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AB84" s="161"/>
       <c r="AC84" s="72"/>
@@ -13600,7 +13600,7 @@
         <v>689</v>
       </c>
       <c r="K119" s="163" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L119" s="91"/>
       <c r="M119" s="91"/>
@@ -13654,7 +13654,7 @@
         <v>689</v>
       </c>
       <c r="K120" s="163" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L120" s="91"/>
       <c r="M120" s="91"/>
@@ -13762,7 +13762,7 @@
         <v>689</v>
       </c>
       <c r="K122" s="163" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L122" s="91"/>
       <c r="M122" s="91"/>
@@ -66293,6 +66293,20 @@
     <sortCondition descending="1" ref="B7:B705"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
@@ -66304,20 +66318,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
